--- a/csv/adresses_geocodees.xlsx
+++ b/csv/adresses_geocodees.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4521" uniqueCount="4036">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4557" uniqueCount="4068">
   <si>
     <t xml:space="preserve">Code client</t>
   </si>
@@ -11461,12 +11461,24 @@
     <t xml:space="preserve">RUE DE FLORIMOND CRESPIN, 59320 HAUBOURDIN</t>
   </si>
   <si>
+    <t xml:space="preserve">50.610024524107374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9800630817352185</t>
+  </si>
+  <si>
     <t xml:space="preserve">COLAS FRANCE</t>
   </si>
   <si>
     <t xml:space="preserve">RUE DE L ECLUSE ST BERTIN, 62500 SAINT OMER</t>
   </si>
   <si>
+    <t xml:space="preserve">50.74945821371815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2725529124236648</t>
+  </si>
+  <si>
     <t xml:space="preserve">UTI FLANDRES-LYS</t>
   </si>
   <si>
@@ -11476,57 +11488,117 @@
     <t xml:space="preserve">RUE DE LA PAIX, 62018 ARRAS CEDEX 9</t>
   </si>
   <si>
+    <t xml:space="preserve">50.29175039678999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.762562724048722</t>
+  </si>
+  <si>
     <t xml:space="preserve">RUE DE VAL CLAIR, 51100 REIMS</t>
   </si>
   <si>
+    <t xml:space="preserve">49.22206293242281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10757117011157</t>
+  </si>
+  <si>
     <t xml:space="preserve">FOYER SAINT FRANCOIS</t>
   </si>
   <si>
     <t xml:space="preserve">RUE DES DAMES - FACE AU CENTRE EQUESTRE, 62700 BRUAY LA BUISSIERE</t>
   </si>
   <si>
+    <t xml:space="preserve">50.66593143246011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.539600234109357</t>
+  </si>
+  <si>
     <t xml:space="preserve">COMITE DES FETES DE LESPESSES-FAUQUENHEM</t>
   </si>
   <si>
     <t xml:space="preserve">RUE DES ECOLES, 62190 LESPESSES</t>
   </si>
   <si>
+    <t xml:space="preserve">50.5532361388756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.422574240249971</t>
+  </si>
+  <si>
     <t xml:space="preserve">ATOUTIME - GAMM VERT ANIZY 095</t>
   </si>
   <si>
     <t xml:space="preserve">RUE DES FRERES LE NAIN, 02320 ANIZY LE CHATEAU</t>
   </si>
   <si>
+    <t xml:space="preserve">49.505283576213024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4397921835255847</t>
+  </si>
+  <si>
     <t xml:space="preserve">BEERS AND CO BRUAY - SAS STAR- RJ 260825</t>
   </si>
   <si>
     <t xml:space="preserve">RUE DES FRERES LUMIERES, 62700 BRUAY LA BUISSIERE</t>
   </si>
   <si>
+    <t xml:space="preserve">50.49307865071215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5880915682347747</t>
+  </si>
+  <si>
     <t xml:space="preserve">GOLF D'OLHAIN</t>
   </si>
   <si>
     <t xml:space="preserve">RUE DES GARINELLES, 62150 HOUDAIN</t>
   </si>
   <si>
+    <t xml:space="preserve">50.426202982742964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5941238277479153</t>
+  </si>
+  <si>
     <t xml:space="preserve">BELGIUM BEER EXPORT SA</t>
   </si>
   <si>
     <t xml:space="preserve">RUE DES GUILLEMINS 139/9, B-4000 LIEGE</t>
   </si>
   <si>
+    <t xml:space="preserve">50.65455658010081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.502278240472279</t>
+  </si>
+  <si>
     <t xml:space="preserve">MAIRIE DE TRITH ST LEGER-ATELIER MUNICIP</t>
   </si>
   <si>
     <t xml:space="preserve">RUE DES PRES (AU BORD DE L'ESCAUT), 59125 TRITH ST LEGER</t>
   </si>
   <si>
+    <t xml:space="preserve">50.321606223943455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4860651700722483</t>
+  </si>
+  <si>
     <t xml:space="preserve">LE NORD EST</t>
   </si>
   <si>
     <t xml:space="preserve">RUE DU 08 MAI 45, 80000 AMIENS</t>
   </si>
   <si>
+    <t xml:space="preserve">49.87475077605667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.313326308199509</t>
+  </si>
+  <si>
     <t xml:space="preserve">LE SUD EST - SNC PUZOW</t>
   </si>
   <si>
@@ -11536,19 +11608,43 @@
     <t xml:space="preserve">RUE DU 8 MAI 1945, 62223 STE CATHERINE</t>
   </si>
   <si>
+    <t xml:space="preserve">50.30241405267941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.750977885411926</t>
+  </si>
+  <si>
     <t xml:space="preserve">ENJOY THE GAME</t>
   </si>
   <si>
     <t xml:space="preserve">RUE DU CLAIR, 62410 WINGLES</t>
   </si>
   <si>
+    <t xml:space="preserve">50.50602511016545 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8710961111275064</t>
+  </si>
+  <si>
     <t xml:space="preserve">RUE DU DOCTEUR SCHWEITZER, 59037 LILLE CEDEX</t>
   </si>
   <si>
+    <t xml:space="preserve">50.61141936348396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0301422931614006</t>
+  </si>
+  <si>
     <t xml:space="preserve">FOYER LA MARELLE</t>
   </si>
   <si>
     <t xml:space="preserve">RUE DU DR PIETTE, 62800 LIEVIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.43051963542326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7920911259019494</t>
   </si>
   <si>
     <t xml:space="preserve">RUE DU GENERAL LECLERC, 59487 ARMENTIERES CEDEX</t>
@@ -12442,8 +12538,8 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1699" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L1732" activeCellId="0" sqref="L1732"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1744" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J1773" activeCellId="0" sqref="J1773"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -40855,10 +40951,10 @@
       <c r="C1671" s="1" t="s">
         <v>3420</v>
       </c>
-      <c r="D1671" s="2" t="s">
+      <c r="D1671" s="4" t="s">
         <v>3421</v>
       </c>
-      <c r="E1671" s="5" t="s">
+      <c r="E1671" s="4" t="s">
         <v>3422</v>
       </c>
     </row>
@@ -40872,10 +40968,10 @@
       <c r="C1672" s="1" t="s">
         <v>3424</v>
       </c>
-      <c r="D1672" s="2" t="s">
+      <c r="D1672" s="4" t="s">
         <v>3425</v>
       </c>
-      <c r="E1672" s="5" t="s">
+      <c r="E1672" s="4" t="s">
         <v>3426</v>
       </c>
     </row>
@@ -40889,10 +40985,10 @@
       <c r="C1673" s="1" t="s">
         <v>3428</v>
       </c>
-      <c r="D1673" s="2" t="s">
+      <c r="D1673" s="4" t="s">
         <v>3429</v>
       </c>
-      <c r="E1673" s="5" t="s">
+      <c r="E1673" s="4" t="s">
         <v>3430</v>
       </c>
     </row>
@@ -40906,10 +41002,10 @@
       <c r="C1674" s="1" t="s">
         <v>3432</v>
       </c>
-      <c r="D1674" s="2" t="s">
+      <c r="D1674" s="4" t="s">
         <v>3433</v>
       </c>
-      <c r="E1674" s="5" t="s">
+      <c r="E1674" s="4" t="s">
         <v>3434</v>
       </c>
     </row>
@@ -40923,10 +41019,10 @@
       <c r="C1675" s="1" t="s">
         <v>3435</v>
       </c>
-      <c r="D1675" s="2" t="s">
+      <c r="D1675" s="4" t="s">
         <v>3436</v>
       </c>
-      <c r="E1675" s="5" t="s">
+      <c r="E1675" s="4" t="s">
         <v>3437</v>
       </c>
     </row>
@@ -40940,10 +41036,10 @@
       <c r="C1676" s="1" t="s">
         <v>3439</v>
       </c>
-      <c r="D1676" s="2" t="s">
+      <c r="D1676" s="4" t="s">
         <v>3440</v>
       </c>
-      <c r="E1676" s="5" t="s">
+      <c r="E1676" s="4" t="s">
         <v>3441</v>
       </c>
     </row>
@@ -40957,10 +41053,10 @@
       <c r="C1677" s="1" t="s">
         <v>3443</v>
       </c>
-      <c r="D1677" s="2" t="s">
+      <c r="D1677" s="4" t="s">
         <v>3444</v>
       </c>
-      <c r="E1677" s="2" t="s">
+      <c r="E1677" s="4" t="s">
         <v>3445</v>
       </c>
     </row>
@@ -40974,10 +41070,10 @@
       <c r="C1678" s="1" t="s">
         <v>3447</v>
       </c>
-      <c r="D1678" s="2" t="s">
+      <c r="D1678" s="4" t="s">
         <v>3448</v>
       </c>
-      <c r="E1678" s="5" t="s">
+      <c r="E1678" s="4" t="s">
         <v>3449</v>
       </c>
     </row>
@@ -40991,10 +41087,10 @@
       <c r="C1679" s="1" t="s">
         <v>3450</v>
       </c>
-      <c r="D1679" s="2" t="s">
+      <c r="D1679" s="4" t="s">
         <v>3451</v>
       </c>
-      <c r="E1679" s="5" t="s">
+      <c r="E1679" s="4" t="s">
         <v>3452</v>
       </c>
     </row>
@@ -41008,10 +41104,10 @@
       <c r="C1680" s="1" t="s">
         <v>3453</v>
       </c>
-      <c r="D1680" s="2" t="s">
+      <c r="D1680" s="4" t="s">
         <v>3454</v>
       </c>
-      <c r="E1680" s="5" t="s">
+      <c r="E1680" s="4" t="s">
         <v>3455</v>
       </c>
     </row>
@@ -41025,10 +41121,10 @@
       <c r="C1681" s="1" t="s">
         <v>3457</v>
       </c>
-      <c r="D1681" s="2" t="s">
+      <c r="D1681" s="4" t="s">
         <v>3458</v>
       </c>
-      <c r="E1681" s="5" t="s">
+      <c r="E1681" s="4" t="s">
         <v>3459</v>
       </c>
     </row>
@@ -41042,10 +41138,10 @@
       <c r="C1682" s="1" t="s">
         <v>3460</v>
       </c>
-      <c r="D1682" s="2" t="s">
+      <c r="D1682" s="4" t="s">
         <v>3461</v>
       </c>
-      <c r="E1682" s="5" t="s">
+      <c r="E1682" s="4" t="s">
         <v>3462</v>
       </c>
     </row>
@@ -41059,10 +41155,10 @@
       <c r="C1683" s="1" t="s">
         <v>3464</v>
       </c>
-      <c r="D1683" s="2" t="s">
+      <c r="D1683" s="4" t="s">
         <v>3465</v>
       </c>
-      <c r="E1683" s="5" t="s">
+      <c r="E1683" s="4" t="s">
         <v>3466</v>
       </c>
     </row>
@@ -41076,10 +41172,10 @@
       <c r="C1684" s="1" t="s">
         <v>3468</v>
       </c>
-      <c r="D1684" s="2" t="s">
+      <c r="D1684" s="4" t="s">
         <v>3469</v>
       </c>
-      <c r="E1684" s="5" t="s">
+      <c r="E1684" s="4" t="s">
         <v>3470</v>
       </c>
     </row>
@@ -41093,10 +41189,10 @@
       <c r="C1685" s="1" t="s">
         <v>3472</v>
       </c>
-      <c r="D1685" s="2" t="s">
+      <c r="D1685" s="4" t="s">
         <v>3473</v>
       </c>
-      <c r="E1685" s="5" t="s">
+      <c r="E1685" s="4" t="s">
         <v>3474</v>
       </c>
     </row>
@@ -41110,10 +41206,10 @@
       <c r="C1686" s="1" t="s">
         <v>3476</v>
       </c>
-      <c r="D1686" s="2" t="s">
+      <c r="D1686" s="4" t="s">
         <v>3477</v>
       </c>
-      <c r="E1686" s="5" t="s">
+      <c r="E1686" s="4" t="s">
         <v>3478</v>
       </c>
     </row>
@@ -41127,10 +41223,10 @@
       <c r="C1687" s="1" t="s">
         <v>3480</v>
       </c>
-      <c r="D1687" s="2" t="s">
+      <c r="D1687" s="4" t="s">
         <v>3481</v>
       </c>
-      <c r="E1687" s="5" t="s">
+      <c r="E1687" s="4" t="s">
         <v>3482</v>
       </c>
     </row>
@@ -41144,10 +41240,10 @@
       <c r="C1688" s="1" t="s">
         <v>3484</v>
       </c>
-      <c r="D1688" s="2" t="s">
+      <c r="D1688" s="4" t="s">
         <v>3485</v>
       </c>
-      <c r="E1688" s="5" t="s">
+      <c r="E1688" s="4" t="s">
         <v>3486</v>
       </c>
     </row>
@@ -41161,10 +41257,10 @@
       <c r="C1689" s="1" t="s">
         <v>3488</v>
       </c>
-      <c r="D1689" s="2" t="s">
+      <c r="D1689" s="4" t="s">
         <v>3489</v>
       </c>
-      <c r="E1689" s="5" t="s">
+      <c r="E1689" s="4" t="s">
         <v>3490</v>
       </c>
     </row>
@@ -41178,10 +41274,10 @@
       <c r="C1690" s="1" t="s">
         <v>3492</v>
       </c>
-      <c r="D1690" s="2" t="s">
+      <c r="D1690" s="4" t="s">
         <v>3493</v>
       </c>
-      <c r="E1690" s="5" t="s">
+      <c r="E1690" s="4" t="s">
         <v>3494</v>
       </c>
     </row>
@@ -41195,10 +41291,10 @@
       <c r="C1691" s="1" t="s">
         <v>3496</v>
       </c>
-      <c r="D1691" s="2" t="s">
+      <c r="D1691" s="4" t="s">
         <v>3497</v>
       </c>
-      <c r="E1691" s="5" t="s">
+      <c r="E1691" s="4" t="s">
         <v>3498</v>
       </c>
     </row>
@@ -41212,10 +41308,10 @@
       <c r="C1692" s="1" t="s">
         <v>3500</v>
       </c>
-      <c r="D1692" s="2" t="s">
+      <c r="D1692" s="4" t="s">
         <v>3501</v>
       </c>
-      <c r="E1692" s="5" t="s">
+      <c r="E1692" s="4" t="s">
         <v>3502</v>
       </c>
     </row>
@@ -41229,10 +41325,10 @@
       <c r="C1693" s="1" t="s">
         <v>3500</v>
       </c>
-      <c r="D1693" s="2" t="s">
+      <c r="D1693" s="4" t="s">
         <v>3501</v>
       </c>
-      <c r="E1693" s="5" t="s">
+      <c r="E1693" s="4" t="s">
         <v>3502</v>
       </c>
     </row>
@@ -41246,10 +41342,10 @@
       <c r="C1694" s="1" t="s">
         <v>3505</v>
       </c>
-      <c r="D1694" s="2" t="s">
+      <c r="D1694" s="4" t="s">
         <v>3501</v>
       </c>
-      <c r="E1694" s="5" t="s">
+      <c r="E1694" s="4" t="s">
         <v>3502</v>
       </c>
     </row>
@@ -41263,10 +41359,10 @@
       <c r="C1695" s="1" t="s">
         <v>3507</v>
       </c>
-      <c r="D1695" s="2" t="s">
+      <c r="D1695" s="4" t="s">
         <v>3508</v>
       </c>
-      <c r="E1695" s="5" t="s">
+      <c r="E1695" s="4" t="s">
         <v>3509</v>
       </c>
     </row>
@@ -41280,10 +41376,10 @@
       <c r="C1696" s="1" t="s">
         <v>3511</v>
       </c>
-      <c r="D1696" s="2" t="s">
+      <c r="D1696" s="4" t="s">
         <v>3512</v>
       </c>
-      <c r="E1696" s="5" t="s">
+      <c r="E1696" s="4" t="s">
         <v>3513</v>
       </c>
     </row>
@@ -41297,10 +41393,10 @@
       <c r="C1697" s="1" t="s">
         <v>3515</v>
       </c>
-      <c r="D1697" s="2" t="s">
+      <c r="D1697" s="4" t="s">
         <v>3516</v>
       </c>
-      <c r="E1697" s="5" t="s">
+      <c r="E1697" s="4" t="s">
         <v>3517</v>
       </c>
     </row>
@@ -41314,10 +41410,10 @@
       <c r="C1698" s="1" t="s">
         <v>3518</v>
       </c>
-      <c r="D1698" s="2" t="s">
+      <c r="D1698" s="4" t="s">
         <v>3519</v>
       </c>
-      <c r="E1698" s="5" t="s">
+      <c r="E1698" s="4" t="s">
         <v>3520</v>
       </c>
     </row>
@@ -41331,10 +41427,10 @@
       <c r="C1699" s="1" t="s">
         <v>3522</v>
       </c>
-      <c r="D1699" s="2" t="s">
+      <c r="D1699" s="4" t="s">
         <v>3523</v>
       </c>
-      <c r="E1699" s="5" t="s">
+      <c r="E1699" s="4" t="s">
         <v>3524</v>
       </c>
     </row>
@@ -41348,10 +41444,10 @@
       <c r="C1700" s="1" t="s">
         <v>3526</v>
       </c>
-      <c r="D1700" s="2" t="s">
+      <c r="D1700" s="4" t="s">
         <v>3527</v>
       </c>
-      <c r="E1700" s="5" t="s">
+      <c r="E1700" s="4" t="s">
         <v>3528</v>
       </c>
     </row>
@@ -41365,10 +41461,10 @@
       <c r="C1701" s="1" t="s">
         <v>3530</v>
       </c>
-      <c r="D1701" s="2" t="s">
+      <c r="D1701" s="4" t="s">
         <v>3531</v>
       </c>
-      <c r="E1701" s="5" t="s">
+      <c r="E1701" s="4" t="s">
         <v>3532</v>
       </c>
     </row>
@@ -41382,10 +41478,10 @@
       <c r="C1702" s="1" t="s">
         <v>3534</v>
       </c>
-      <c r="D1702" s="2" t="s">
+      <c r="D1702" s="4" t="s">
         <v>3535</v>
       </c>
-      <c r="E1702" s="5" t="s">
+      <c r="E1702" s="4" t="s">
         <v>3536</v>
       </c>
     </row>
@@ -41399,10 +41495,10 @@
       <c r="C1703" s="1" t="s">
         <v>3538</v>
       </c>
-      <c r="D1703" s="2" t="s">
+      <c r="D1703" s="4" t="s">
         <v>3539</v>
       </c>
-      <c r="E1703" s="5" t="s">
+      <c r="E1703" s="4" t="s">
         <v>3540</v>
       </c>
     </row>
@@ -41416,10 +41512,10 @@
       <c r="C1704" s="1" t="s">
         <v>3541</v>
       </c>
-      <c r="D1704" s="2" t="s">
+      <c r="D1704" s="4" t="s">
         <v>3542</v>
       </c>
-      <c r="E1704" s="5" t="s">
+      <c r="E1704" s="4" t="s">
         <v>3543</v>
       </c>
     </row>
@@ -41433,10 +41529,10 @@
       <c r="C1705" s="1" t="s">
         <v>3544</v>
       </c>
-      <c r="D1705" s="2" t="s">
+      <c r="D1705" s="4" t="s">
         <v>3545</v>
       </c>
-      <c r="E1705" s="5" t="s">
+      <c r="E1705" s="4" t="s">
         <v>3546</v>
       </c>
     </row>
@@ -41450,10 +41546,10 @@
       <c r="C1706" s="1" t="s">
         <v>3548</v>
       </c>
-      <c r="D1706" s="2" t="s">
+      <c r="D1706" s="4" t="s">
         <v>3549</v>
       </c>
-      <c r="E1706" s="5" t="s">
+      <c r="E1706" s="4" t="s">
         <v>3550</v>
       </c>
     </row>
@@ -41467,10 +41563,10 @@
       <c r="C1707" s="1" t="s">
         <v>3552</v>
       </c>
-      <c r="D1707" s="2" t="s">
+      <c r="D1707" s="4" t="s">
         <v>3553</v>
       </c>
-      <c r="E1707" s="5" t="s">
+      <c r="E1707" s="4" t="s">
         <v>3554</v>
       </c>
     </row>
@@ -41484,10 +41580,10 @@
       <c r="C1708" s="1" t="s">
         <v>3552</v>
       </c>
-      <c r="D1708" s="2" t="s">
+      <c r="D1708" s="4" t="s">
         <v>3553</v>
       </c>
-      <c r="E1708" s="5" t="s">
+      <c r="E1708" s="4" t="s">
         <v>3554</v>
       </c>
     </row>
@@ -41501,10 +41597,10 @@
       <c r="C1709" s="1" t="s">
         <v>3557</v>
       </c>
-      <c r="D1709" s="2" t="s">
+      <c r="D1709" s="4" t="s">
         <v>3558</v>
       </c>
-      <c r="E1709" s="5" t="s">
+      <c r="E1709" s="4" t="s">
         <v>3559</v>
       </c>
     </row>
@@ -41518,10 +41614,10 @@
       <c r="C1710" s="1" t="s">
         <v>3561</v>
       </c>
-      <c r="D1710" s="2" t="s">
+      <c r="D1710" s="4" t="s">
         <v>3562</v>
       </c>
-      <c r="E1710" s="5" t="s">
+      <c r="E1710" s="4" t="s">
         <v>3563</v>
       </c>
     </row>
@@ -41535,10 +41631,10 @@
       <c r="C1711" s="1" t="s">
         <v>3565</v>
       </c>
-      <c r="D1711" s="2" t="s">
+      <c r="D1711" s="4" t="s">
         <v>3566</v>
       </c>
-      <c r="E1711" s="5" t="s">
+      <c r="E1711" s="4" t="s">
         <v>3567</v>
       </c>
     </row>
@@ -41552,10 +41648,10 @@
       <c r="C1712" s="1" t="s">
         <v>3569</v>
       </c>
-      <c r="D1712" s="2" t="s">
+      <c r="D1712" s="4" t="s">
         <v>3570</v>
       </c>
-      <c r="E1712" s="5" t="s">
+      <c r="E1712" s="4" t="s">
         <v>3571</v>
       </c>
     </row>
@@ -41569,10 +41665,10 @@
       <c r="C1713" s="1" t="s">
         <v>3573</v>
       </c>
-      <c r="D1713" s="2" t="s">
+      <c r="D1713" s="4" t="s">
         <v>3574</v>
       </c>
-      <c r="E1713" s="5" t="s">
+      <c r="E1713" s="4" t="s">
         <v>3575</v>
       </c>
     </row>
@@ -41586,10 +41682,10 @@
       <c r="C1714" s="1" t="s">
         <v>3577</v>
       </c>
-      <c r="D1714" s="2" t="s">
+      <c r="D1714" s="4" t="s">
         <v>3578</v>
       </c>
-      <c r="E1714" s="5" t="s">
+      <c r="E1714" s="4" t="s">
         <v>3579</v>
       </c>
     </row>
@@ -41603,10 +41699,10 @@
       <c r="C1715" s="1" t="s">
         <v>3581</v>
       </c>
-      <c r="D1715" s="2" t="s">
+      <c r="D1715" s="4" t="s">
         <v>3582</v>
       </c>
-      <c r="E1715" s="5" t="s">
+      <c r="E1715" s="4" t="s">
         <v>3583</v>
       </c>
     </row>
@@ -41620,10 +41716,10 @@
       <c r="C1716" s="1" t="s">
         <v>3585</v>
       </c>
-      <c r="D1716" s="2" t="s">
+      <c r="D1716" s="4" t="s">
         <v>3586</v>
       </c>
-      <c r="E1716" s="5" t="s">
+      <c r="E1716" s="4" t="s">
         <v>3587</v>
       </c>
     </row>
@@ -41637,10 +41733,10 @@
       <c r="C1717" s="1" t="s">
         <v>3589</v>
       </c>
-      <c r="D1717" s="2" t="s">
+      <c r="D1717" s="4" t="s">
         <v>3590</v>
       </c>
-      <c r="E1717" s="5" t="s">
+      <c r="E1717" s="4" t="s">
         <v>3591</v>
       </c>
     </row>
@@ -41654,10 +41750,10 @@
       <c r="C1718" s="1" t="s">
         <v>3593</v>
       </c>
-      <c r="D1718" s="2" t="s">
+      <c r="D1718" s="4" t="s">
         <v>3594</v>
       </c>
-      <c r="E1718" s="5" t="s">
+      <c r="E1718" s="4" t="s">
         <v>3595</v>
       </c>
     </row>
@@ -41671,10 +41767,10 @@
       <c r="C1719" s="1" t="s">
         <v>3597</v>
       </c>
-      <c r="D1719" s="2" t="s">
+      <c r="D1719" s="4" t="s">
         <v>3598</v>
       </c>
-      <c r="E1719" s="5" t="s">
+      <c r="E1719" s="4" t="s">
         <v>3599</v>
       </c>
     </row>
@@ -41688,10 +41784,10 @@
       <c r="C1720" s="1" t="s">
         <v>3601</v>
       </c>
-      <c r="D1720" s="2" t="s">
+      <c r="D1720" s="4" t="s">
         <v>3602</v>
       </c>
-      <c r="E1720" s="5" t="s">
+      <c r="E1720" s="4" t="s">
         <v>3603</v>
       </c>
     </row>
@@ -41705,10 +41801,10 @@
       <c r="C1721" s="1" t="s">
         <v>3604</v>
       </c>
-      <c r="D1721" s="2" t="s">
+      <c r="D1721" s="4" t="s">
         <v>3605</v>
       </c>
-      <c r="E1721" s="5" t="s">
+      <c r="E1721" s="4" t="s">
         <v>3606</v>
       </c>
     </row>
@@ -41722,10 +41818,10 @@
       <c r="C1722" s="1" t="s">
         <v>3608</v>
       </c>
-      <c r="D1722" s="2" t="s">
+      <c r="D1722" s="4" t="s">
         <v>3609</v>
       </c>
-      <c r="E1722" s="5" t="s">
+      <c r="E1722" s="4" t="s">
         <v>3610</v>
       </c>
     </row>
@@ -41739,10 +41835,10 @@
       <c r="C1723" s="1" t="s">
         <v>3608</v>
       </c>
-      <c r="D1723" s="2" t="s">
+      <c r="D1723" s="4" t="s">
         <v>3609</v>
       </c>
-      <c r="E1723" s="5" t="s">
+      <c r="E1723" s="4" t="s">
         <v>3610</v>
       </c>
     </row>
@@ -41756,10 +41852,10 @@
       <c r="C1724" s="1" t="s">
         <v>3613</v>
       </c>
-      <c r="D1724" s="2" t="s">
+      <c r="D1724" s="4" t="s">
         <v>3614</v>
       </c>
-      <c r="E1724" s="5" t="s">
+      <c r="E1724" s="4" t="s">
         <v>3615</v>
       </c>
     </row>
@@ -41773,10 +41869,10 @@
       <c r="C1725" s="1" t="s">
         <v>3616</v>
       </c>
-      <c r="D1725" s="2" t="s">
+      <c r="D1725" s="4" t="s">
         <v>3617</v>
       </c>
-      <c r="E1725" s="5" t="s">
+      <c r="E1725" s="4" t="s">
         <v>3618</v>
       </c>
     </row>
@@ -41790,10 +41886,10 @@
       <c r="C1726" s="1" t="s">
         <v>3619</v>
       </c>
-      <c r="D1726" s="2" t="s">
+      <c r="D1726" s="4" t="s">
         <v>3620</v>
       </c>
-      <c r="E1726" s="5" t="s">
+      <c r="E1726" s="4" t="s">
         <v>3621</v>
       </c>
     </row>
@@ -41807,10 +41903,10 @@
       <c r="C1727" s="1" t="s">
         <v>3622</v>
       </c>
-      <c r="D1727" s="2" t="s">
+      <c r="D1727" s="4" t="s">
         <v>3623</v>
       </c>
-      <c r="E1727" s="5" t="s">
+      <c r="E1727" s="4" t="s">
         <v>3624</v>
       </c>
     </row>
@@ -41824,10 +41920,10 @@
       <c r="C1728" s="1" t="s">
         <v>3625</v>
       </c>
-      <c r="D1728" s="2" t="s">
+      <c r="D1728" s="4" t="s">
         <v>3626</v>
       </c>
-      <c r="E1728" s="5" t="s">
+      <c r="E1728" s="4" t="s">
         <v>3627</v>
       </c>
     </row>
@@ -41841,10 +41937,10 @@
       <c r="C1729" s="1" t="s">
         <v>3629</v>
       </c>
-      <c r="D1729" s="2" t="s">
+      <c r="D1729" s="4" t="s">
         <v>3630</v>
       </c>
-      <c r="E1729" s="5" t="s">
+      <c r="E1729" s="4" t="s">
         <v>3631</v>
       </c>
     </row>
@@ -41858,10 +41954,10 @@
       <c r="C1730" s="1" t="s">
         <v>3633</v>
       </c>
-      <c r="D1730" s="2" t="s">
+      <c r="D1730" s="4" t="s">
         <v>3634</v>
       </c>
-      <c r="E1730" s="5" t="s">
+      <c r="E1730" s="4" t="s">
         <v>3635</v>
       </c>
     </row>
@@ -41875,10 +41971,10 @@
       <c r="C1731" s="1" t="s">
         <v>3636</v>
       </c>
-      <c r="D1731" s="2" t="s">
+      <c r="D1731" s="4" t="s">
         <v>3637</v>
       </c>
-      <c r="E1731" s="5" t="s">
+      <c r="E1731" s="4" t="s">
         <v>3638</v>
       </c>
     </row>
@@ -41892,10 +41988,10 @@
       <c r="C1732" s="1" t="s">
         <v>3640</v>
       </c>
-      <c r="D1732" s="2" t="s">
+      <c r="D1732" s="4" t="s">
         <v>3641</v>
       </c>
-      <c r="E1732" s="5" t="s">
+      <c r="E1732" s="4" t="s">
         <v>3642</v>
       </c>
     </row>
@@ -41909,10 +42005,10 @@
       <c r="C1733" s="1" t="s">
         <v>3644</v>
       </c>
-      <c r="D1733" s="2" t="s">
+      <c r="D1733" s="4" t="s">
         <v>3645</v>
       </c>
-      <c r="E1733" s="5" t="s">
+      <c r="E1733" s="4" t="s">
         <v>3646</v>
       </c>
     </row>
@@ -41926,10 +42022,10 @@
       <c r="C1734" s="1" t="s">
         <v>3648</v>
       </c>
-      <c r="D1734" s="2" t="s">
+      <c r="D1734" s="4" t="s">
         <v>3649</v>
       </c>
-      <c r="E1734" s="5" t="s">
+      <c r="E1734" s="4" t="s">
         <v>3650</v>
       </c>
     </row>
@@ -41943,10 +42039,10 @@
       <c r="C1735" s="1" t="s">
         <v>3652</v>
       </c>
-      <c r="D1735" s="2" t="s">
+      <c r="D1735" s="4" t="s">
         <v>3653</v>
       </c>
-      <c r="E1735" s="5" t="s">
+      <c r="E1735" s="4" t="s">
         <v>3654</v>
       </c>
     </row>
@@ -41960,10 +42056,10 @@
       <c r="C1736" s="1" t="s">
         <v>3656</v>
       </c>
-      <c r="D1736" s="2" t="s">
+      <c r="D1736" s="4" t="s">
         <v>3657</v>
       </c>
-      <c r="E1736" s="5" t="s">
+      <c r="E1736" s="4" t="s">
         <v>3658</v>
       </c>
     </row>
@@ -41977,10 +42073,10 @@
       <c r="C1737" s="1" t="s">
         <v>3659</v>
       </c>
-      <c r="D1737" s="2" t="s">
+      <c r="D1737" s="4" t="s">
         <v>3660</v>
       </c>
-      <c r="E1737" s="5" t="s">
+      <c r="E1737" s="4" t="s">
         <v>3661</v>
       </c>
     </row>
@@ -41994,10 +42090,10 @@
       <c r="C1738" s="1" t="s">
         <v>3663</v>
       </c>
-      <c r="D1738" s="2" t="s">
+      <c r="D1738" s="4" t="s">
         <v>3664</v>
       </c>
-      <c r="E1738" s="5" t="s">
+      <c r="E1738" s="4" t="s">
         <v>3665</v>
       </c>
     </row>
@@ -42011,10 +42107,10 @@
       <c r="C1739" s="1" t="s">
         <v>3667</v>
       </c>
-      <c r="D1739" s="2" t="s">
+      <c r="D1739" s="4" t="s">
         <v>3668</v>
       </c>
-      <c r="E1739" s="5" t="s">
+      <c r="E1739" s="4" t="s">
         <v>3669</v>
       </c>
     </row>
@@ -42028,10 +42124,10 @@
       <c r="C1740" s="1" t="s">
         <v>3670</v>
       </c>
-      <c r="D1740" s="2" t="s">
+      <c r="D1740" s="4" t="s">
         <v>3671</v>
       </c>
-      <c r="E1740" s="5" t="s">
+      <c r="E1740" s="4" t="s">
         <v>3672</v>
       </c>
     </row>
@@ -42045,10 +42141,10 @@
       <c r="C1741" s="1" t="s">
         <v>3674</v>
       </c>
-      <c r="D1741" s="2" t="s">
+      <c r="D1741" s="4" t="s">
         <v>3675</v>
       </c>
-      <c r="E1741" s="5" t="s">
+      <c r="E1741" s="4" t="s">
         <v>3676</v>
       </c>
     </row>
@@ -42062,10 +42158,10 @@
       <c r="C1742" s="1" t="s">
         <v>3677</v>
       </c>
-      <c r="D1742" s="2" t="s">
+      <c r="D1742" s="4" t="s">
         <v>3678</v>
       </c>
-      <c r="E1742" s="5" t="s">
+      <c r="E1742" s="4" t="s">
         <v>3679</v>
       </c>
     </row>
@@ -42079,10 +42175,10 @@
       <c r="C1743" s="1" t="s">
         <v>3681</v>
       </c>
-      <c r="D1743" s="2" t="s">
+      <c r="D1743" s="4" t="s">
         <v>3682</v>
       </c>
-      <c r="E1743" s="5" t="s">
+      <c r="E1743" s="4" t="s">
         <v>3683</v>
       </c>
     </row>
@@ -42096,10 +42192,10 @@
       <c r="C1744" s="1" t="s">
         <v>3685</v>
       </c>
-      <c r="D1744" s="2" t="s">
+      <c r="D1744" s="4" t="s">
         <v>3686</v>
       </c>
-      <c r="E1744" s="5" t="s">
+      <c r="E1744" s="4" t="s">
         <v>3687</v>
       </c>
     </row>
@@ -42113,10 +42209,10 @@
       <c r="C1745" s="1" t="s">
         <v>3689</v>
       </c>
-      <c r="D1745" s="2" t="s">
+      <c r="D1745" s="4" t="s">
         <v>3690</v>
       </c>
-      <c r="E1745" s="5" t="s">
+      <c r="E1745" s="4" t="s">
         <v>3691</v>
       </c>
     </row>
@@ -42130,10 +42226,10 @@
       <c r="C1746" s="1" t="s">
         <v>3692</v>
       </c>
-      <c r="D1746" s="2" t="s">
+      <c r="D1746" s="4" t="s">
         <v>3693</v>
       </c>
-      <c r="E1746" s="5" t="s">
+      <c r="E1746" s="4" t="s">
         <v>3694</v>
       </c>
     </row>
@@ -42147,10 +42243,10 @@
       <c r="C1747" s="1" t="s">
         <v>3696</v>
       </c>
-      <c r="D1747" s="2" t="s">
+      <c r="D1747" s="4" t="s">
         <v>3697</v>
       </c>
-      <c r="E1747" s="5" t="s">
+      <c r="E1747" s="4" t="s">
         <v>3698</v>
       </c>
     </row>
@@ -42164,10 +42260,10 @@
       <c r="C1748" s="1" t="s">
         <v>3700</v>
       </c>
-      <c r="D1748" s="2" t="s">
+      <c r="D1748" s="4" t="s">
         <v>3701</v>
       </c>
-      <c r="E1748" s="5" t="s">
+      <c r="E1748" s="4" t="s">
         <v>3702</v>
       </c>
     </row>
@@ -42181,10 +42277,10 @@
       <c r="C1749" s="1" t="s">
         <v>3703</v>
       </c>
-      <c r="D1749" s="2" t="s">
+      <c r="D1749" s="4" t="s">
         <v>3704</v>
       </c>
-      <c r="E1749" s="5" t="s">
+      <c r="E1749" s="4" t="s">
         <v>3705</v>
       </c>
     </row>
@@ -42198,10 +42294,10 @@
       <c r="C1750" s="1" t="s">
         <v>3707</v>
       </c>
-      <c r="D1750" s="2" t="s">
+      <c r="D1750" s="4" t="s">
         <v>3708</v>
       </c>
-      <c r="E1750" s="5" t="s">
+      <c r="E1750" s="4" t="s">
         <v>3709</v>
       </c>
     </row>
@@ -42215,10 +42311,10 @@
       <c r="C1751" s="1" t="s">
         <v>3711</v>
       </c>
-      <c r="D1751" s="2" t="s">
+      <c r="D1751" s="4" t="s">
         <v>3712</v>
       </c>
-      <c r="E1751" s="5" t="s">
+      <c r="E1751" s="4" t="s">
         <v>3713</v>
       </c>
     </row>
@@ -42232,10 +42328,10 @@
       <c r="C1752" s="1" t="s">
         <v>3715</v>
       </c>
-      <c r="D1752" s="2" t="s">
+      <c r="D1752" s="4" t="s">
         <v>3716</v>
       </c>
-      <c r="E1752" s="5" t="s">
+      <c r="E1752" s="4" t="s">
         <v>3717</v>
       </c>
     </row>
@@ -42249,10 +42345,10 @@
       <c r="C1753" s="1" t="s">
         <v>3719</v>
       </c>
-      <c r="D1753" s="2" t="s">
+      <c r="D1753" s="4" t="s">
         <v>3720</v>
       </c>
-      <c r="E1753" s="5" t="s">
+      <c r="E1753" s="4" t="s">
         <v>3721</v>
       </c>
     </row>
@@ -42266,10 +42362,10 @@
       <c r="C1754" s="1" t="s">
         <v>3722</v>
       </c>
-      <c r="D1754" s="2" t="s">
+      <c r="D1754" s="4" t="s">
         <v>3723</v>
       </c>
-      <c r="E1754" s="5" t="s">
+      <c r="E1754" s="4" t="s">
         <v>3724</v>
       </c>
     </row>
@@ -42283,10 +42379,10 @@
       <c r="C1755" s="1" t="s">
         <v>3726</v>
       </c>
-      <c r="D1755" s="2" t="s">
+      <c r="D1755" s="4" t="s">
         <v>3727</v>
       </c>
-      <c r="E1755" s="5" t="s">
+      <c r="E1755" s="4" t="s">
         <v>3728</v>
       </c>
     </row>
@@ -42300,10 +42396,10 @@
       <c r="C1756" s="1" t="s">
         <v>3729</v>
       </c>
-      <c r="D1756" s="2" t="s">
+      <c r="D1756" s="4" t="s">
         <v>3730</v>
       </c>
-      <c r="E1756" s="5" t="s">
+      <c r="E1756" s="4" t="s">
         <v>3731</v>
       </c>
     </row>
@@ -42317,10 +42413,10 @@
       <c r="C1757" s="1" t="s">
         <v>3733</v>
       </c>
-      <c r="D1757" s="2" t="s">
+      <c r="D1757" s="4" t="s">
         <v>3734</v>
       </c>
-      <c r="E1757" s="5" t="s">
+      <c r="E1757" s="4" t="s">
         <v>3735</v>
       </c>
     </row>
@@ -42334,10 +42430,10 @@
       <c r="C1758" s="1" t="s">
         <v>3737</v>
       </c>
-      <c r="D1758" s="2" t="s">
+      <c r="D1758" s="4" t="s">
         <v>3738</v>
       </c>
-      <c r="E1758" s="5" t="s">
+      <c r="E1758" s="4" t="s">
         <v>3739</v>
       </c>
     </row>
@@ -42351,10 +42447,10 @@
       <c r="C1759" s="1" t="s">
         <v>3741</v>
       </c>
-      <c r="D1759" s="2" t="s">
+      <c r="D1759" s="4" t="s">
         <v>3742</v>
       </c>
-      <c r="E1759" s="5" t="s">
+      <c r="E1759" s="4" t="s">
         <v>3743</v>
       </c>
     </row>
@@ -42368,10 +42464,10 @@
       <c r="C1760" s="1" t="s">
         <v>3744</v>
       </c>
-      <c r="D1760" s="2" t="s">
+      <c r="D1760" s="4" t="s">
         <v>3745</v>
       </c>
-      <c r="E1760" s="5" t="s">
+      <c r="E1760" s="4" t="s">
         <v>3746</v>
       </c>
     </row>
@@ -42385,10 +42481,10 @@
       <c r="C1761" s="1" t="s">
         <v>3748</v>
       </c>
-      <c r="D1761" s="2" t="s">
+      <c r="D1761" s="4" t="s">
         <v>3749</v>
       </c>
-      <c r="E1761" s="5" t="s">
+      <c r="E1761" s="4" t="s">
         <v>3750</v>
       </c>
     </row>
@@ -42402,10 +42498,10 @@
       <c r="C1762" s="1" t="s">
         <v>3752</v>
       </c>
-      <c r="D1762" s="2" t="s">
+      <c r="D1762" s="4" t="s">
         <v>3753</v>
       </c>
-      <c r="E1762" s="5" t="s">
+      <c r="E1762" s="4" t="s">
         <v>3754</v>
       </c>
     </row>
@@ -42419,10 +42515,10 @@
       <c r="C1763" s="1" t="s">
         <v>3756</v>
       </c>
-      <c r="D1763" s="2" t="s">
+      <c r="D1763" s="4" t="s">
         <v>3757</v>
       </c>
-      <c r="E1763" s="5" t="s">
+      <c r="E1763" s="4" t="s">
         <v>3758</v>
       </c>
     </row>
@@ -42436,10 +42532,10 @@
       <c r="C1764" s="1" t="s">
         <v>3760</v>
       </c>
-      <c r="D1764" s="2" t="s">
+      <c r="D1764" s="4" t="s">
         <v>3761</v>
       </c>
-      <c r="E1764" s="5" t="s">
+      <c r="E1764" s="4" t="s">
         <v>3762</v>
       </c>
     </row>
@@ -42453,10 +42549,10 @@
       <c r="C1765" s="1" t="s">
         <v>3764</v>
       </c>
-      <c r="D1765" s="2" t="s">
+      <c r="D1765" s="4" t="s">
         <v>3765</v>
       </c>
-      <c r="E1765" s="5" t="s">
+      <c r="E1765" s="4" t="s">
         <v>3766</v>
       </c>
     </row>
@@ -42470,10 +42566,10 @@
       <c r="C1766" s="1" t="s">
         <v>3768</v>
       </c>
-      <c r="D1766" s="2" t="s">
+      <c r="D1766" s="4" t="s">
         <v>3769</v>
       </c>
-      <c r="E1766" s="5" t="s">
+      <c r="E1766" s="4" t="s">
         <v>3770</v>
       </c>
     </row>
@@ -42487,10 +42583,10 @@
       <c r="C1767" s="1" t="s">
         <v>3771</v>
       </c>
-      <c r="D1767" s="2" t="s">
+      <c r="D1767" s="4" t="s">
         <v>3772</v>
       </c>
-      <c r="E1767" s="5" t="s">
+      <c r="E1767" s="4" t="s">
         <v>3773</v>
       </c>
     </row>
@@ -42504,10 +42600,10 @@
       <c r="C1768" s="1" t="s">
         <v>3775</v>
       </c>
-      <c r="D1768" s="2" t="s">
+      <c r="D1768" s="4" t="s">
         <v>3776</v>
       </c>
-      <c r="E1768" s="5" t="s">
+      <c r="E1768" s="4" t="s">
         <v>3777</v>
       </c>
     </row>
@@ -42521,10 +42617,10 @@
       <c r="C1769" s="1" t="s">
         <v>3779</v>
       </c>
-      <c r="D1769" s="2" t="s">
+      <c r="D1769" s="4" t="s">
         <v>3780</v>
       </c>
-      <c r="E1769" s="5" t="s">
+      <c r="E1769" s="4" t="s">
         <v>3781</v>
       </c>
     </row>
@@ -42538,10 +42634,10 @@
       <c r="C1770" s="1" t="s">
         <v>3783</v>
       </c>
-      <c r="D1770" s="2" t="s">
+      <c r="D1770" s="4" t="s">
         <v>3784</v>
       </c>
-      <c r="E1770" s="5" t="s">
+      <c r="E1770" s="4" t="s">
         <v>3785</v>
       </c>
     </row>
@@ -42555,10 +42651,10 @@
       <c r="C1771" s="1" t="s">
         <v>3787</v>
       </c>
-      <c r="D1771" s="2" t="s">
+      <c r="D1771" s="4" t="s">
         <v>3788</v>
       </c>
-      <c r="E1771" s="5" t="s">
+      <c r="E1771" s="4" t="s">
         <v>3789</v>
       </c>
     </row>
@@ -42572,10 +42668,10 @@
       <c r="C1772" s="1" t="s">
         <v>3790</v>
       </c>
-      <c r="D1772" s="2" t="s">
+      <c r="D1772" s="4" t="s">
         <v>3791</v>
       </c>
-      <c r="E1772" s="5" t="s">
+      <c r="E1772" s="4" t="s">
         <v>3792</v>
       </c>
     </row>
@@ -42589,10 +42685,10 @@
       <c r="C1773" s="1" t="s">
         <v>3793</v>
       </c>
-      <c r="D1773" s="2" t="s">
+      <c r="D1773" s="4" t="s">
         <v>3794</v>
       </c>
-      <c r="E1773" s="5" t="s">
+      <c r="E1773" s="4" t="s">
         <v>3795</v>
       </c>
     </row>
@@ -42606,10 +42702,10 @@
       <c r="C1774" s="1" t="s">
         <v>3793</v>
       </c>
-      <c r="D1774" s="2" t="s">
+      <c r="D1774" s="4" t="s">
         <v>3794</v>
       </c>
-      <c r="E1774" s="5" t="s">
+      <c r="E1774" s="4" t="s">
         <v>3795</v>
       </c>
     </row>
@@ -42623,10 +42719,10 @@
       <c r="C1775" s="1" t="s">
         <v>3796</v>
       </c>
-      <c r="D1775" s="2" t="s">
+      <c r="D1775" s="4" t="s">
         <v>3794</v>
       </c>
-      <c r="E1775" s="5" t="s">
+      <c r="E1775" s="4" t="s">
         <v>3795</v>
       </c>
     </row>
@@ -42640,10 +42736,10 @@
       <c r="C1776" s="1" t="s">
         <v>3797</v>
       </c>
-      <c r="D1776" s="2" t="s">
+      <c r="D1776" s="4" t="s">
         <v>3798</v>
       </c>
-      <c r="E1776" s="5" t="s">
+      <c r="E1776" s="4" t="s">
         <v>3799</v>
       </c>
     </row>
@@ -42657,10 +42753,10 @@
       <c r="C1777" s="1" t="s">
         <v>3801</v>
       </c>
-      <c r="D1777" s="2" t="s">
+      <c r="D1777" s="4" t="s">
         <v>3802</v>
       </c>
-      <c r="E1777" s="5" t="s">
+      <c r="E1777" s="4" t="s">
         <v>3803</v>
       </c>
     </row>
@@ -42674,10 +42770,10 @@
       <c r="C1778" s="1" t="s">
         <v>3805</v>
       </c>
-      <c r="D1778" s="2" t="s">
+      <c r="D1778" s="4" t="s">
         <v>3806</v>
       </c>
-      <c r="E1778" s="5" t="s">
+      <c r="E1778" s="4" t="s">
         <v>3807</v>
       </c>
     </row>
@@ -42691,10 +42787,10 @@
       <c r="C1779" s="1" t="s">
         <v>3805</v>
       </c>
-      <c r="D1779" s="2" t="s">
+      <c r="D1779" s="4" t="s">
         <v>3806</v>
       </c>
-      <c r="E1779" s="5" t="s">
+      <c r="E1779" s="4" t="s">
         <v>3807</v>
       </c>
     </row>
@@ -42708,10 +42804,10 @@
       <c r="C1780" s="1" t="s">
         <v>3809</v>
       </c>
-      <c r="D1780" s="2" t="s">
+      <c r="D1780" s="4" t="s">
         <v>3810</v>
       </c>
-      <c r="E1780" s="5" t="s">
+      <c r="E1780" s="4" t="s">
         <v>3811</v>
       </c>
     </row>
@@ -42725,16 +42821,28 @@
       <c r="C1781" s="1" t="s">
         <v>3812</v>
       </c>
+      <c r="D1781" s="2" t="s">
+        <v>3813</v>
+      </c>
+      <c r="E1781" s="5" t="s">
+        <v>3814</v>
+      </c>
     </row>
     <row r="1782" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1782" s="1" t="n">
         <v>13541</v>
       </c>
       <c r="B1782" s="1" t="s">
-        <v>3813</v>
+        <v>3815</v>
       </c>
       <c r="C1782" s="1" t="s">
-        <v>3814</v>
+        <v>3816</v>
+      </c>
+      <c r="D1782" s="2" t="s">
+        <v>3817</v>
+      </c>
+      <c r="E1782" s="5" t="s">
+        <v>3818</v>
       </c>
     </row>
     <row r="1783" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42742,10 +42850,16 @@
         <v>2794</v>
       </c>
       <c r="B1783" s="1" t="s">
-        <v>3815</v>
+        <v>3819</v>
       </c>
       <c r="C1783" s="1" t="s">
-        <v>3816</v>
+        <v>3820</v>
+      </c>
+      <c r="D1783" s="2" t="s">
+        <v>3817</v>
+      </c>
+      <c r="E1783" s="5" t="s">
+        <v>3818</v>
       </c>
     </row>
     <row r="1784" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42756,7 +42870,13 @@
         <v>606</v>
       </c>
       <c r="C1784" s="1" t="s">
-        <v>3817</v>
+        <v>3821</v>
+      </c>
+      <c r="D1784" s="2" t="s">
+        <v>3822</v>
+      </c>
+      <c r="E1784" s="5" t="s">
+        <v>3823</v>
       </c>
     </row>
     <row r="1785" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42767,7 +42887,13 @@
         <v>1423</v>
       </c>
       <c r="C1785" s="1" t="s">
-        <v>3818</v>
+        <v>3824</v>
+      </c>
+      <c r="D1785" s="2" t="s">
+        <v>3825</v>
+      </c>
+      <c r="E1785" s="5" t="s">
+        <v>3826</v>
       </c>
     </row>
     <row r="1786" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42775,10 +42901,16 @@
         <v>2693</v>
       </c>
       <c r="B1786" s="1" t="s">
-        <v>3819</v>
+        <v>3827</v>
       </c>
       <c r="C1786" s="1" t="s">
-        <v>3820</v>
+        <v>3828</v>
+      </c>
+      <c r="D1786" s="2" t="s">
+        <v>3829</v>
+      </c>
+      <c r="E1786" s="5" t="s">
+        <v>3830</v>
       </c>
     </row>
     <row r="1787" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42786,10 +42918,16 @@
         <v>570</v>
       </c>
       <c r="B1787" s="1" t="s">
-        <v>3821</v>
+        <v>3831</v>
       </c>
       <c r="C1787" s="1" t="s">
-        <v>3822</v>
+        <v>3832</v>
+      </c>
+      <c r="D1787" s="2" t="s">
+        <v>3833</v>
+      </c>
+      <c r="E1787" s="5" t="s">
+        <v>3834</v>
       </c>
     </row>
     <row r="1788" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42797,10 +42935,16 @@
         <v>2702</v>
       </c>
       <c r="B1788" s="1" t="s">
-        <v>3823</v>
+        <v>3835</v>
       </c>
       <c r="C1788" s="1" t="s">
-        <v>3824</v>
+        <v>3836</v>
+      </c>
+      <c r="D1788" s="2" t="s">
+        <v>3837</v>
+      </c>
+      <c r="E1788" s="5" t="s">
+        <v>3838</v>
       </c>
     </row>
     <row r="1789" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42808,10 +42952,16 @@
         <v>4555</v>
       </c>
       <c r="B1789" s="1" t="s">
-        <v>3825</v>
+        <v>3839</v>
       </c>
       <c r="C1789" s="1" t="s">
-        <v>3826</v>
+        <v>3840</v>
+      </c>
+      <c r="D1789" s="2" t="s">
+        <v>3841</v>
+      </c>
+      <c r="E1789" s="5" t="s">
+        <v>3842</v>
       </c>
     </row>
     <row r="1790" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42819,10 +42969,16 @@
         <v>51011</v>
       </c>
       <c r="B1790" s="1" t="s">
-        <v>3827</v>
+        <v>3843</v>
       </c>
       <c r="C1790" s="1" t="s">
-        <v>3828</v>
+        <v>3844</v>
+      </c>
+      <c r="D1790" s="2" t="s">
+        <v>3845</v>
+      </c>
+      <c r="E1790" s="5" t="s">
+        <v>3846</v>
       </c>
     </row>
     <row r="1791" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42830,10 +42986,16 @@
         <v>80016</v>
       </c>
       <c r="B1791" s="1" t="s">
-        <v>3829</v>
+        <v>3847</v>
       </c>
       <c r="C1791" s="1" t="s">
-        <v>3830</v>
+        <v>3848</v>
+      </c>
+      <c r="D1791" s="2" t="s">
+        <v>3849</v>
+      </c>
+      <c r="E1791" s="5" t="s">
+        <v>3850</v>
       </c>
     </row>
     <row r="1792" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42841,10 +43003,16 @@
         <v>2103</v>
       </c>
       <c r="B1792" s="1" t="s">
-        <v>3831</v>
+        <v>3851</v>
       </c>
       <c r="C1792" s="1" t="s">
-        <v>3832</v>
+        <v>3852</v>
+      </c>
+      <c r="D1792" s="2" t="s">
+        <v>3853</v>
+      </c>
+      <c r="E1792" s="5" t="s">
+        <v>3854</v>
       </c>
     </row>
     <row r="1793" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42852,10 +43020,16 @@
         <v>3878</v>
       </c>
       <c r="B1793" s="1" t="s">
-        <v>3833</v>
+        <v>3855</v>
       </c>
       <c r="C1793" s="1" t="s">
-        <v>3834</v>
+        <v>3856</v>
+      </c>
+      <c r="D1793" s="2" t="s">
+        <v>3857</v>
+      </c>
+      <c r="E1793" s="5" t="s">
+        <v>3858</v>
       </c>
     </row>
     <row r="1794" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42863,10 +43037,16 @@
         <v>3674</v>
       </c>
       <c r="B1794" s="1" t="s">
-        <v>3835</v>
+        <v>3859</v>
       </c>
       <c r="C1794" s="1" t="s">
-        <v>3834</v>
+        <v>3856</v>
+      </c>
+      <c r="D1794" s="2" t="s">
+        <v>3857</v>
+      </c>
+      <c r="E1794" s="5" t="s">
+        <v>3858</v>
       </c>
     </row>
     <row r="1795" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42874,10 +43054,16 @@
         <v>1981</v>
       </c>
       <c r="B1795" s="1" t="s">
-        <v>3836</v>
+        <v>3860</v>
       </c>
       <c r="C1795" s="1" t="s">
-        <v>3837</v>
+        <v>3861</v>
+      </c>
+      <c r="D1795" s="2" t="s">
+        <v>3862</v>
+      </c>
+      <c r="E1795" s="5" t="s">
+        <v>3863</v>
       </c>
     </row>
     <row r="1796" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42885,10 +43071,16 @@
         <v>3805</v>
       </c>
       <c r="B1796" s="1" t="s">
-        <v>3838</v>
+        <v>3864</v>
       </c>
       <c r="C1796" s="1" t="s">
-        <v>3839</v>
+        <v>3865</v>
+      </c>
+      <c r="D1796" s="2" t="s">
+        <v>3866</v>
+      </c>
+      <c r="E1796" s="5" t="s">
+        <v>3867</v>
       </c>
     </row>
     <row r="1797" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42899,7 +43091,13 @@
         <v>5</v>
       </c>
       <c r="C1797" s="1" t="s">
-        <v>3840</v>
+        <v>3868</v>
+      </c>
+      <c r="D1797" s="2" t="s">
+        <v>3869</v>
+      </c>
+      <c r="E1797" s="2" t="s">
+        <v>3870</v>
       </c>
     </row>
     <row r="1798" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42907,10 +43105,16 @@
         <v>200545</v>
       </c>
       <c r="B1798" s="1" t="s">
-        <v>3841</v>
+        <v>3871</v>
       </c>
       <c r="C1798" s="1" t="s">
-        <v>3842</v>
+        <v>3872</v>
+      </c>
+      <c r="D1798" s="2" t="s">
+        <v>3873</v>
+      </c>
+      <c r="E1798" s="5" t="s">
+        <v>3874</v>
       </c>
     </row>
     <row r="1799" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42921,7 +43125,7 @@
         <v>541</v>
       </c>
       <c r="C1799" s="1" t="s">
-        <v>3843</v>
+        <v>3875</v>
       </c>
     </row>
     <row r="1800" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42932,7 +43136,7 @@
         <v>541</v>
       </c>
       <c r="C1800" s="1" t="s">
-        <v>3843</v>
+        <v>3875</v>
       </c>
     </row>
     <row r="1801" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42943,7 +43147,7 @@
         <v>3400</v>
       </c>
       <c r="C1801" s="1" t="s">
-        <v>3844</v>
+        <v>3876</v>
       </c>
     </row>
     <row r="1802" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42951,10 +43155,10 @@
         <v>3799</v>
       </c>
       <c r="B1802" s="1" t="s">
-        <v>3845</v>
+        <v>3877</v>
       </c>
       <c r="C1802" s="1" t="s">
-        <v>3846</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="1803" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42962,10 +43166,10 @@
         <v>3717</v>
       </c>
       <c r="B1803" s="1" t="s">
-        <v>3847</v>
+        <v>3879</v>
       </c>
       <c r="C1803" s="1" t="s">
-        <v>3848</v>
+        <v>3880</v>
       </c>
     </row>
     <row r="1804" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42973,10 +43177,10 @@
         <v>200856</v>
       </c>
       <c r="B1804" s="1" t="s">
-        <v>3849</v>
+        <v>3881</v>
       </c>
       <c r="C1804" s="1" t="s">
-        <v>3850</v>
+        <v>3882</v>
       </c>
     </row>
     <row r="1805" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42987,7 +43191,7 @@
         <v>155</v>
       </c>
       <c r="C1805" s="1" t="s">
-        <v>3851</v>
+        <v>3883</v>
       </c>
     </row>
     <row r="1806" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42998,7 +43202,7 @@
         <v>807</v>
       </c>
       <c r="C1806" s="1" t="s">
-        <v>3852</v>
+        <v>3884</v>
       </c>
     </row>
     <row r="1807" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43006,10 +43210,10 @@
         <v>851150</v>
       </c>
       <c r="B1807" s="1" t="s">
-        <v>3853</v>
+        <v>3885</v>
       </c>
       <c r="C1807" s="1" t="s">
-        <v>3854</v>
+        <v>3886</v>
       </c>
     </row>
     <row r="1808" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43017,10 +43221,10 @@
         <v>200847</v>
       </c>
       <c r="B1808" s="1" t="s">
-        <v>3855</v>
+        <v>3887</v>
       </c>
       <c r="C1808" s="1" t="s">
-        <v>3856</v>
+        <v>3888</v>
       </c>
     </row>
     <row r="1809" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43031,7 +43235,7 @@
         <v>1554</v>
       </c>
       <c r="C1809" s="1" t="s">
-        <v>3857</v>
+        <v>3889</v>
       </c>
     </row>
     <row r="1810" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43039,10 +43243,10 @@
         <v>99190</v>
       </c>
       <c r="B1810" s="1" t="s">
-        <v>3858</v>
+        <v>3890</v>
       </c>
       <c r="C1810" s="1" t="s">
-        <v>3859</v>
+        <v>3891</v>
       </c>
     </row>
     <row r="1811" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43050,10 +43254,10 @@
         <v>2730</v>
       </c>
       <c r="B1811" s="1" t="s">
-        <v>3860</v>
+        <v>3892</v>
       </c>
       <c r="C1811" s="1" t="s">
-        <v>3861</v>
+        <v>3893</v>
       </c>
     </row>
     <row r="1812" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43061,10 +43265,10 @@
         <v>9911</v>
       </c>
       <c r="B1812" s="1" t="s">
-        <v>3862</v>
+        <v>3894</v>
       </c>
       <c r="C1812" s="1" t="s">
-        <v>3863</v>
+        <v>3895</v>
       </c>
     </row>
     <row r="1813" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43075,7 +43279,7 @@
         <v>541</v>
       </c>
       <c r="C1813" s="1" t="s">
-        <v>3864</v>
+        <v>3896</v>
       </c>
     </row>
     <row r="1814" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43083,10 +43287,10 @@
         <v>200163</v>
       </c>
       <c r="B1814" s="1" t="s">
-        <v>3865</v>
+        <v>3897</v>
       </c>
       <c r="C1814" s="1" t="s">
-        <v>3866</v>
+        <v>3898</v>
       </c>
     </row>
     <row r="1815" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43094,10 +43298,10 @@
         <v>2587</v>
       </c>
       <c r="B1815" s="1" t="s">
-        <v>3867</v>
+        <v>3899</v>
       </c>
       <c r="C1815" s="1" t="s">
-        <v>3868</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="1816" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43105,10 +43309,10 @@
         <v>2120</v>
       </c>
       <c r="B1816" s="1" t="s">
-        <v>3869</v>
+        <v>3901</v>
       </c>
       <c r="C1816" s="1" t="s">
-        <v>3870</v>
+        <v>3902</v>
       </c>
     </row>
     <row r="1817" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43116,10 +43320,10 @@
         <v>200766</v>
       </c>
       <c r="B1817" s="1" t="s">
-        <v>3871</v>
+        <v>3903</v>
       </c>
       <c r="C1817" s="1" t="s">
-        <v>3872</v>
+        <v>3904</v>
       </c>
     </row>
     <row r="1818" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43127,10 +43331,10 @@
         <v>1405</v>
       </c>
       <c r="B1818" s="1" t="s">
-        <v>3869</v>
+        <v>3901</v>
       </c>
       <c r="C1818" s="1" t="s">
-        <v>3873</v>
+        <v>3905</v>
       </c>
     </row>
     <row r="1819" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43138,10 +43342,10 @@
         <v>201193</v>
       </c>
       <c r="B1819" s="1" t="s">
-        <v>3874</v>
+        <v>3906</v>
       </c>
       <c r="C1819" s="1" t="s">
-        <v>3875</v>
+        <v>3907</v>
       </c>
     </row>
     <row r="1820" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43152,7 +43356,7 @@
         <v>1457</v>
       </c>
       <c r="C1820" s="1" t="s">
-        <v>3876</v>
+        <v>3908</v>
       </c>
     </row>
     <row r="1821" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43163,7 +43367,7 @@
         <v>13</v>
       </c>
       <c r="C1821" s="1" t="s">
-        <v>3877</v>
+        <v>3909</v>
       </c>
     </row>
     <row r="1822" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43174,7 +43378,7 @@
         <v>13</v>
       </c>
       <c r="C1822" s="1" t="s">
-        <v>3878</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="1823" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43182,10 +43386,10 @@
         <v>2455</v>
       </c>
       <c r="B1823" s="1" t="s">
-        <v>3879</v>
+        <v>3911</v>
       </c>
       <c r="C1823" s="1" t="s">
-        <v>3880</v>
+        <v>3912</v>
       </c>
     </row>
     <row r="1824" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43196,7 +43400,7 @@
         <v>775</v>
       </c>
       <c r="C1824" s="1" t="s">
-        <v>3880</v>
+        <v>3912</v>
       </c>
     </row>
     <row r="1825" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43207,7 +43411,7 @@
         <v>606</v>
       </c>
       <c r="C1825" s="1" t="s">
-        <v>3881</v>
+        <v>3913</v>
       </c>
     </row>
     <row r="1826" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43215,10 +43419,10 @@
         <v>4424</v>
       </c>
       <c r="B1826" s="1" t="s">
-        <v>3882</v>
+        <v>3914</v>
       </c>
       <c r="C1826" s="1" t="s">
-        <v>3883</v>
+        <v>3915</v>
       </c>
     </row>
     <row r="1827" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43226,10 +43430,10 @@
         <v>2160</v>
       </c>
       <c r="B1827" s="1" t="s">
-        <v>3884</v>
+        <v>3916</v>
       </c>
       <c r="C1827" s="1" t="s">
-        <v>3885</v>
+        <v>3917</v>
       </c>
     </row>
     <row r="1828" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43237,10 +43441,10 @@
         <v>914</v>
       </c>
       <c r="B1828" s="1" t="s">
-        <v>3886</v>
+        <v>3918</v>
       </c>
       <c r="C1828" s="1" t="s">
-        <v>3887</v>
+        <v>3919</v>
       </c>
     </row>
     <row r="1829" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43248,10 +43452,10 @@
         <v>200537</v>
       </c>
       <c r="B1829" s="1" t="s">
-        <v>3888</v>
+        <v>3920</v>
       </c>
       <c r="C1829" s="1" t="s">
-        <v>3889</v>
+        <v>3921</v>
       </c>
     </row>
     <row r="1830" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43262,7 +43466,7 @@
         <v>5</v>
       </c>
       <c r="C1830" s="1" t="s">
-        <v>3890</v>
+        <v>3922</v>
       </c>
     </row>
     <row r="1831" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43273,7 +43477,7 @@
         <v>5</v>
       </c>
       <c r="C1831" s="1" t="s">
-        <v>3890</v>
+        <v>3922</v>
       </c>
     </row>
     <row r="1832" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43284,7 +43488,7 @@
         <v>5</v>
       </c>
       <c r="C1832" s="1" t="s">
-        <v>3891</v>
+        <v>3923</v>
       </c>
     </row>
     <row r="1833" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43295,7 +43499,7 @@
         <v>5</v>
       </c>
       <c r="C1833" s="1" t="s">
-        <v>3891</v>
+        <v>3923</v>
       </c>
     </row>
     <row r="1834" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43306,7 +43510,7 @@
         <v>5</v>
       </c>
       <c r="C1834" s="1" t="s">
-        <v>3892</v>
+        <v>3924</v>
       </c>
     </row>
     <row r="1835" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43317,7 +43521,7 @@
         <v>5</v>
       </c>
       <c r="C1835" s="1" t="s">
-        <v>3892</v>
+        <v>3924</v>
       </c>
     </row>
     <row r="1836" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43325,10 +43529,10 @@
         <v>201013</v>
       </c>
       <c r="B1836" s="1" t="s">
-        <v>3893</v>
+        <v>3925</v>
       </c>
       <c r="C1836" s="1" t="s">
-        <v>3894</v>
+        <v>3926</v>
       </c>
     </row>
     <row r="1837" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43336,10 +43540,10 @@
         <v>3666</v>
       </c>
       <c r="B1837" s="1" t="s">
-        <v>3895</v>
+        <v>3927</v>
       </c>
       <c r="C1837" s="1" t="s">
-        <v>3896</v>
+        <v>3928</v>
       </c>
     </row>
     <row r="1838" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43347,10 +43551,10 @@
         <v>14230</v>
       </c>
       <c r="B1838" s="1" t="s">
-        <v>3897</v>
+        <v>3929</v>
       </c>
       <c r="C1838" s="1" t="s">
-        <v>3898</v>
+        <v>3930</v>
       </c>
     </row>
     <row r="1839" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43358,10 +43562,10 @@
         <v>632</v>
       </c>
       <c r="B1839" s="1" t="s">
-        <v>3899</v>
+        <v>3931</v>
       </c>
       <c r="C1839" s="1" t="s">
-        <v>3900</v>
+        <v>3932</v>
       </c>
     </row>
     <row r="1840" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43372,7 +43576,7 @@
         <v>1286</v>
       </c>
       <c r="C1840" s="1" t="s">
-        <v>3901</v>
+        <v>3933</v>
       </c>
     </row>
     <row r="1841" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43383,7 +43587,7 @@
         <v>606</v>
       </c>
       <c r="C1841" s="1" t="s">
-        <v>3902</v>
+        <v>3934</v>
       </c>
     </row>
     <row r="1842" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43391,10 +43595,10 @@
         <v>2508</v>
       </c>
       <c r="B1842" s="1" t="s">
-        <v>3903</v>
+        <v>3935</v>
       </c>
       <c r="C1842" s="1" t="s">
-        <v>3904</v>
+        <v>3936</v>
       </c>
     </row>
     <row r="1843" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43405,7 +43609,7 @@
         <v>13</v>
       </c>
       <c r="C1843" s="1" t="s">
-        <v>3905</v>
+        <v>3937</v>
       </c>
     </row>
     <row r="1844" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43413,10 +43617,10 @@
         <v>2259</v>
       </c>
       <c r="B1844" s="1" t="s">
-        <v>3906</v>
+        <v>3938</v>
       </c>
       <c r="C1844" s="1" t="s">
-        <v>3907</v>
+        <v>3939</v>
       </c>
     </row>
     <row r="1845" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43424,10 +43628,10 @@
         <v>61353</v>
       </c>
       <c r="B1845" s="1" t="s">
-        <v>3908</v>
+        <v>3940</v>
       </c>
       <c r="C1845" s="1" t="s">
-        <v>3909</v>
+        <v>3941</v>
       </c>
     </row>
     <row r="1846" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43435,10 +43639,10 @@
         <v>4542</v>
       </c>
       <c r="B1846" s="1" t="s">
-        <v>3910</v>
+        <v>3942</v>
       </c>
       <c r="C1846" s="1" t="s">
-        <v>3911</v>
+        <v>3943</v>
       </c>
     </row>
     <row r="1847" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43446,10 +43650,10 @@
         <v>4155</v>
       </c>
       <c r="B1847" s="1" t="s">
-        <v>3912</v>
+        <v>3944</v>
       </c>
       <c r="C1847" s="1" t="s">
-        <v>3913</v>
+        <v>3945</v>
       </c>
     </row>
     <row r="1848" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43460,7 +43664,7 @@
         <v>418</v>
       </c>
       <c r="C1848" s="1" t="s">
-        <v>3914</v>
+        <v>3946</v>
       </c>
     </row>
     <row r="1849" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43471,7 +43675,7 @@
         <v>13</v>
       </c>
       <c r="C1849" s="1" t="s">
-        <v>3915</v>
+        <v>3947</v>
       </c>
     </row>
     <row r="1850" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43479,10 +43683,10 @@
         <v>4212</v>
       </c>
       <c r="B1850" s="1" t="s">
-        <v>3916</v>
+        <v>3948</v>
       </c>
       <c r="C1850" s="1" t="s">
-        <v>3917</v>
+        <v>3949</v>
       </c>
     </row>
     <row r="1851" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43490,10 +43694,10 @@
         <v>4446</v>
       </c>
       <c r="B1851" s="1" t="s">
-        <v>3918</v>
+        <v>3950</v>
       </c>
       <c r="C1851" s="1" t="s">
-        <v>3919</v>
+        <v>3951</v>
       </c>
     </row>
     <row r="1852" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43501,10 +43705,10 @@
         <v>4028</v>
       </c>
       <c r="B1852" s="1" t="s">
-        <v>3920</v>
+        <v>3952</v>
       </c>
       <c r="C1852" s="1" t="s">
-        <v>3919</v>
+        <v>3951</v>
       </c>
     </row>
     <row r="1853" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43512,10 +43716,10 @@
         <v>4215</v>
       </c>
       <c r="B1853" s="1" t="s">
-        <v>3921</v>
+        <v>3953</v>
       </c>
       <c r="C1853" s="1" t="s">
-        <v>3922</v>
+        <v>3954</v>
       </c>
     </row>
     <row r="1854" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43523,10 +43727,10 @@
         <v>4213</v>
       </c>
       <c r="B1854" s="1" t="s">
-        <v>3923</v>
+        <v>3955</v>
       </c>
       <c r="C1854" s="1" t="s">
-        <v>3924</v>
+        <v>3956</v>
       </c>
     </row>
     <row r="1855" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43537,7 +43741,7 @@
         <v>807</v>
       </c>
       <c r="C1855" s="1" t="s">
-        <v>3925</v>
+        <v>3957</v>
       </c>
     </row>
     <row r="1856" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43545,10 +43749,10 @@
         <v>99019</v>
       </c>
       <c r="B1856" s="1" t="s">
-        <v>3926</v>
+        <v>3958</v>
       </c>
       <c r="C1856" s="1" t="s">
-        <v>3927</v>
+        <v>3959</v>
       </c>
     </row>
     <row r="1857" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43556,10 +43760,10 @@
         <v>94049</v>
       </c>
       <c r="B1857" s="1" t="s">
-        <v>3928</v>
+        <v>3960</v>
       </c>
       <c r="C1857" s="1" t="s">
-        <v>3929</v>
+        <v>3961</v>
       </c>
     </row>
     <row r="1858" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43570,7 +43774,7 @@
         <v>1423</v>
       </c>
       <c r="C1858" s="1" t="s">
-        <v>3930</v>
+        <v>3962</v>
       </c>
     </row>
     <row r="1859" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43578,10 +43782,10 @@
         <v>57017</v>
       </c>
       <c r="B1859" s="1" t="s">
-        <v>3931</v>
+        <v>3963</v>
       </c>
       <c r="C1859" s="1" t="s">
-        <v>3932</v>
+        <v>3964</v>
       </c>
     </row>
     <row r="1860" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43589,10 +43793,10 @@
         <v>991241</v>
       </c>
       <c r="B1860" s="1" t="s">
-        <v>3933</v>
+        <v>3965</v>
       </c>
       <c r="C1860" s="1" t="s">
-        <v>3934</v>
+        <v>3966</v>
       </c>
     </row>
     <row r="1861" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43600,10 +43804,10 @@
         <v>1400</v>
       </c>
       <c r="B1861" s="1" t="s">
-        <v>3935</v>
+        <v>3967</v>
       </c>
       <c r="C1861" s="1" t="s">
-        <v>3936</v>
+        <v>3968</v>
       </c>
     </row>
     <row r="1862" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43611,10 +43815,10 @@
         <v>57119</v>
       </c>
       <c r="B1862" s="1" t="s">
-        <v>3937</v>
+        <v>3969</v>
       </c>
       <c r="C1862" s="1" t="s">
-        <v>3938</v>
+        <v>3970</v>
       </c>
     </row>
     <row r="1863" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43622,10 +43826,10 @@
         <v>300263</v>
       </c>
       <c r="B1863" s="1" t="s">
-        <v>3939</v>
+        <v>3971</v>
       </c>
       <c r="C1863" s="1" t="s">
-        <v>3940</v>
+        <v>3972</v>
       </c>
     </row>
     <row r="1864" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43633,10 +43837,10 @@
         <v>95160</v>
       </c>
       <c r="B1864" s="1" t="s">
-        <v>3941</v>
+        <v>3973</v>
       </c>
       <c r="C1864" s="1" t="s">
-        <v>3942</v>
+        <v>3974</v>
       </c>
     </row>
     <row r="1865" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43644,10 +43848,10 @@
         <v>855170</v>
       </c>
       <c r="B1865" s="1" t="s">
-        <v>3943</v>
+        <v>3975</v>
       </c>
       <c r="C1865" s="1" t="s">
-        <v>3944</v>
+        <v>3976</v>
       </c>
     </row>
     <row r="1866" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43655,10 +43859,10 @@
         <v>2540</v>
       </c>
       <c r="B1866" s="1" t="s">
-        <v>3945</v>
+        <v>3977</v>
       </c>
       <c r="C1866" s="1" t="s">
-        <v>3946</v>
+        <v>3978</v>
       </c>
     </row>
     <row r="1867" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43669,7 +43873,7 @@
         <v>13</v>
       </c>
       <c r="C1867" s="1" t="s">
-        <v>3947</v>
+        <v>3979</v>
       </c>
     </row>
     <row r="1868" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43677,10 +43881,10 @@
         <v>80251</v>
       </c>
       <c r="B1868" s="1" t="s">
-        <v>3948</v>
+        <v>3980</v>
       </c>
       <c r="C1868" s="1" t="s">
-        <v>3949</v>
+        <v>3981</v>
       </c>
     </row>
     <row r="1869" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43688,10 +43892,10 @@
         <v>2474</v>
       </c>
       <c r="B1869" s="1" t="s">
-        <v>3950</v>
+        <v>3982</v>
       </c>
       <c r="C1869" s="1" t="s">
-        <v>3951</v>
+        <v>3983</v>
       </c>
     </row>
     <row r="1870" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43699,10 +43903,10 @@
         <v>95310</v>
       </c>
       <c r="B1870" s="1" t="s">
-        <v>3952</v>
+        <v>3984</v>
       </c>
       <c r="C1870" s="1" t="s">
-        <v>3953</v>
+        <v>3985</v>
       </c>
     </row>
     <row r="1871" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43710,10 +43914,10 @@
         <v>4652</v>
       </c>
       <c r="B1871" s="1" t="s">
-        <v>3954</v>
+        <v>3986</v>
       </c>
       <c r="C1871" s="1" t="s">
-        <v>3955</v>
+        <v>3987</v>
       </c>
     </row>
     <row r="1872" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43721,10 +43925,10 @@
         <v>3916</v>
       </c>
       <c r="B1872" s="1" t="s">
-        <v>3956</v>
+        <v>3988</v>
       </c>
       <c r="C1872" s="1" t="s">
-        <v>3957</v>
+        <v>3989</v>
       </c>
     </row>
     <row r="1873" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43732,10 +43936,10 @@
         <v>4672</v>
       </c>
       <c r="B1873" s="1" t="s">
-        <v>3958</v>
+        <v>3990</v>
       </c>
       <c r="C1873" s="1" t="s">
-        <v>3959</v>
+        <v>3991</v>
       </c>
     </row>
     <row r="1874" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43746,7 +43950,7 @@
         <v>1996</v>
       </c>
       <c r="C1874" s="1" t="s">
-        <v>3960</v>
+        <v>3992</v>
       </c>
     </row>
     <row r="1875" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43754,10 +43958,10 @@
         <v>4499</v>
       </c>
       <c r="B1875" s="1" t="s">
-        <v>3961</v>
+        <v>3993</v>
       </c>
       <c r="C1875" s="1" t="s">
-        <v>3962</v>
+        <v>3994</v>
       </c>
     </row>
     <row r="1876" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43768,7 +43972,7 @@
         <v>13</v>
       </c>
       <c r="C1876" s="1" t="s">
-        <v>3963</v>
+        <v>3995</v>
       </c>
     </row>
     <row r="1877" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43776,10 +43980,10 @@
         <v>2529</v>
       </c>
       <c r="B1877" s="1" t="s">
-        <v>3964</v>
+        <v>3996</v>
       </c>
       <c r="C1877" s="1" t="s">
-        <v>3965</v>
+        <v>3997</v>
       </c>
     </row>
     <row r="1878" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43790,7 +43994,7 @@
         <v>103</v>
       </c>
       <c r="C1878" s="1" t="s">
-        <v>3966</v>
+        <v>3998</v>
       </c>
     </row>
     <row r="1879" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43798,10 +44002,10 @@
         <v>3722</v>
       </c>
       <c r="B1879" s="1" t="s">
-        <v>3967</v>
+        <v>3999</v>
       </c>
       <c r="C1879" s="1" t="s">
-        <v>3968</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="1880" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43809,10 +44013,10 @@
         <v>200350</v>
       </c>
       <c r="B1880" s="1" t="s">
-        <v>3969</v>
+        <v>4001</v>
       </c>
       <c r="C1880" s="1" t="s">
-        <v>3970</v>
+        <v>4002</v>
       </c>
     </row>
     <row r="1881" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43820,10 +44024,10 @@
         <v>2448</v>
       </c>
       <c r="B1881" s="1" t="s">
-        <v>3971</v>
+        <v>4003</v>
       </c>
       <c r="C1881" s="1" t="s">
-        <v>3972</v>
+        <v>4004</v>
       </c>
     </row>
     <row r="1882" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43831,10 +44035,10 @@
         <v>4431</v>
       </c>
       <c r="B1882" s="1" t="s">
-        <v>3973</v>
+        <v>4005</v>
       </c>
       <c r="C1882" s="1" t="s">
-        <v>3974</v>
+        <v>4006</v>
       </c>
     </row>
     <row r="1883" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43842,10 +44046,10 @@
         <v>855165</v>
       </c>
       <c r="B1883" s="1" t="s">
-        <v>3943</v>
+        <v>3975</v>
       </c>
       <c r="C1883" s="1" t="s">
-        <v>3975</v>
+        <v>4007</v>
       </c>
     </row>
     <row r="1884" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43853,10 +44057,10 @@
         <v>7786</v>
       </c>
       <c r="B1884" s="1" t="s">
-        <v>3976</v>
+        <v>4008</v>
       </c>
       <c r="C1884" s="1" t="s">
-        <v>3977</v>
+        <v>4009</v>
       </c>
     </row>
     <row r="1885" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43864,10 +44068,10 @@
         <v>4198</v>
       </c>
       <c r="B1885" s="1" t="s">
-        <v>3978</v>
+        <v>4010</v>
       </c>
       <c r="C1885" s="1" t="s">
-        <v>3979</v>
+        <v>4011</v>
       </c>
     </row>
     <row r="1886" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43878,7 +44082,7 @@
         <v>606</v>
       </c>
       <c r="C1886" s="1" t="s">
-        <v>3980</v>
+        <v>4012</v>
       </c>
     </row>
     <row r="1887" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43889,7 +44093,7 @@
         <v>1039</v>
       </c>
       <c r="C1887" s="1" t="s">
-        <v>3981</v>
+        <v>4013</v>
       </c>
     </row>
     <row r="1888" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43900,7 +44104,7 @@
         <v>103</v>
       </c>
       <c r="C1888" s="1" t="s">
-        <v>3982</v>
+        <v>4014</v>
       </c>
     </row>
     <row r="1889" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43908,10 +44112,10 @@
         <v>4316</v>
       </c>
       <c r="B1889" s="1" t="s">
-        <v>3983</v>
+        <v>4015</v>
       </c>
       <c r="C1889" s="1" t="s">
-        <v>3984</v>
+        <v>4016</v>
       </c>
     </row>
     <row r="1890" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43919,10 +44123,10 @@
         <v>3349</v>
       </c>
       <c r="B1890" s="1" t="s">
-        <v>3985</v>
+        <v>4017</v>
       </c>
       <c r="C1890" s="1" t="s">
-        <v>3986</v>
+        <v>4018</v>
       </c>
     </row>
     <row r="1891" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43933,7 +44137,7 @@
         <v>1554</v>
       </c>
       <c r="C1891" s="1" t="s">
-        <v>3987</v>
+        <v>4019</v>
       </c>
     </row>
     <row r="1892" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43941,10 +44145,10 @@
         <v>998</v>
       </c>
       <c r="B1892" s="1" t="s">
-        <v>3988</v>
+        <v>4020</v>
       </c>
       <c r="C1892" s="1" t="s">
-        <v>3989</v>
+        <v>4021</v>
       </c>
     </row>
     <row r="1893" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43952,10 +44156,10 @@
         <v>2444</v>
       </c>
       <c r="B1893" s="1" t="s">
-        <v>3990</v>
+        <v>4022</v>
       </c>
       <c r="C1893" s="1" t="s">
-        <v>3991</v>
+        <v>4023</v>
       </c>
     </row>
     <row r="1894" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43966,7 +44170,7 @@
         <v>51</v>
       </c>
       <c r="C1894" s="1" t="s">
-        <v>3992</v>
+        <v>4024</v>
       </c>
     </row>
     <row r="1895" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43974,10 +44178,10 @@
         <v>4096</v>
       </c>
       <c r="B1895" s="1" t="s">
-        <v>3993</v>
+        <v>4025</v>
       </c>
       <c r="C1895" s="1" t="s">
-        <v>3994</v>
+        <v>4026</v>
       </c>
     </row>
     <row r="1896" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43985,10 +44189,10 @@
         <v>2740</v>
       </c>
       <c r="B1896" s="1" t="s">
-        <v>3995</v>
+        <v>4027</v>
       </c>
       <c r="C1896" s="1" t="s">
-        <v>3996</v>
+        <v>4028</v>
       </c>
     </row>
     <row r="1897" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43996,10 +44200,10 @@
         <v>2452</v>
       </c>
       <c r="B1897" s="1" t="s">
-        <v>3997</v>
+        <v>4029</v>
       </c>
       <c r="C1897" s="1" t="s">
-        <v>3998</v>
+        <v>4030</v>
       </c>
     </row>
     <row r="1898" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44007,10 +44211,10 @@
         <v>4263</v>
       </c>
       <c r="B1898" s="1" t="s">
-        <v>3999</v>
+        <v>4031</v>
       </c>
       <c r="C1898" s="1" t="s">
-        <v>4000</v>
+        <v>4032</v>
       </c>
     </row>
     <row r="1899" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44018,10 +44222,10 @@
         <v>2445</v>
       </c>
       <c r="B1899" s="1" t="s">
-        <v>4001</v>
+        <v>4033</v>
       </c>
       <c r="C1899" s="1" t="s">
-        <v>4002</v>
+        <v>4034</v>
       </c>
     </row>
     <row r="1900" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44029,10 +44233,10 @@
         <v>2774</v>
       </c>
       <c r="B1900" s="1" t="s">
-        <v>4003</v>
+        <v>4035</v>
       </c>
       <c r="C1900" s="1" t="s">
-        <v>4004</v>
+        <v>4036</v>
       </c>
     </row>
     <row r="1901" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44040,10 +44244,10 @@
         <v>2528</v>
       </c>
       <c r="B1901" s="1" t="s">
-        <v>4005</v>
+        <v>4037</v>
       </c>
       <c r="C1901" s="1" t="s">
-        <v>4006</v>
+        <v>4038</v>
       </c>
     </row>
     <row r="1902" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44051,10 +44255,10 @@
         <v>2382</v>
       </c>
       <c r="B1902" s="1" t="s">
-        <v>4007</v>
+        <v>4039</v>
       </c>
       <c r="C1902" s="1" t="s">
-        <v>4008</v>
+        <v>4040</v>
       </c>
     </row>
     <row r="1903" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44062,10 +44266,10 @@
         <v>855160</v>
       </c>
       <c r="B1903" s="1" t="s">
-        <v>3943</v>
+        <v>3975</v>
       </c>
       <c r="C1903" s="1" t="s">
-        <v>4009</v>
+        <v>4041</v>
       </c>
     </row>
     <row r="1904" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44073,10 +44277,10 @@
         <v>2694</v>
       </c>
       <c r="B1904" s="1" t="s">
-        <v>4010</v>
+        <v>4042</v>
       </c>
       <c r="C1904" s="1" t="s">
-        <v>4011</v>
+        <v>4043</v>
       </c>
     </row>
     <row r="1905" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44084,10 +44288,10 @@
         <v>3619</v>
       </c>
       <c r="B1905" s="1" t="s">
-        <v>4012</v>
+        <v>4044</v>
       </c>
       <c r="C1905" s="1" t="s">
-        <v>4013</v>
+        <v>4045</v>
       </c>
     </row>
     <row r="1906" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44095,10 +44299,10 @@
         <v>2763</v>
       </c>
       <c r="B1906" s="1" t="s">
-        <v>4014</v>
+        <v>4046</v>
       </c>
       <c r="C1906" s="1" t="s">
-        <v>4015</v>
+        <v>4047</v>
       </c>
     </row>
     <row r="1907" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44106,10 +44310,10 @@
         <v>99530</v>
       </c>
       <c r="B1907" s="1" t="s">
-        <v>4016</v>
+        <v>4048</v>
       </c>
       <c r="C1907" s="1" t="s">
-        <v>4017</v>
+        <v>4049</v>
       </c>
     </row>
     <row r="1908" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44117,10 +44321,10 @@
         <v>2757</v>
       </c>
       <c r="B1908" s="1" t="s">
-        <v>4018</v>
+        <v>4050</v>
       </c>
       <c r="C1908" s="1" t="s">
-        <v>4019</v>
+        <v>4051</v>
       </c>
     </row>
     <row r="1909" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44128,10 +44332,10 @@
         <v>2751</v>
       </c>
       <c r="B1909" s="1" t="s">
-        <v>4020</v>
+        <v>4052</v>
       </c>
       <c r="C1909" s="1" t="s">
-        <v>4021</v>
+        <v>4053</v>
       </c>
     </row>
     <row r="1910" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44139,10 +44343,10 @@
         <v>4233</v>
       </c>
       <c r="B1910" s="1" t="s">
-        <v>4022</v>
+        <v>4054</v>
       </c>
       <c r="C1910" s="1" t="s">
-        <v>4023</v>
+        <v>4055</v>
       </c>
     </row>
     <row r="1911" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44150,10 +44354,10 @@
         <v>1160</v>
       </c>
       <c r="B1911" s="1" t="s">
-        <v>4024</v>
+        <v>4056</v>
       </c>
       <c r="C1911" s="1" t="s">
-        <v>4025</v>
+        <v>4057</v>
       </c>
     </row>
     <row r="1912" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44161,10 +44365,10 @@
         <v>6010</v>
       </c>
       <c r="B1912" s="1" t="s">
-        <v>4026</v>
+        <v>4058</v>
       </c>
       <c r="C1912" s="1" t="s">
-        <v>4027</v>
+        <v>4059</v>
       </c>
     </row>
     <row r="1913" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44172,10 +44376,10 @@
         <v>111206</v>
       </c>
       <c r="B1913" s="1" t="s">
-        <v>4028</v>
+        <v>4060</v>
       </c>
       <c r="C1913" s="1" t="s">
-        <v>4029</v>
+        <v>4061</v>
       </c>
     </row>
     <row r="1914" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44183,10 +44387,10 @@
         <v>903</v>
       </c>
       <c r="B1914" s="1" t="s">
-        <v>4030</v>
+        <v>4062</v>
       </c>
       <c r="C1914" s="1" t="s">
-        <v>4031</v>
+        <v>4063</v>
       </c>
     </row>
     <row r="1915" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44194,10 +44398,10 @@
         <v>2267</v>
       </c>
       <c r="B1915" s="1" t="s">
-        <v>4032</v>
+        <v>4064</v>
       </c>
       <c r="C1915" s="1" t="s">
-        <v>4033</v>
+        <v>4065</v>
       </c>
     </row>
     <row r="1916" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -44205,10 +44409,10 @@
         <v>2449</v>
       </c>
       <c r="B1916" s="1" t="s">
-        <v>4034</v>
+        <v>4066</v>
       </c>
       <c r="C1916" s="1" t="s">
-        <v>4035</v>
+        <v>4067</v>
       </c>
     </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/csv/adresses_geocodees.xlsx
+++ b/csv/adresses_geocodees.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4557" uniqueCount="4068">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4749" uniqueCount="4270">
   <si>
     <t xml:space="preserve">Code client</t>
   </si>
@@ -11650,79 +11650,175 @@
     <t xml:space="preserve">RUE DU GENERAL LECLERC, 59487 ARMENTIERES CEDEX</t>
   </si>
   <si>
+    <t xml:space="preserve">50.70072071580192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.890543543007146</t>
+  </si>
+  <si>
     <t xml:space="preserve">RUE DU GRAND BUT, 59462 LOMME CEDEX</t>
   </si>
   <si>
+    <t xml:space="preserve">50.65278763290072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.973975710065968</t>
+  </si>
+  <si>
     <t xml:space="preserve">OCINE SAINT OMER</t>
   </si>
   <si>
     <t xml:space="preserve">RUE DU LION D'OR, 62500 ST OMER</t>
   </si>
   <si>
+    <t xml:space="preserve">50.75106373708734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.250150996632755</t>
+  </si>
+  <si>
     <t xml:space="preserve">AIRE TENNIS CLUB</t>
   </si>
   <si>
-    <t xml:space="preserve">RUE DU NOUVEAU QUAI, 62120 AIRE SUR LA LYS</t>
+    <t xml:space="preserve">26 RUE DU NOUVEAU QUAI, 62120 AIRE SUR LA LYS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.64279203511305</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.403258383132854</t>
   </si>
   <si>
     <t xml:space="preserve">COLLEGE LES ARGOUSIERS</t>
   </si>
   <si>
-    <t xml:space="preserve">RUE DU PONT D'OYE, 62215 OYE PLAGE</t>
+    <t xml:space="preserve">341 RUE DU PONT D'OYE, 62215 OYE PLAGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.97607505591419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0435267678113798</t>
   </si>
   <si>
     <t xml:space="preserve">RUE DU PONT DE TROUILLE, 62107 CALAIS CEDEX</t>
   </si>
   <si>
+    <t xml:space="preserve">50.94115282014138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8917249101378824</t>
+  </si>
+  <si>
     <t xml:space="preserve">RUE DU RIVAGE GAYANT, 59119 WAZIERS</t>
   </si>
   <si>
+    <t xml:space="preserve">50.3833333838505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0989249119521856</t>
+  </si>
+  <si>
     <t xml:space="preserve">SCAPEST</t>
   </si>
   <si>
     <t xml:space="preserve">RUE DU TERME DE LA MOUIC, 51520 RECY</t>
   </si>
   <si>
+    <t xml:space="preserve">48.990078296901984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.327709396523058</t>
+  </si>
+  <si>
     <t xml:space="preserve">COLLEGE DU BREDENARDE</t>
   </si>
   <si>
-    <t xml:space="preserve">RUE ED. DUPONT, 62370 AUDRUICQ</t>
+    <t xml:space="preserve">500 RUE ED. DUPONT, 62370 AUDRUICQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.87680263743813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.070582896640719</t>
   </si>
   <si>
     <t xml:space="preserve">RUE EDGAR SELLIER, 62800 LIEVIN</t>
   </si>
   <si>
+    <t xml:space="preserve">50.42086883408376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7953098826651526</t>
+  </si>
+  <si>
     <t xml:space="preserve">SODIBOISSONS - SDB LITTORAL</t>
   </si>
   <si>
     <t xml:space="preserve">RUE EDOUARD POTTIER, 62500 LEULINGHEM</t>
   </si>
   <si>
+    <t xml:space="preserve">50.72766089190703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.177328267795685</t>
+  </si>
+  <si>
     <t xml:space="preserve">ATOUTIME - GAMM VERT ESTREE BLANCHE 157</t>
   </si>
   <si>
     <t xml:space="preserve">RUE FANCOIS DENOEUX, 62145 ESTREE BLANCHE</t>
   </si>
   <si>
+    <t xml:space="preserve">50.59339979830171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3194877505951585</t>
+  </si>
+  <si>
     <t xml:space="preserve">TRENDY FOODS BELGIUM SA</t>
   </si>
   <si>
     <t xml:space="preserve">RUE FOND DES FOURCHES 23D, B-4041 HERSTAL – MILMORT</t>
   </si>
   <si>
+    <t xml:space="preserve">50.68138322536688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.581394010121464</t>
+  </si>
+  <si>
     <t xml:space="preserve">RUE GENERAL LECLERC, 59487 ARMENTIERES CEDEX</t>
   </si>
   <si>
+    <t xml:space="preserve">50.695072592425134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.887148297083932</t>
+  </si>
+  <si>
     <t xml:space="preserve">EPDSAE FOYER DE VIE SYMPHONIA</t>
   </si>
   <si>
     <t xml:space="preserve">RUE HENRY GHESQUIETE, 59221 BAUVIN</t>
   </si>
   <si>
+    <t xml:space="preserve">50.507087279163365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.896907910110478</t>
+  </si>
+  <si>
     <t xml:space="preserve">CENTRE HOSPITALIER LE CATEAU CAMBRESIS</t>
   </si>
   <si>
-    <t xml:space="preserve">RUE HIOLIN - SONNER A LA GRILLE, 59360 LE CATEAU CAMBRESIS</t>
+    <t xml:space="preserve">28 RUE HIOLIN - SONNER A LA GRILLE, 59360 LE CATEAU CAMBRESIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.105252390442544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5358029965922064</t>
   </si>
   <si>
     <t xml:space="preserve">CENT.HOSPIT.DUNKERQUE</t>
@@ -11731,109 +11827,244 @@
     <t xml:space="preserve">RUE J. J. ROUSSEAU, 59240 DUNKERQUE</t>
   </si>
   <si>
+    <t xml:space="preserve">51.038422219763454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3958710948015085</t>
+  </si>
+  <si>
     <t xml:space="preserve">EHPAD SAINT CAMILLE PROVIN</t>
   </si>
   <si>
-    <t xml:space="preserve">RUE J.B. LEBAS, 59185 PROVIN</t>
+    <t xml:space="preserve">7 RUE J.B. LEBAS, 59185 PROVIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.51461009487098</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.9120468831247885</t>
   </si>
   <si>
     <t xml:space="preserve">RUE J.J. ROUSSEAU, 59140 DUNKERQUE</t>
   </si>
   <si>
+    <t xml:space="preserve">51.0384492048849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3959891119935364</t>
+  </si>
+  <si>
     <t xml:space="preserve">LYCEE POLYVALENT VAL DE LYS</t>
   </si>
   <si>
     <t xml:space="preserve">RUE JACQUEMINARS, 59940 ESTAIRES</t>
   </si>
   <si>
+    <t xml:space="preserve">50.645040436415066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.705118283132972</t>
+  </si>
+  <si>
     <t xml:space="preserve">RUE LAZARE CARNOT, 62800 LIEVIN</t>
   </si>
   <si>
+    <t xml:space="preserve">50.415400387852074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.782400038534344</t>
+  </si>
+  <si>
     <t xml:space="preserve">RUE LEON BLUM, 59430 FORT MARDYCK</t>
   </si>
   <si>
+    <t xml:space="preserve">51.030038512066255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.316124565965334</t>
+  </si>
+  <si>
     <t xml:space="preserve">RUE MAURICE FAUCON, 59119 WAZIERS</t>
   </si>
   <si>
+    <t xml:space="preserve">50.38911101995683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1086960812674294</t>
+  </si>
+  <si>
     <t xml:space="preserve">ATOUTIME - PRISE DIRECT COQUELLES 2705</t>
   </si>
   <si>
     <t xml:space="preserve">RUE MOULIN LE BAS, 62231 COQUELLES</t>
   </si>
   <si>
+    <t xml:space="preserve">50.943453554810034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8067477460543735</t>
+  </si>
+  <si>
     <t xml:space="preserve">RUE NOTRE DAME, 62000 ARRAS</t>
   </si>
   <si>
+    <t xml:space="preserve">50.2917709601755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.762712927288977</t>
+  </si>
+  <si>
     <t xml:space="preserve">CARREFOUR MARKET POIX DE PICARDIE</t>
   </si>
   <si>
     <t xml:space="preserve">RUE NOUVELLE, 80290 POIX DE PICARDIE</t>
   </si>
   <si>
+    <t xml:space="preserve">49.776297038611546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9783887425993167</t>
+  </si>
+  <si>
     <t xml:space="preserve">LYCEE DES FLANDRES HAZEBROUCK</t>
   </si>
   <si>
     <t xml:space="preserve">RUE PASTEUR, 59522 HAZEBROUCK CEDEX</t>
   </si>
   <si>
+    <t xml:space="preserve">50.72928881231554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5323720696452012</t>
+  </si>
+  <si>
     <t xml:space="preserve">CORA COURRIERES - CRM</t>
   </si>
   <si>
     <t xml:space="preserve">RUE PAUL BRIQUET, 62710 COURRIERES</t>
   </si>
   <si>
+    <t xml:space="preserve">50.445502016794975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9460196101065876</t>
+  </si>
+  <si>
     <t xml:space="preserve">ECOLE REGIONALE DEFICIENTS VISUELS</t>
   </si>
   <si>
     <t xml:space="preserve">RUE PAUL DOUMER - BP 99, 59373 LOOS CEDEX</t>
   </si>
   <si>
+    <t xml:space="preserve">50.59913797270665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0359379389518972</t>
+  </si>
+  <si>
     <t xml:space="preserve">RUE PAUL NAYRAC, 59037 LILLE CEDEX</t>
   </si>
   <si>
+    <t xml:space="preserve">50.609778222812686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0307542499694513</t>
+  </si>
+  <si>
     <t xml:space="preserve">RUE PHILIPPE MARRACHE, 59037 LILLE CEDEX</t>
   </si>
   <si>
+    <t xml:space="preserve">50.60952168547593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0360288254595065</t>
+  </si>
+  <si>
     <t xml:space="preserve">RUE PIERRE DECOULX, 59037 LILLE CEDEX</t>
   </si>
   <si>
+    <t xml:space="preserve">50.606047670627234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.034371810116678</t>
+  </si>
+  <si>
     <t xml:space="preserve">COLLEGE E. ROSTAND</t>
   </si>
   <si>
     <t xml:space="preserve">RUE RENE WALLART, 62700 BRUAY LA BUISSIERE</t>
   </si>
   <si>
+    <t xml:space="preserve">50.487087517899994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.555528498465602</t>
+  </si>
+  <si>
     <t xml:space="preserve">ASS GOLF CLUB DE SALOUEL</t>
   </si>
   <si>
     <t xml:space="preserve">RUE ROBERT MALLET, 80480 SALOUEL</t>
   </si>
   <si>
+    <t xml:space="preserve">49.86735908873691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2610719070781577</t>
+  </si>
+  <si>
     <t xml:space="preserve">LYCEE BLAISE PASCAL</t>
   </si>
   <si>
     <t xml:space="preserve">RUE ROGER SALENGRO, 62967 LONGUENESSE CEDEX</t>
   </si>
   <si>
+    <t xml:space="preserve">50.73985133369204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2544583646442407</t>
+  </si>
+  <si>
     <t xml:space="preserve">COLLEGE JEHAN BODEL ARRAS</t>
   </si>
   <si>
     <t xml:space="preserve">RUE ROHART COURTIN, 62030 ARRAS CEDEX</t>
   </si>
   <si>
+    <t xml:space="preserve">50.28860726339419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.770265040781856</t>
+  </si>
+  <si>
     <t xml:space="preserve">RUE U SORRIAUX, 62260 AUCHEL</t>
   </si>
   <si>
+    <t xml:space="preserve">50.50362912051937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4671474947676795</t>
+  </si>
+  <si>
     <t xml:space="preserve">RUE WHISTABLE, 62000 DAINVILLE</t>
   </si>
   <si>
+    <t xml:space="preserve">50.29046992781139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7358433812611964</t>
+  </si>
+  <si>
     <t xml:space="preserve">ATOUTIME - GAMM VERT NIEPPE 052</t>
   </si>
   <si>
     <t xml:space="preserve">RUELLE DE BAILLY, 59850 NIEPPE</t>
   </si>
   <si>
-    <t xml:space="preserve">SALLE DE JEUX, 59160 LOMME</t>
+    <t xml:space="preserve">50.68737670095433</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.8417563524505467</t>
   </si>
   <si>
     <t xml:space="preserve">APEL ST BENOIT LABRE AMETTES</t>
@@ -11842,28 +12073,46 @@
     <t xml:space="preserve">SALLE DU PATRONAGE ST BENOIT LABRE, 62260 AMETTES</t>
   </si>
   <si>
+    <t xml:space="preserve">50.530815854450395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.392979350831334</t>
+  </si>
+  <si>
     <t xml:space="preserve">BAL DES EPEUNAERTS</t>
   </si>
   <si>
     <t xml:space="preserve">SALLE POLYVALENTE, 62910 MORINGHEM</t>
   </si>
   <si>
+    <t xml:space="preserve">50.76271480340434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.126795952455319</t>
+  </si>
+  <si>
     <t xml:space="preserve">LA P'TITE CAVE</t>
   </si>
   <si>
     <t xml:space="preserve">SAS HMC, 62000 ARRAS</t>
   </si>
   <si>
+    <t xml:space="preserve">50.28567394163391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7448962272885584</t>
+  </si>
+  <si>
     <t xml:space="preserve">VOLFONI COUDEKERQUE</t>
   </si>
   <si>
     <t xml:space="preserve">SAS PRIAPE, 59210 COUDEKERQUE BRANCHE</t>
   </si>
   <si>
-    <t xml:space="preserve">SERVICE MAGASIN, 59190 HAZEBROUCK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOUS SOL - 2EME PAVILLON, 59000 LILLE</t>
+    <t xml:space="preserve">51.02180445106287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.374145238978613</t>
   </si>
   <si>
     <t xml:space="preserve">INDUFARM</t>
@@ -11872,13 +12121,22 @@
     <t xml:space="preserve">STAND 139 - DANS L'OPA, 62217 TILLOY LES MOFFLAINES</t>
   </si>
   <si>
-    <t xml:space="preserve">CELINE CATTOEN ASSOCIATION</t>
+    <t xml:space="preserve">50.288914056812196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8166852874717176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CELINE CATTOEN BALL TRAP</t>
   </si>
   <si>
     <t xml:space="preserve">STAND DE TIR, 62150 GAUCHIN LEGAL</t>
   </si>
   <si>
-    <t xml:space="preserve">CELINE CATTOEN BALL TRAP</t>
+    <t xml:space="preserve">50.412515171258974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.571263527296563</t>
   </si>
   <si>
     <t xml:space="preserve">KWS FRANCE SARL</t>
@@ -11887,28 +12145,55 @@
     <t xml:space="preserve">STAND F36, 62217 TILLOY LES MOFFLAINES</t>
   </si>
   <si>
+    <t xml:space="preserve">50.28834555005579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8161853585808885</t>
+  </si>
+  <si>
     <t xml:space="preserve">MUTUALIA ALLIANCE SANTE</t>
   </si>
   <si>
     <t xml:space="preserve">STAND N°9, 62217 TILLOY LES MOFFLAINES</t>
   </si>
   <si>
+    <t xml:space="preserve">50.28869172195407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8161317144026947</t>
+  </si>
+  <si>
     <t xml:space="preserve">TERRE PLEIN DU JEU DU MAIL, 59140 DUNKERQUE</t>
   </si>
   <si>
+    <t xml:space="preserve">51.025710991119986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3693829928870414</t>
+  </si>
+  <si>
     <t xml:space="preserve">M.D FILS SARL</t>
   </si>
   <si>
     <t xml:space="preserve">TRANSIT PAR LE PORT DE DUNKERQUE, 00000 PORT DE MATADI</t>
   </si>
   <si>
+    <t xml:space="preserve">51.04194081259159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3733070389799034</t>
+  </si>
+  <si>
     <t xml:space="preserve">XIAMEN WAITU IMP &amp; EXP CO., LTD</t>
   </si>
   <si>
     <t xml:space="preserve">TRANSIT PAR LE PORT DE ZEEBRUGGE, 00000 XIAMEN</t>
   </si>
   <si>
-    <t xml:space="preserve">TSA 50004, 14095 CAEN CEDEX 9</t>
+    <t xml:space="preserve">51.33469772998021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2185137120123724</t>
   </si>
   <si>
     <t xml:space="preserve">MEDUZA HOTEL RESTAURACJA SAK SP.Z.O.O</t>
@@ -11917,49 +12202,94 @@
     <t xml:space="preserve">UL. NADBRZEZNA 2, 76032 MIELNO</t>
   </si>
   <si>
+    <t xml:space="preserve">54.26191301039343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.05058612152673</t>
+  </si>
+  <si>
     <t xml:space="preserve">BROWAR WITNICA SPOLKA AKCYNA</t>
   </si>
   <si>
     <t xml:space="preserve">UL.M.KONOPNICKIEJ 1, 66460 WITNICA</t>
   </si>
   <si>
+    <t xml:space="preserve">52.673482593324245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.899945454427332</t>
+  </si>
+  <si>
     <t xml:space="preserve">LILLE DOURGES CONTENEUR TERMINAL DSP</t>
   </si>
   <si>
     <t xml:space="preserve">VOIE DU GRAND LARGE, 62954 HENIN BEAUMONT CEDEX</t>
   </si>
   <si>
+    <t xml:space="preserve">50.60586148215257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0655379663275557</t>
+  </si>
+  <si>
     <t xml:space="preserve">SCAWAR SP. Z O.O</t>
   </si>
   <si>
     <t xml:space="preserve">WOLA RAKOWA ULICA BRZEZINSKA 3, 95006 BROJCE</t>
   </si>
   <si>
+    <t xml:space="preserve">51.68138163050984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.606454296692025</t>
+  </si>
+  <si>
     <t xml:space="preserve">ASSURANCE PILLIOT</t>
   </si>
   <si>
     <t xml:space="preserve">Z.I. AUCHAN, 62219 LONGUENESSE</t>
   </si>
   <si>
+    <t xml:space="preserve">50.73598764562765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.275461661098992</t>
+  </si>
+  <si>
     <t xml:space="preserve">COURTOIS BOURGOGNE</t>
   </si>
   <si>
     <t xml:space="preserve">Z.I. DES BOURRES, 89270 VERMENTON</t>
   </si>
   <si>
+    <t xml:space="preserve">47.67131517922303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7345202425648085</t>
+  </si>
+  <si>
     <t xml:space="preserve">DISTRIBUTION CASINO FRANCE</t>
   </si>
   <si>
     <t xml:space="preserve">Z.I. LES MATS, 86500 MONTMORILLON</t>
   </si>
   <si>
+    <t xml:space="preserve">46.40124825524661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8894589508739049</t>
+  </si>
+  <si>
     <t xml:space="preserve">ATOUTIME - GAMM VERT BRETTEVILLE DU GRD</t>
   </si>
   <si>
     <t xml:space="preserve">ZA DE BRETEVILLE DU GRAND CAUX, 76110 BRETEVILLE DU GRAND CAUX</t>
   </si>
   <si>
-    <t xml:space="preserve">ZA DE LA BOYE, 59710 ENNEVELIN</t>
+    <t xml:space="preserve">49.65562499307494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.36359299656416955</t>
   </si>
   <si>
     <t xml:space="preserve">BRASSERIE DE ST KATSBIER</t>
@@ -11968,46 +12298,91 @@
     <t xml:space="preserve">ZA DE LA HOUBLONNIERE, 59270 METEREN</t>
   </si>
   <si>
+    <t xml:space="preserve">50.741662564682905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6837196426598373</t>
+  </si>
+  <si>
     <t xml:space="preserve">ATOUTIME - GAMM VERT BEAURAINS 039</t>
   </si>
   <si>
     <t xml:space="preserve">ZA DES LONGS CHAMPS, 62217 BEAURAINS</t>
   </si>
   <si>
+    <t xml:space="preserve">50.26527142780138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7982399966021796</t>
+  </si>
+  <si>
     <t xml:space="preserve">CHARLEMAGNE BOISSONS</t>
   </si>
   <si>
     <t xml:space="preserve">ZA DES MOULINS - 4 IMPASSE BOURGELAT, 62610 AUTINGUES</t>
   </si>
   <si>
+    <t xml:space="preserve">50.85225621702004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9877580398930224</t>
+  </si>
+  <si>
     <t xml:space="preserve">ATOUTIME - GAMM VERT LONGNES</t>
   </si>
   <si>
     <t xml:space="preserve">ZA DES VIEILLES VIGNES, 78980 LONGNES</t>
   </si>
   <si>
+    <t xml:space="preserve">48.9166339314734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5939721830254838</t>
+  </si>
+  <si>
     <t xml:space="preserve">LA FAMILLE DISTRIBUTION</t>
   </si>
   <si>
     <t xml:space="preserve">ZA DU ROUCAGNIER, 34400 LUNEL VIEL</t>
   </si>
   <si>
+    <t xml:space="preserve">43.677183443699064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.079315250212114</t>
+  </si>
+  <si>
     <t xml:space="preserve">HAND'S HOP</t>
   </si>
   <si>
     <t xml:space="preserve">ZA ECOPLIS, 62127 TINCQUES</t>
   </si>
   <si>
+    <t xml:space="preserve">50.35286604954776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48700772575085</t>
+  </si>
+  <si>
     <t xml:space="preserve">ZA LES FILATIERS, 62223 ANZIN ST AUBIN</t>
   </si>
   <si>
+    <t xml:space="preserve">50.31262652421355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7542729152491563</t>
+  </si>
+  <si>
     <t xml:space="preserve">BISCUITERIE DU COQUELICOT</t>
   </si>
   <si>
     <t xml:space="preserve">ZA N°1 HENRY POTEZ, 80300 ALBERT</t>
   </si>
   <si>
-    <t xml:space="preserve">ZA PARC LAVALARESSE, 59690 VIEUX CONDE</t>
+    <t xml:space="preserve">50.0120682948932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.669377261655517</t>
   </si>
   <si>
     <t xml:space="preserve">ATOUTIME - GAMM VERT PROVILLE 078</t>
@@ -12016,214 +12391,445 @@
     <t xml:space="preserve">ZA SUD ROUTE DE MARCOING, 59267 PROVILLE</t>
   </si>
   <si>
+    <t xml:space="preserve">50.15005070081599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2164340846228328</t>
+  </si>
+  <si>
     <t xml:space="preserve">ZAC - RUE MARCEL COQUET, 60110 MERU</t>
   </si>
   <si>
+    <t xml:space="preserve">49.217969566965856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.140268299415957</t>
+  </si>
+  <si>
     <t xml:space="preserve">SICAP SA GV MONTDIDIER</t>
   </si>
   <si>
     <t xml:space="preserve">ZAC DE L'EPINETTE, 80500 MONTDIDIER</t>
   </si>
   <si>
+    <t xml:space="preserve">49.647523531527625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.571125288269569</t>
+  </si>
+  <si>
     <t xml:space="preserve">CASH FLANDRES ARTOIS SARL</t>
   </si>
   <si>
     <t xml:space="preserve">ZAC DE LA HAUTE PICARDIE, 80200 ESTREES DENIECOURT</t>
   </si>
   <si>
+    <t xml:space="preserve">49.85866515375419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82717166589167</t>
+  </si>
+  <si>
     <t xml:space="preserve">ATOUTIME - GAMM VERT BRUAY LA BUISSIERE</t>
   </si>
   <si>
     <t xml:space="preserve">ZAC DE LA PORTE NORD (FACE A BRICODEPOT), 62700 BRUAY LA BUISSIERE</t>
   </si>
   <si>
+    <t xml:space="preserve">50.49506702298338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5849158984661185</t>
+  </si>
+  <si>
     <t xml:space="preserve">CARREFOUR HYPER AMIENS</t>
   </si>
   <si>
     <t xml:space="preserve">ZAC DE LA VALLEE ST-LADRE, 80085 AMIENS</t>
   </si>
   <si>
+    <t xml:space="preserve">49.92181057611512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3012076803490618</t>
+  </si>
+  <si>
     <t xml:space="preserve">ZAC DE LAPPRA, 42330 ST BONNET LES OULES</t>
   </si>
   <si>
+    <t xml:space="preserve">45.541261760992484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.314714027002645</t>
+  </si>
+  <si>
     <t xml:space="preserve">ENVELNOR KUVERT</t>
   </si>
   <si>
     <t xml:space="preserve">ZAC DE MUSSENT, 62129 SAINT AUGUSTIN</t>
   </si>
   <si>
+    <t xml:space="preserve">50.66558828301063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2601944696412133</t>
+  </si>
+  <si>
     <t xml:space="preserve">SAS FLORADIS -</t>
   </si>
   <si>
     <t xml:space="preserve">ZAC DE VILLARS, 62100 CALAIS</t>
   </si>
   <si>
-    <t xml:space="preserve">ZAC DES PARTS D'EN BAS, 62640 MONTIGNY EN GOHELLE</t>
+    <t xml:space="preserve">50.94308425550601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.837738127330039</t>
   </si>
   <si>
     <t xml:space="preserve">ZAC DU BEAU PRE, 62131 VERQUIN</t>
   </si>
   <si>
+    <t xml:space="preserve">50.501147516902016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6508852389457207</t>
+  </si>
+  <si>
     <t xml:space="preserve">ZAC DU MONT NOYON SUD, 60400 NOYON</t>
   </si>
   <si>
+    <t xml:space="preserve">49.5718415114174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.981642838887658</t>
+  </si>
+  <si>
     <t xml:space="preserve">E.LECLERC LUMBRES</t>
   </si>
   <si>
     <t xml:space="preserve">ZAC DU SARS, 62380 LUMBRES</t>
   </si>
   <si>
+    <t xml:space="preserve">50.713239316430446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.110973811972913</t>
+  </si>
+  <si>
     <t xml:space="preserve">GAMM VERT FLIXECOURT</t>
   </si>
   <si>
     <t xml:space="preserve">ZAC DU VAL DE NIEVRE, 80420 FLIXECOURT</t>
   </si>
   <si>
+    <t xml:space="preserve">50.02972741127822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.065787081244896</t>
+  </si>
+  <si>
     <t xml:space="preserve">ZAC LES MARICHELLES, 62800 LIEVIN</t>
   </si>
   <si>
+    <t xml:space="preserve">50.42725543112791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7667673361385994</t>
+  </si>
+  <si>
     <t xml:space="preserve">LE CERCLE VERT</t>
   </si>
   <si>
     <t xml:space="preserve">ZAC LES QUATRE RAINETTES, 60530 LE MESNIL EN THELLE</t>
   </si>
   <si>
+    <t xml:space="preserve">49.16354714908503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.278466484564039</t>
+  </si>
+  <si>
     <t xml:space="preserve">ATOUTIME - GAMM VERT LUMBRES 25</t>
   </si>
   <si>
     <t xml:space="preserve">ZAC LES SARS, 62380 LUMBRES</t>
   </si>
   <si>
+    <t xml:space="preserve">50.71469507808197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1105099966304803</t>
+  </si>
+  <si>
     <t xml:space="preserve">ZAC POLYGONE - 382 RUE DE BONDUES, 59118 WAMBRECHIES</t>
   </si>
   <si>
+    <t xml:space="preserve">50.68802568452217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0639327119713466</t>
+  </si>
+  <si>
     <t xml:space="preserve">GROUPE LELEU</t>
   </si>
   <si>
     <t xml:space="preserve">ZAC VALLEE, 80000 AMIENS</t>
   </si>
   <si>
+    <t xml:space="preserve">49.872554848734204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.283409641333562</t>
+  </si>
+  <si>
     <t xml:space="preserve">ATOUTIME - GAMM VERT GUINES 093</t>
   </si>
   <si>
     <t xml:space="preserve">ZAE DU MOULIN A HUILE, 62340 GUINES</t>
   </si>
   <si>
+    <t xml:space="preserve">50.86334217849482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.884269996639864</t>
+  </si>
+  <si>
     <t xml:space="preserve">ATOUTIME - GAMM VERT WIMEREUX 12</t>
   </si>
   <si>
     <t xml:space="preserve">ZAL DES GARENNES, 62930 WIMEREUX</t>
   </si>
   <si>
+    <t xml:space="preserve">50.77966278528942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6186685389633109</t>
+  </si>
+  <si>
     <t xml:space="preserve">ATME</t>
   </si>
   <si>
     <t xml:space="preserve">ZAL LA BELLE CROIX, 62120 RACQUINGHEM</t>
   </si>
   <si>
+    <t xml:space="preserve">50.69083530666666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.346887918667928</t>
+  </si>
+  <si>
     <t xml:space="preserve">ATOUTIME - GAMM VERT BAILLEUL 149</t>
   </si>
   <si>
     <t xml:space="preserve">ZC PARC DU NOUVEAU MONDE, 59270 BAILLEUL</t>
   </si>
   <si>
+    <t xml:space="preserve">50.727624089567314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.747207081288737</t>
+  </si>
+  <si>
     <t xml:space="preserve">LOON GARDEN</t>
   </si>
   <si>
     <t xml:space="preserve">ZI - 25 RUE DU CANTON DU CAILLOUTIS, 59279 LOON PLAGE</t>
   </si>
   <si>
+    <t xml:space="preserve">50.99527238091734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2033583254838813</t>
+  </si>
+  <si>
     <t xml:space="preserve">ATOUTIME - GAMM VERT ST MARTIN AU LAERT</t>
   </si>
   <si>
     <t xml:space="preserve">ZI DU FOND SQUIN, 62500 ST MARTIN AU LAERT</t>
   </si>
   <si>
+    <t xml:space="preserve">50.75879039712785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2232421119758143</t>
+  </si>
+  <si>
     <t xml:space="preserve">ALPHADEC</t>
   </si>
   <si>
     <t xml:space="preserve">ZI DU HOCQUET, 62510 ARQUES</t>
   </si>
   <si>
+    <t xml:space="preserve">50.723909719337435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3073240236172348</t>
+  </si>
+  <si>
     <t xml:space="preserve">ZI GOURMIER, 26200 MONTELIMAR</t>
   </si>
   <si>
+    <t xml:space="preserve">44.53385700954616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.73039268578247</t>
+  </si>
+  <si>
     <t xml:space="preserve">CUISINE CENTRALE DE RUITZ - CEDATRA</t>
   </si>
   <si>
     <t xml:space="preserve">ZI LES MEURETS, 62620 RUITZ</t>
   </si>
   <si>
+    <t xml:space="preserve">50.47041285374916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6006688003180485</t>
+  </si>
+  <si>
     <t xml:space="preserve">PROMOCASH WASQUEHAL</t>
   </si>
   <si>
     <t xml:space="preserve">ZI PILATERIE RUE FAIDHERBE, 59290 WASQUEHAL</t>
   </si>
   <si>
+    <t xml:space="preserve">50.653809699414154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1273018408048414</t>
+  </si>
+  <si>
     <t xml:space="preserve">ATOUTIME - GAMM VERT SAULTY 024</t>
   </si>
   <si>
     <t xml:space="preserve">ZONE ARTISANALE, 62158 SAULTY</t>
   </si>
   <si>
+    <t xml:space="preserve">50.20491284670303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.534778538927123</t>
+  </si>
+  <si>
     <t xml:space="preserve">OLIVIER FRERES</t>
   </si>
   <si>
     <t xml:space="preserve">ZONE ARTISANALE DES UCHANES, 83630 AUPS</t>
   </si>
   <si>
+    <t xml:space="preserve">43.61541920823408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2188781270768985</t>
+  </si>
+  <si>
     <t xml:space="preserve">ATOUTIME - GAMM VERT MOYVILLERS 302</t>
   </si>
   <si>
     <t xml:space="preserve">ZONE COMMERCIALE DE LA SECHERIE, 60190 MOYVILLERS</t>
   </si>
   <si>
+    <t xml:space="preserve">49.41369071284099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6472414542204654</t>
+  </si>
+  <si>
     <t xml:space="preserve">ATOUTIME - GAMM VERT LONGUEIL ANNEL 301</t>
   </si>
   <si>
     <t xml:space="preserve">ZONE COMMERCIALE RN32, 60150 LONGUEIL ANNEL</t>
   </si>
   <si>
+    <t xml:space="preserve">49.47385386659848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8576411338662293</t>
+  </si>
+  <si>
     <t xml:space="preserve">LE CARRE</t>
   </si>
   <si>
     <t xml:space="preserve">ZONE DES PRES SALES, 76260 EU</t>
   </si>
   <si>
+    <t xml:space="preserve">50.058400636336856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4126614278358294</t>
+  </si>
+  <si>
     <t xml:space="preserve">GCS C.I.C.O. CUISINE INTERHOSPITALIERE</t>
   </si>
   <si>
     <t xml:space="preserve">ZONE DU VIRVAL, 62100 CALAIS</t>
   </si>
   <si>
+    <t xml:space="preserve">50.951887236364314</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.8456238119880044</t>
+  </si>
+  <si>
     <t xml:space="preserve">BLANQUART TRANSPORTS SAS</t>
   </si>
   <si>
     <t xml:space="preserve">ZONE INDUSTRIELLE, 59173 RENESCURE</t>
   </si>
   <si>
+    <t xml:space="preserve">50.744832437731596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.343538069969267</t>
+  </si>
+  <si>
     <t xml:space="preserve">IMPRIMERIE MORDACQ</t>
   </si>
   <si>
     <t xml:space="preserve">ZONE INDUSTRIELLE DU PETIT, 62921 AIRE SUR LA LYS CEDEX</t>
   </si>
   <si>
+    <t xml:space="preserve">50.63579464757891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.425490311968039</t>
+  </si>
+  <si>
     <t xml:space="preserve">COLRUYT RETAIL FRANCE</t>
   </si>
   <si>
     <t xml:space="preserve">ZONE PORTUAIRE - RUE GENERAL BETHOUARD, 39100 DOLE</t>
   </si>
   <si>
+    <t xml:space="preserve">47.082264827041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.488749905131292</t>
+  </si>
+  <si>
     <t xml:space="preserve">CAVE AUTO EXPRESS</t>
   </si>
   <si>
     <t xml:space="preserve">ZONE TRANSMARK, 62730 MARCK</t>
   </si>
   <si>
+    <t xml:space="preserve">50.94073967712646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.937165275576331</t>
+  </si>
+  <si>
     <t xml:space="preserve">ATOUTIME - GAMM VERT SECLIN 74</t>
   </si>
   <si>
     <t xml:space="preserve">ZONE UNEXPO, 59113 SECLIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.547106789185676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.053284369633759</t>
   </si>
 </sst>
 </file>
@@ -12538,8 +13144,8 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1744" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J1773" activeCellId="0" sqref="J1773"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B7" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -42821,10 +43427,10 @@
       <c r="C1781" s="1" t="s">
         <v>3812</v>
       </c>
-      <c r="D1781" s="2" t="s">
+      <c r="D1781" s="4" t="s">
         <v>3813</v>
       </c>
-      <c r="E1781" s="5" t="s">
+      <c r="E1781" s="4" t="s">
         <v>3814</v>
       </c>
     </row>
@@ -42838,10 +43444,10 @@
       <c r="C1782" s="1" t="s">
         <v>3816</v>
       </c>
-      <c r="D1782" s="2" t="s">
+      <c r="D1782" s="4" t="s">
         <v>3817</v>
       </c>
-      <c r="E1782" s="5" t="s">
+      <c r="E1782" s="4" t="s">
         <v>3818</v>
       </c>
     </row>
@@ -42855,10 +43461,10 @@
       <c r="C1783" s="1" t="s">
         <v>3820</v>
       </c>
-      <c r="D1783" s="2" t="s">
+      <c r="D1783" s="4" t="s">
         <v>3817</v>
       </c>
-      <c r="E1783" s="5" t="s">
+      <c r="E1783" s="4" t="s">
         <v>3818</v>
       </c>
     </row>
@@ -42872,10 +43478,10 @@
       <c r="C1784" s="1" t="s">
         <v>3821</v>
       </c>
-      <c r="D1784" s="2" t="s">
+      <c r="D1784" s="4" t="s">
         <v>3822</v>
       </c>
-      <c r="E1784" s="5" t="s">
+      <c r="E1784" s="4" t="s">
         <v>3823</v>
       </c>
     </row>
@@ -42889,10 +43495,10 @@
       <c r="C1785" s="1" t="s">
         <v>3824</v>
       </c>
-      <c r="D1785" s="2" t="s">
+      <c r="D1785" s="4" t="s">
         <v>3825</v>
       </c>
-      <c r="E1785" s="5" t="s">
+      <c r="E1785" s="4" t="s">
         <v>3826</v>
       </c>
     </row>
@@ -42906,10 +43512,10 @@
       <c r="C1786" s="1" t="s">
         <v>3828</v>
       </c>
-      <c r="D1786" s="2" t="s">
+      <c r="D1786" s="4" t="s">
         <v>3829</v>
       </c>
-      <c r="E1786" s="5" t="s">
+      <c r="E1786" s="4" t="s">
         <v>3830</v>
       </c>
     </row>
@@ -42923,10 +43529,10 @@
       <c r="C1787" s="1" t="s">
         <v>3832</v>
       </c>
-      <c r="D1787" s="2" t="s">
+      <c r="D1787" s="4" t="s">
         <v>3833</v>
       </c>
-      <c r="E1787" s="5" t="s">
+      <c r="E1787" s="4" t="s">
         <v>3834</v>
       </c>
     </row>
@@ -42940,10 +43546,10 @@
       <c r="C1788" s="1" t="s">
         <v>3836</v>
       </c>
-      <c r="D1788" s="2" t="s">
+      <c r="D1788" s="4" t="s">
         <v>3837</v>
       </c>
-      <c r="E1788" s="5" t="s">
+      <c r="E1788" s="4" t="s">
         <v>3838</v>
       </c>
     </row>
@@ -42957,10 +43563,10 @@
       <c r="C1789" s="1" t="s">
         <v>3840</v>
       </c>
-      <c r="D1789" s="2" t="s">
+      <c r="D1789" s="4" t="s">
         <v>3841</v>
       </c>
-      <c r="E1789" s="5" t="s">
+      <c r="E1789" s="4" t="s">
         <v>3842</v>
       </c>
     </row>
@@ -42974,10 +43580,10 @@
       <c r="C1790" s="1" t="s">
         <v>3844</v>
       </c>
-      <c r="D1790" s="2" t="s">
+      <c r="D1790" s="4" t="s">
         <v>3845</v>
       </c>
-      <c r="E1790" s="5" t="s">
+      <c r="E1790" s="4" t="s">
         <v>3846</v>
       </c>
     </row>
@@ -42991,10 +43597,10 @@
       <c r="C1791" s="1" t="s">
         <v>3848</v>
       </c>
-      <c r="D1791" s="2" t="s">
+      <c r="D1791" s="4" t="s">
         <v>3849</v>
       </c>
-      <c r="E1791" s="5" t="s">
+      <c r="E1791" s="4" t="s">
         <v>3850</v>
       </c>
     </row>
@@ -43008,10 +43614,10 @@
       <c r="C1792" s="1" t="s">
         <v>3852</v>
       </c>
-      <c r="D1792" s="2" t="s">
+      <c r="D1792" s="4" t="s">
         <v>3853</v>
       </c>
-      <c r="E1792" s="5" t="s">
+      <c r="E1792" s="4" t="s">
         <v>3854</v>
       </c>
     </row>
@@ -43025,10 +43631,10 @@
       <c r="C1793" s="1" t="s">
         <v>3856</v>
       </c>
-      <c r="D1793" s="2" t="s">
+      <c r="D1793" s="4" t="s">
         <v>3857</v>
       </c>
-      <c r="E1793" s="5" t="s">
+      <c r="E1793" s="4" t="s">
         <v>3858</v>
       </c>
     </row>
@@ -43042,10 +43648,10 @@
       <c r="C1794" s="1" t="s">
         <v>3856</v>
       </c>
-      <c r="D1794" s="2" t="s">
+      <c r="D1794" s="4" t="s">
         <v>3857</v>
       </c>
-      <c r="E1794" s="5" t="s">
+      <c r="E1794" s="4" t="s">
         <v>3858</v>
       </c>
     </row>
@@ -43059,10 +43665,10 @@
       <c r="C1795" s="1" t="s">
         <v>3861</v>
       </c>
-      <c r="D1795" s="2" t="s">
+      <c r="D1795" s="4" t="s">
         <v>3862</v>
       </c>
-      <c r="E1795" s="5" t="s">
+      <c r="E1795" s="4" t="s">
         <v>3863</v>
       </c>
     </row>
@@ -43076,10 +43682,10 @@
       <c r="C1796" s="1" t="s">
         <v>3865</v>
       </c>
-      <c r="D1796" s="2" t="s">
+      <c r="D1796" s="4" t="s">
         <v>3866</v>
       </c>
-      <c r="E1796" s="5" t="s">
+      <c r="E1796" s="4" t="s">
         <v>3867</v>
       </c>
     </row>
@@ -43093,10 +43699,10 @@
       <c r="C1797" s="1" t="s">
         <v>3868</v>
       </c>
-      <c r="D1797" s="2" t="s">
+      <c r="D1797" s="4" t="s">
         <v>3869</v>
       </c>
-      <c r="E1797" s="2" t="s">
+      <c r="E1797" s="4" t="s">
         <v>3870</v>
       </c>
     </row>
@@ -43110,10 +43716,10 @@
       <c r="C1798" s="1" t="s">
         <v>3872</v>
       </c>
-      <c r="D1798" s="2" t="s">
+      <c r="D1798" s="4" t="s">
         <v>3873</v>
       </c>
-      <c r="E1798" s="5" t="s">
+      <c r="E1798" s="4" t="s">
         <v>3874</v>
       </c>
     </row>
@@ -43127,6 +43733,12 @@
       <c r="C1799" s="1" t="s">
         <v>3875</v>
       </c>
+      <c r="D1799" s="2" t="s">
+        <v>3876</v>
+      </c>
+      <c r="E1799" s="5" t="s">
+        <v>3877</v>
+      </c>
     </row>
     <row r="1800" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1800" s="1" t="n">
@@ -43138,6 +43750,12 @@
       <c r="C1800" s="1" t="s">
         <v>3875</v>
       </c>
+      <c r="D1800" s="2" t="s">
+        <v>3876</v>
+      </c>
+      <c r="E1800" s="5" t="s">
+        <v>3877</v>
+      </c>
     </row>
     <row r="1801" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1801" s="1" t="n">
@@ -43147,7 +43765,13 @@
         <v>3400</v>
       </c>
       <c r="C1801" s="1" t="s">
-        <v>3876</v>
+        <v>3878</v>
+      </c>
+      <c r="D1801" s="2" t="s">
+        <v>3879</v>
+      </c>
+      <c r="E1801" s="5" t="s">
+        <v>3880</v>
       </c>
     </row>
     <row r="1802" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43155,10 +43779,16 @@
         <v>3799</v>
       </c>
       <c r="B1802" s="1" t="s">
-        <v>3877</v>
+        <v>3881</v>
       </c>
       <c r="C1802" s="1" t="s">
-        <v>3878</v>
+        <v>3882</v>
+      </c>
+      <c r="D1802" s="2" t="s">
+        <v>3883</v>
+      </c>
+      <c r="E1802" s="5" t="s">
+        <v>3884</v>
       </c>
     </row>
     <row r="1803" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43166,10 +43796,16 @@
         <v>3717</v>
       </c>
       <c r="B1803" s="1" t="s">
-        <v>3879</v>
+        <v>3885</v>
       </c>
       <c r="C1803" s="1" t="s">
-        <v>3880</v>
+        <v>3886</v>
+      </c>
+      <c r="D1803" s="2" t="s">
+        <v>3887</v>
+      </c>
+      <c r="E1803" s="5" t="s">
+        <v>3888</v>
       </c>
     </row>
     <row r="1804" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43177,10 +43813,16 @@
         <v>200856</v>
       </c>
       <c r="B1804" s="1" t="s">
-        <v>3881</v>
+        <v>3889</v>
       </c>
       <c r="C1804" s="1" t="s">
-        <v>3882</v>
+        <v>3890</v>
+      </c>
+      <c r="D1804" s="2" t="s">
+        <v>3891</v>
+      </c>
+      <c r="E1804" s="5" t="s">
+        <v>3892</v>
       </c>
     </row>
     <row r="1805" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43191,7 +43833,13 @@
         <v>155</v>
       </c>
       <c r="C1805" s="1" t="s">
-        <v>3883</v>
+        <v>3893</v>
+      </c>
+      <c r="D1805" s="2" t="s">
+        <v>3894</v>
+      </c>
+      <c r="E1805" s="5" t="s">
+        <v>3895</v>
       </c>
     </row>
     <row r="1806" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43202,7 +43850,13 @@
         <v>807</v>
       </c>
       <c r="C1806" s="1" t="s">
-        <v>3884</v>
+        <v>3896</v>
+      </c>
+      <c r="D1806" s="2" t="s">
+        <v>3897</v>
+      </c>
+      <c r="E1806" s="5" t="s">
+        <v>3898</v>
       </c>
     </row>
     <row r="1807" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43210,10 +43864,16 @@
         <v>851150</v>
       </c>
       <c r="B1807" s="1" t="s">
-        <v>3885</v>
+        <v>3899</v>
       </c>
       <c r="C1807" s="1" t="s">
-        <v>3886</v>
+        <v>3900</v>
+      </c>
+      <c r="D1807" s="2" t="s">
+        <v>3901</v>
+      </c>
+      <c r="E1807" s="5" t="s">
+        <v>3902</v>
       </c>
     </row>
     <row r="1808" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43221,10 +43881,16 @@
         <v>200847</v>
       </c>
       <c r="B1808" s="1" t="s">
-        <v>3887</v>
+        <v>3903</v>
       </c>
       <c r="C1808" s="1" t="s">
-        <v>3888</v>
+        <v>3904</v>
+      </c>
+      <c r="D1808" s="2" t="s">
+        <v>3905</v>
+      </c>
+      <c r="E1808" s="5" t="s">
+        <v>3906</v>
       </c>
     </row>
     <row r="1809" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43235,7 +43901,13 @@
         <v>1554</v>
       </c>
       <c r="C1809" s="1" t="s">
-        <v>3889</v>
+        <v>3907</v>
+      </c>
+      <c r="D1809" s="2" t="s">
+        <v>3908</v>
+      </c>
+      <c r="E1809" s="5" t="s">
+        <v>3909</v>
       </c>
     </row>
     <row r="1810" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43243,10 +43915,16 @@
         <v>99190</v>
       </c>
       <c r="B1810" s="1" t="s">
-        <v>3890</v>
+        <v>3910</v>
       </c>
       <c r="C1810" s="1" t="s">
-        <v>3891</v>
+        <v>3911</v>
+      </c>
+      <c r="D1810" s="2" t="s">
+        <v>3912</v>
+      </c>
+      <c r="E1810" s="5" t="s">
+        <v>3913</v>
       </c>
     </row>
     <row r="1811" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43254,10 +43932,16 @@
         <v>2730</v>
       </c>
       <c r="B1811" s="1" t="s">
-        <v>3892</v>
+        <v>3914</v>
       </c>
       <c r="C1811" s="1" t="s">
-        <v>3893</v>
+        <v>3915</v>
+      </c>
+      <c r="D1811" s="2" t="s">
+        <v>3916</v>
+      </c>
+      <c r="E1811" s="5" t="s">
+        <v>3917</v>
       </c>
     </row>
     <row r="1812" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43265,10 +43949,16 @@
         <v>9911</v>
       </c>
       <c r="B1812" s="1" t="s">
-        <v>3894</v>
+        <v>3918</v>
       </c>
       <c r="C1812" s="1" t="s">
-        <v>3895</v>
+        <v>3919</v>
+      </c>
+      <c r="D1812" s="2" t="s">
+        <v>3920</v>
+      </c>
+      <c r="E1812" s="5" t="s">
+        <v>3921</v>
       </c>
     </row>
     <row r="1813" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43279,7 +43969,13 @@
         <v>541</v>
       </c>
       <c r="C1813" s="1" t="s">
-        <v>3896</v>
+        <v>3922</v>
+      </c>
+      <c r="D1813" s="2" t="s">
+        <v>3923</v>
+      </c>
+      <c r="E1813" s="5" t="s">
+        <v>3924</v>
       </c>
     </row>
     <row r="1814" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43287,10 +43983,16 @@
         <v>200163</v>
       </c>
       <c r="B1814" s="1" t="s">
-        <v>3897</v>
+        <v>3925</v>
       </c>
       <c r="C1814" s="1" t="s">
-        <v>3898</v>
+        <v>3926</v>
+      </c>
+      <c r="D1814" s="2" t="s">
+        <v>3927</v>
+      </c>
+      <c r="E1814" s="5" t="s">
+        <v>3928</v>
       </c>
     </row>
     <row r="1815" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43298,10 +44000,16 @@
         <v>2587</v>
       </c>
       <c r="B1815" s="1" t="s">
-        <v>3899</v>
+        <v>3929</v>
       </c>
       <c r="C1815" s="1" t="s">
-        <v>3900</v>
+        <v>3930</v>
+      </c>
+      <c r="D1815" s="2" t="s">
+        <v>3931</v>
+      </c>
+      <c r="E1815" s="5" t="s">
+        <v>3932</v>
       </c>
     </row>
     <row r="1816" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43309,10 +44017,16 @@
         <v>2120</v>
       </c>
       <c r="B1816" s="1" t="s">
-        <v>3901</v>
+        <v>3933</v>
       </c>
       <c r="C1816" s="1" t="s">
-        <v>3902</v>
+        <v>3934</v>
+      </c>
+      <c r="D1816" s="2" t="s">
+        <v>3935</v>
+      </c>
+      <c r="E1816" s="5" t="s">
+        <v>3936</v>
       </c>
     </row>
     <row r="1817" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43320,10 +44034,16 @@
         <v>200766</v>
       </c>
       <c r="B1817" s="1" t="s">
-        <v>3903</v>
+        <v>3937</v>
       </c>
       <c r="C1817" s="1" t="s">
-        <v>3904</v>
+        <v>3938</v>
+      </c>
+      <c r="D1817" s="2" t="s">
+        <v>3939</v>
+      </c>
+      <c r="E1817" s="5" t="s">
+        <v>3940</v>
       </c>
     </row>
     <row r="1818" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43331,10 +44051,16 @@
         <v>1405</v>
       </c>
       <c r="B1818" s="1" t="s">
-        <v>3901</v>
+        <v>3933</v>
       </c>
       <c r="C1818" s="1" t="s">
-        <v>3905</v>
+        <v>3941</v>
+      </c>
+      <c r="D1818" s="2" t="s">
+        <v>3942</v>
+      </c>
+      <c r="E1818" s="5" t="s">
+        <v>3943</v>
       </c>
     </row>
     <row r="1819" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43342,10 +44068,16 @@
         <v>201193</v>
       </c>
       <c r="B1819" s="1" t="s">
-        <v>3906</v>
+        <v>3944</v>
       </c>
       <c r="C1819" s="1" t="s">
-        <v>3907</v>
+        <v>3945</v>
+      </c>
+      <c r="D1819" s="2" t="s">
+        <v>3946</v>
+      </c>
+      <c r="E1819" s="5" t="s">
+        <v>3947</v>
       </c>
     </row>
     <row r="1820" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43356,7 +44088,13 @@
         <v>1457</v>
       </c>
       <c r="C1820" s="1" t="s">
-        <v>3908</v>
+        <v>3948</v>
+      </c>
+      <c r="D1820" s="2" t="s">
+        <v>3949</v>
+      </c>
+      <c r="E1820" s="5" t="s">
+        <v>3950</v>
       </c>
     </row>
     <row r="1821" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43367,7 +44105,13 @@
         <v>13</v>
       </c>
       <c r="C1821" s="1" t="s">
-        <v>3909</v>
+        <v>3951</v>
+      </c>
+      <c r="D1821" s="2" t="s">
+        <v>3952</v>
+      </c>
+      <c r="E1821" s="5" t="s">
+        <v>3953</v>
       </c>
     </row>
     <row r="1822" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43378,7 +44122,13 @@
         <v>13</v>
       </c>
       <c r="C1822" s="1" t="s">
-        <v>3910</v>
+        <v>3954</v>
+      </c>
+      <c r="D1822" s="2" t="s">
+        <v>3955</v>
+      </c>
+      <c r="E1822" s="5" t="s">
+        <v>3956</v>
       </c>
     </row>
     <row r="1823" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43386,10 +44136,16 @@
         <v>2455</v>
       </c>
       <c r="B1823" s="1" t="s">
-        <v>3911</v>
+        <v>3957</v>
       </c>
       <c r="C1823" s="1" t="s">
-        <v>3912</v>
+        <v>3958</v>
+      </c>
+      <c r="D1823" s="2" t="s">
+        <v>3959</v>
+      </c>
+      <c r="E1823" s="5" t="s">
+        <v>3960</v>
       </c>
     </row>
     <row r="1824" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43400,7 +44156,13 @@
         <v>775</v>
       </c>
       <c r="C1824" s="1" t="s">
-        <v>3912</v>
+        <v>3958</v>
+      </c>
+      <c r="D1824" s="2" t="s">
+        <v>3959</v>
+      </c>
+      <c r="E1824" s="5" t="s">
+        <v>3960</v>
       </c>
     </row>
     <row r="1825" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43411,7 +44173,13 @@
         <v>606</v>
       </c>
       <c r="C1825" s="1" t="s">
-        <v>3913</v>
+        <v>3961</v>
+      </c>
+      <c r="D1825" s="2" t="s">
+        <v>3962</v>
+      </c>
+      <c r="E1825" s="5" t="s">
+        <v>3963</v>
       </c>
     </row>
     <row r="1826" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43419,10 +44187,16 @@
         <v>4424</v>
       </c>
       <c r="B1826" s="1" t="s">
-        <v>3914</v>
+        <v>3964</v>
       </c>
       <c r="C1826" s="1" t="s">
-        <v>3915</v>
+        <v>3965</v>
+      </c>
+      <c r="D1826" s="2" t="s">
+        <v>3966</v>
+      </c>
+      <c r="E1826" s="5" t="s">
+        <v>3967</v>
       </c>
     </row>
     <row r="1827" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43430,10 +44204,16 @@
         <v>2160</v>
       </c>
       <c r="B1827" s="1" t="s">
-        <v>3916</v>
+        <v>3968</v>
       </c>
       <c r="C1827" s="1" t="s">
-        <v>3917</v>
+        <v>3969</v>
+      </c>
+      <c r="D1827" s="2" t="s">
+        <v>3970</v>
+      </c>
+      <c r="E1827" s="5" t="s">
+        <v>3971</v>
       </c>
     </row>
     <row r="1828" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43441,10 +44221,16 @@
         <v>914</v>
       </c>
       <c r="B1828" s="1" t="s">
-        <v>3918</v>
+        <v>3972</v>
       </c>
       <c r="C1828" s="1" t="s">
-        <v>3919</v>
+        <v>3973</v>
+      </c>
+      <c r="D1828" s="2" t="s">
+        <v>3974</v>
+      </c>
+      <c r="E1828" s="5" t="s">
+        <v>3975</v>
       </c>
     </row>
     <row r="1829" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43452,10 +44238,16 @@
         <v>200537</v>
       </c>
       <c r="B1829" s="1" t="s">
-        <v>3920</v>
+        <v>3976</v>
       </c>
       <c r="C1829" s="1" t="s">
-        <v>3921</v>
+        <v>3977</v>
+      </c>
+      <c r="D1829" s="2" t="s">
+        <v>3978</v>
+      </c>
+      <c r="E1829" s="5" t="s">
+        <v>3979</v>
       </c>
     </row>
     <row r="1830" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43466,955 +44258,1301 @@
         <v>5</v>
       </c>
       <c r="C1830" s="1" t="s">
-        <v>3922</v>
+        <v>3980</v>
+      </c>
+      <c r="D1830" s="2" t="s">
+        <v>3981</v>
+      </c>
+      <c r="E1830" s="5" t="s">
+        <v>3982</v>
       </c>
     </row>
     <row r="1831" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1831" s="1" t="n">
-        <v>201238</v>
+        <v>201234</v>
       </c>
       <c r="B1831" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C1831" s="1" t="s">
-        <v>3922</v>
+        <v>3983</v>
+      </c>
+      <c r="D1831" s="2" t="s">
+        <v>3984</v>
+      </c>
+      <c r="E1831" s="5" t="s">
+        <v>3985</v>
       </c>
     </row>
     <row r="1832" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1832" s="1" t="n">
-        <v>201234</v>
+        <v>201230</v>
       </c>
       <c r="B1832" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C1832" s="1" t="s">
-        <v>3923</v>
+        <v>3986</v>
+      </c>
+      <c r="D1832" s="2" t="s">
+        <v>3987</v>
+      </c>
+      <c r="E1832" s="5" t="s">
+        <v>3988</v>
       </c>
     </row>
     <row r="1833" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1833" s="1" t="n">
-        <v>201235</v>
+        <v>201013</v>
       </c>
       <c r="B1833" s="1" t="s">
-        <v>5</v>
+        <v>3989</v>
       </c>
       <c r="C1833" s="1" t="s">
-        <v>3923</v>
+        <v>3990</v>
+      </c>
+      <c r="D1833" s="2" t="s">
+        <v>3991</v>
+      </c>
+      <c r="E1833" s="5" t="s">
+        <v>3992</v>
       </c>
     </row>
     <row r="1834" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1834" s="1" t="n">
-        <v>201230</v>
+        <v>3666</v>
       </c>
       <c r="B1834" s="1" t="s">
-        <v>5</v>
+        <v>3993</v>
       </c>
       <c r="C1834" s="1" t="s">
-        <v>3924</v>
+        <v>3994</v>
+      </c>
+      <c r="D1834" s="2" t="s">
+        <v>3995</v>
+      </c>
+      <c r="E1834" s="5" t="s">
+        <v>3996</v>
       </c>
     </row>
     <row r="1835" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1835" s="1" t="n">
-        <v>201231</v>
+        <v>14230</v>
       </c>
       <c r="B1835" s="1" t="s">
-        <v>5</v>
+        <v>3997</v>
       </c>
       <c r="C1835" s="1" t="s">
-        <v>3924</v>
+        <v>3998</v>
+      </c>
+      <c r="D1835" s="2" t="s">
+        <v>3999</v>
+      </c>
+      <c r="E1835" s="5" t="s">
+        <v>4000</v>
       </c>
     </row>
     <row r="1836" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1836" s="1" t="n">
-        <v>201013</v>
+        <v>632</v>
       </c>
       <c r="B1836" s="1" t="s">
-        <v>3925</v>
+        <v>4001</v>
       </c>
       <c r="C1836" s="1" t="s">
-        <v>3926</v>
+        <v>4002</v>
+      </c>
+      <c r="D1836" s="2" t="s">
+        <v>4003</v>
+      </c>
+      <c r="E1836" s="5" t="s">
+        <v>4004</v>
       </c>
     </row>
     <row r="1837" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1837" s="1" t="n">
-        <v>3666</v>
+        <v>852257</v>
       </c>
       <c r="B1837" s="1" t="s">
-        <v>3927</v>
+        <v>1286</v>
       </c>
       <c r="C1837" s="1" t="s">
-        <v>3928</v>
+        <v>4005</v>
+      </c>
+      <c r="D1837" s="2" t="s">
+        <v>4006</v>
+      </c>
+      <c r="E1837" s="5" t="s">
+        <v>4007</v>
       </c>
     </row>
     <row r="1838" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1838" s="1" t="n">
-        <v>14230</v>
+        <v>2092</v>
       </c>
       <c r="B1838" s="1" t="s">
-        <v>3929</v>
+        <v>606</v>
       </c>
       <c r="C1838" s="1" t="s">
-        <v>3930</v>
+        <v>4008</v>
+      </c>
+      <c r="D1838" s="2" t="s">
+        <v>4009</v>
+      </c>
+      <c r="E1838" s="5" t="s">
+        <v>4010</v>
       </c>
     </row>
     <row r="1839" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1839" s="1" t="n">
-        <v>632</v>
+        <v>2508</v>
       </c>
       <c r="B1839" s="1" t="s">
-        <v>3931</v>
+        <v>4011</v>
       </c>
       <c r="C1839" s="1" t="s">
-        <v>3932</v>
+        <v>4012</v>
+      </c>
+      <c r="D1839" s="2" t="s">
+        <v>4013</v>
+      </c>
+      <c r="E1839" s="5" t="s">
+        <v>4014</v>
       </c>
     </row>
     <row r="1840" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1840" s="1" t="n">
-        <v>852257</v>
+        <v>2259</v>
       </c>
       <c r="B1840" s="1" t="s">
-        <v>1286</v>
+        <v>4015</v>
       </c>
       <c r="C1840" s="1" t="s">
-        <v>3933</v>
+        <v>4016</v>
+      </c>
+      <c r="D1840" s="2" t="s">
+        <v>4017</v>
+      </c>
+      <c r="E1840" s="5" t="s">
+        <v>4018</v>
       </c>
     </row>
     <row r="1841" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1841" s="1" t="n">
-        <v>2092</v>
+        <v>61353</v>
       </c>
       <c r="B1841" s="1" t="s">
-        <v>606</v>
+        <v>4019</v>
       </c>
       <c r="C1841" s="1" t="s">
-        <v>3934</v>
+        <v>4020</v>
+      </c>
+      <c r="D1841" s="2" t="s">
+        <v>4021</v>
+      </c>
+      <c r="E1841" s="5" t="s">
+        <v>4022</v>
       </c>
     </row>
     <row r="1842" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1842" s="1" t="n">
-        <v>2508</v>
+        <v>4542</v>
       </c>
       <c r="B1842" s="1" t="s">
-        <v>3935</v>
+        <v>4023</v>
       </c>
       <c r="C1842" s="1" t="s">
-        <v>3936</v>
+        <v>4024</v>
+      </c>
+      <c r="D1842" s="2" t="s">
+        <v>4025</v>
+      </c>
+      <c r="E1842" s="5" t="s">
+        <v>4026</v>
       </c>
     </row>
     <row r="1843" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1843" s="1" t="n">
-        <v>3998</v>
+        <v>4155</v>
       </c>
       <c r="B1843" s="1" t="s">
-        <v>13</v>
+        <v>4027</v>
       </c>
       <c r="C1843" s="1" t="s">
-        <v>3937</v>
+        <v>4028</v>
+      </c>
+      <c r="D1843" s="2" t="s">
+        <v>4029</v>
+      </c>
+      <c r="E1843" s="5" t="s">
+        <v>4030</v>
       </c>
     </row>
     <row r="1844" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1844" s="1" t="n">
-        <v>2259</v>
+        <v>4212</v>
       </c>
       <c r="B1844" s="1" t="s">
-        <v>3938</v>
+        <v>4031</v>
       </c>
       <c r="C1844" s="1" t="s">
-        <v>3939</v>
+        <v>4032</v>
+      </c>
+      <c r="D1844" s="2" t="s">
+        <v>4033</v>
+      </c>
+      <c r="E1844" s="5" t="s">
+        <v>4034</v>
       </c>
     </row>
     <row r="1845" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1845" s="1" t="n">
-        <v>61353</v>
+        <v>4028</v>
       </c>
       <c r="B1845" s="1" t="s">
-        <v>3940</v>
+        <v>4035</v>
       </c>
       <c r="C1845" s="1" t="s">
-        <v>3941</v>
+        <v>4036</v>
+      </c>
+      <c r="D1845" s="5" t="s">
+        <v>4037</v>
+      </c>
+      <c r="E1845" s="5" t="s">
+        <v>4038</v>
       </c>
     </row>
     <row r="1846" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1846" s="1" t="n">
-        <v>4542</v>
+        <v>4215</v>
       </c>
       <c r="B1846" s="1" t="s">
-        <v>3942</v>
+        <v>4039</v>
       </c>
       <c r="C1846" s="1" t="s">
-        <v>3943</v>
+        <v>4040</v>
+      </c>
+      <c r="D1846" s="2" t="s">
+        <v>4041</v>
+      </c>
+      <c r="E1846" s="5" t="s">
+        <v>4042</v>
       </c>
     </row>
     <row r="1847" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1847" s="1" t="n">
-        <v>4155</v>
+        <v>4213</v>
       </c>
       <c r="B1847" s="1" t="s">
-        <v>3944</v>
+        <v>4043</v>
       </c>
       <c r="C1847" s="1" t="s">
-        <v>3945</v>
+        <v>4044</v>
+      </c>
+      <c r="D1847" s="2" t="s">
+        <v>4045</v>
+      </c>
+      <c r="E1847" s="5" t="s">
+        <v>4046</v>
       </c>
     </row>
     <row r="1848" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1848" s="1" t="n">
-        <v>2318</v>
+        <v>2795</v>
       </c>
       <c r="B1848" s="1" t="s">
-        <v>418</v>
+        <v>807</v>
       </c>
       <c r="C1848" s="1" t="s">
-        <v>3946</v>
+        <v>4047</v>
+      </c>
+      <c r="D1848" s="2" t="s">
+        <v>4048</v>
+      </c>
+      <c r="E1848" s="5" t="s">
+        <v>4049</v>
       </c>
     </row>
     <row r="1849" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1849" s="1" t="n">
-        <v>3729</v>
+        <v>99019</v>
       </c>
       <c r="B1849" s="1" t="s">
-        <v>13</v>
+        <v>4050</v>
       </c>
       <c r="C1849" s="1" t="s">
-        <v>3947</v>
+        <v>4051</v>
+      </c>
+      <c r="D1849" s="2" t="s">
+        <v>4052</v>
+      </c>
+      <c r="E1849" s="5" t="s">
+        <v>4053</v>
       </c>
     </row>
     <row r="1850" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1850" s="1" t="n">
-        <v>4212</v>
+        <v>94049</v>
       </c>
       <c r="B1850" s="1" t="s">
-        <v>3948</v>
+        <v>4054</v>
       </c>
       <c r="C1850" s="1" t="s">
-        <v>3949</v>
+        <v>4055</v>
+      </c>
+      <c r="D1850" s="2" t="s">
+        <v>4056</v>
+      </c>
+      <c r="E1850" s="5" t="s">
+        <v>4057</v>
       </c>
     </row>
     <row r="1851" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1851" s="1" t="n">
-        <v>4446</v>
+        <v>57017</v>
       </c>
       <c r="B1851" s="1" t="s">
-        <v>3950</v>
+        <v>4058</v>
       </c>
       <c r="C1851" s="1" t="s">
-        <v>3951</v>
+        <v>4059</v>
+      </c>
+      <c r="D1851" s="2" t="s">
+        <v>4060</v>
+      </c>
+      <c r="E1851" s="5" t="s">
+        <v>4061</v>
       </c>
     </row>
     <row r="1852" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1852" s="1" t="n">
-        <v>4028</v>
+        <v>991241</v>
       </c>
       <c r="B1852" s="1" t="s">
-        <v>3952</v>
+        <v>4062</v>
       </c>
       <c r="C1852" s="1" t="s">
-        <v>3951</v>
+        <v>4063</v>
+      </c>
+      <c r="D1852" s="2" t="s">
+        <v>4064</v>
+      </c>
+      <c r="E1852" s="5" t="s">
+        <v>4065</v>
       </c>
     </row>
     <row r="1853" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1853" s="1" t="n">
-        <v>4215</v>
+        <v>1400</v>
       </c>
       <c r="B1853" s="1" t="s">
-        <v>3953</v>
+        <v>4066</v>
       </c>
       <c r="C1853" s="1" t="s">
-        <v>3954</v>
+        <v>4067</v>
+      </c>
+      <c r="D1853" s="2" t="s">
+        <v>4068</v>
+      </c>
+      <c r="E1853" s="5" t="s">
+        <v>4069</v>
       </c>
     </row>
     <row r="1854" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1854" s="1" t="n">
-        <v>4213</v>
+        <v>57119</v>
       </c>
       <c r="B1854" s="1" t="s">
-        <v>3955</v>
+        <v>4070</v>
       </c>
       <c r="C1854" s="1" t="s">
-        <v>3956</v>
+        <v>4071</v>
+      </c>
+      <c r="D1854" s="2" t="s">
+        <v>4072</v>
+      </c>
+      <c r="E1854" s="5" t="s">
+        <v>4073</v>
       </c>
     </row>
     <row r="1855" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1855" s="1" t="n">
-        <v>2795</v>
+        <v>300263</v>
       </c>
       <c r="B1855" s="1" t="s">
-        <v>807</v>
+        <v>4074</v>
       </c>
       <c r="C1855" s="1" t="s">
-        <v>3957</v>
+        <v>4075</v>
+      </c>
+      <c r="D1855" s="2" t="s">
+        <v>4076</v>
+      </c>
+      <c r="E1855" s="5" t="s">
+        <v>4077</v>
       </c>
     </row>
     <row r="1856" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1856" s="1" t="n">
-        <v>99019</v>
+        <v>95160</v>
       </c>
       <c r="B1856" s="1" t="s">
-        <v>3958</v>
+        <v>4078</v>
       </c>
       <c r="C1856" s="1" t="s">
-        <v>3959</v>
+        <v>4079</v>
+      </c>
+      <c r="D1856" s="2" t="s">
+        <v>4080</v>
+      </c>
+      <c r="E1856" s="5" t="s">
+        <v>4081</v>
       </c>
     </row>
     <row r="1857" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1857" s="1" t="n">
-        <v>94049</v>
+        <v>855170</v>
       </c>
       <c r="B1857" s="1" t="s">
-        <v>3960</v>
+        <v>4082</v>
       </c>
       <c r="C1857" s="1" t="s">
-        <v>3961</v>
+        <v>4083</v>
+      </c>
+      <c r="D1857" s="2" t="s">
+        <v>4084</v>
+      </c>
+      <c r="E1857" s="5" t="s">
+        <v>4085</v>
       </c>
     </row>
     <row r="1858" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1858" s="1" t="n">
-        <v>3932</v>
+        <v>2540</v>
       </c>
       <c r="B1858" s="1" t="s">
-        <v>1423</v>
+        <v>4086</v>
       </c>
       <c r="C1858" s="1" t="s">
-        <v>3962</v>
+        <v>4087</v>
+      </c>
+      <c r="D1858" s="2" t="s">
+        <v>4088</v>
+      </c>
+      <c r="E1858" s="5" t="s">
+        <v>4089</v>
       </c>
     </row>
     <row r="1859" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1859" s="1" t="n">
-        <v>57017</v>
+        <v>80251</v>
       </c>
       <c r="B1859" s="1" t="s">
-        <v>3963</v>
+        <v>4090</v>
       </c>
       <c r="C1859" s="1" t="s">
-        <v>3964</v>
+        <v>4091</v>
+      </c>
+      <c r="D1859" s="2" t="s">
+        <v>4092</v>
+      </c>
+      <c r="E1859" s="5" t="s">
+        <v>4093</v>
       </c>
     </row>
     <row r="1860" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1860" s="1" t="n">
-        <v>991241</v>
+        <v>2474</v>
       </c>
       <c r="B1860" s="1" t="s">
-        <v>3965</v>
+        <v>4094</v>
       </c>
       <c r="C1860" s="1" t="s">
-        <v>3966</v>
+        <v>4095</v>
+      </c>
+      <c r="D1860" s="2" t="s">
+        <v>4096</v>
+      </c>
+      <c r="E1860" s="5" t="s">
+        <v>4097</v>
       </c>
     </row>
     <row r="1861" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1861" s="1" t="n">
-        <v>1400</v>
+        <v>95310</v>
       </c>
       <c r="B1861" s="1" t="s">
-        <v>3967</v>
+        <v>4098</v>
       </c>
       <c r="C1861" s="1" t="s">
-        <v>3968</v>
+        <v>4099</v>
+      </c>
+      <c r="D1861" s="2" t="s">
+        <v>4100</v>
+      </c>
+      <c r="E1861" s="5" t="s">
+        <v>4101</v>
       </c>
     </row>
     <row r="1862" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1862" s="1" t="n">
-        <v>57119</v>
+        <v>4652</v>
       </c>
       <c r="B1862" s="1" t="s">
-        <v>3969</v>
+        <v>4102</v>
       </c>
       <c r="C1862" s="1" t="s">
-        <v>3970</v>
+        <v>4103</v>
+      </c>
+      <c r="D1862" s="2" t="s">
+        <v>4104</v>
+      </c>
+      <c r="E1862" s="5" t="s">
+        <v>4105</v>
       </c>
     </row>
     <row r="1863" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1863" s="1" t="n">
-        <v>300263</v>
+        <v>3916</v>
       </c>
       <c r="B1863" s="1" t="s">
-        <v>3971</v>
+        <v>4106</v>
       </c>
       <c r="C1863" s="1" t="s">
-        <v>3972</v>
+        <v>4107</v>
+      </c>
+      <c r="D1863" s="2" t="s">
+        <v>4108</v>
+      </c>
+      <c r="E1863" s="5" t="s">
+        <v>4109</v>
       </c>
     </row>
     <row r="1864" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1864" s="1" t="n">
-        <v>95160</v>
+        <v>4672</v>
       </c>
       <c r="B1864" s="1" t="s">
-        <v>3973</v>
+        <v>4110</v>
       </c>
       <c r="C1864" s="1" t="s">
-        <v>3974</v>
+        <v>4111</v>
+      </c>
+      <c r="D1864" s="2" t="s">
+        <v>4112</v>
+      </c>
+      <c r="E1864" s="5" t="s">
+        <v>4113</v>
       </c>
     </row>
     <row r="1865" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1865" s="1" t="n">
-        <v>855170</v>
+        <v>3922</v>
       </c>
       <c r="B1865" s="1" t="s">
-        <v>3975</v>
+        <v>1996</v>
       </c>
       <c r="C1865" s="1" t="s">
-        <v>3976</v>
+        <v>4114</v>
+      </c>
+      <c r="D1865" s="2" t="s">
+        <v>4115</v>
+      </c>
+      <c r="E1865" s="5" t="s">
+        <v>4116</v>
       </c>
     </row>
     <row r="1866" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1866" s="1" t="n">
-        <v>2540</v>
+        <v>4499</v>
       </c>
       <c r="B1866" s="1" t="s">
-        <v>3977</v>
+        <v>4117</v>
       </c>
       <c r="C1866" s="1" t="s">
-        <v>3978</v>
+        <v>4118</v>
+      </c>
+      <c r="D1866" s="2" t="s">
+        <v>4119</v>
+      </c>
+      <c r="E1866" s="5" t="s">
+        <v>4120</v>
       </c>
     </row>
     <row r="1867" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1867" s="1" t="n">
-        <v>4537</v>
+        <v>2529</v>
       </c>
       <c r="B1867" s="1" t="s">
-        <v>13</v>
+        <v>4121</v>
       </c>
       <c r="C1867" s="1" t="s">
-        <v>3979</v>
+        <v>4122</v>
+      </c>
+      <c r="D1867" s="2" t="s">
+        <v>4123</v>
+      </c>
+      <c r="E1867" s="5" t="s">
+        <v>4124</v>
       </c>
     </row>
     <row r="1868" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1868" s="1" t="n">
-        <v>80251</v>
+        <v>4493</v>
       </c>
       <c r="B1868" s="1" t="s">
-        <v>3980</v>
+        <v>103</v>
       </c>
       <c r="C1868" s="1" t="s">
-        <v>3981</v>
+        <v>4125</v>
+      </c>
+      <c r="D1868" s="2" t="s">
+        <v>4126</v>
+      </c>
+      <c r="E1868" s="5" t="s">
+        <v>4127</v>
       </c>
     </row>
     <row r="1869" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1869" s="1" t="n">
-        <v>2474</v>
+        <v>3722</v>
       </c>
       <c r="B1869" s="1" t="s">
-        <v>3982</v>
+        <v>4128</v>
       </c>
       <c r="C1869" s="1" t="s">
-        <v>3983</v>
+        <v>4129</v>
+      </c>
+      <c r="D1869" s="2" t="s">
+        <v>4130</v>
+      </c>
+      <c r="E1869" s="5" t="s">
+        <v>4131</v>
       </c>
     </row>
     <row r="1870" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1870" s="1" t="n">
-        <v>95310</v>
+        <v>200350</v>
       </c>
       <c r="B1870" s="1" t="s">
-        <v>3984</v>
+        <v>4132</v>
       </c>
       <c r="C1870" s="1" t="s">
-        <v>3985</v>
+        <v>4133</v>
+      </c>
+      <c r="D1870" s="2" t="s">
+        <v>4134</v>
+      </c>
+      <c r="E1870" s="5" t="s">
+        <v>4135</v>
       </c>
     </row>
     <row r="1871" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1871" s="1" t="n">
-        <v>4652</v>
+        <v>2448</v>
       </c>
       <c r="B1871" s="1" t="s">
-        <v>3986</v>
+        <v>4136</v>
       </c>
       <c r="C1871" s="1" t="s">
-        <v>3987</v>
+        <v>4137</v>
+      </c>
+      <c r="D1871" s="2" t="s">
+        <v>4138</v>
+      </c>
+      <c r="E1871" s="5" t="s">
+        <v>4139</v>
       </c>
     </row>
     <row r="1872" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1872" s="1" t="n">
-        <v>3916</v>
+        <v>4431</v>
       </c>
       <c r="B1872" s="1" t="s">
-        <v>3988</v>
+        <v>4140</v>
       </c>
       <c r="C1872" s="1" t="s">
-        <v>3989</v>
+        <v>4141</v>
+      </c>
+      <c r="D1872" s="2" t="s">
+        <v>4142</v>
+      </c>
+      <c r="E1872" s="5" t="s">
+        <v>4143</v>
       </c>
     </row>
     <row r="1873" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1873" s="1" t="n">
-        <v>4672</v>
+        <v>855165</v>
       </c>
       <c r="B1873" s="1" t="s">
-        <v>3990</v>
+        <v>4082</v>
       </c>
       <c r="C1873" s="1" t="s">
-        <v>3991</v>
+        <v>4144</v>
+      </c>
+      <c r="D1873" s="2" t="s">
+        <v>4145</v>
+      </c>
+      <c r="E1873" s="5" t="s">
+        <v>4146</v>
       </c>
     </row>
     <row r="1874" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1874" s="1" t="n">
-        <v>3922</v>
+        <v>7786</v>
       </c>
       <c r="B1874" s="1" t="s">
-        <v>1996</v>
+        <v>4147</v>
       </c>
       <c r="C1874" s="1" t="s">
-        <v>3992</v>
+        <v>4148</v>
+      </c>
+      <c r="D1874" s="2" t="s">
+        <v>4149</v>
+      </c>
+      <c r="E1874" s="5" t="s">
+        <v>4150</v>
       </c>
     </row>
     <row r="1875" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1875" s="1" t="n">
-        <v>4499</v>
+        <v>4198</v>
       </c>
       <c r="B1875" s="1" t="s">
-        <v>3993</v>
+        <v>4151</v>
       </c>
       <c r="C1875" s="1" t="s">
-        <v>3994</v>
+        <v>4152</v>
+      </c>
+      <c r="D1875" s="2" t="s">
+        <v>4153</v>
+      </c>
+      <c r="E1875" s="5" t="s">
+        <v>4154</v>
       </c>
     </row>
     <row r="1876" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1876" s="1" t="n">
-        <v>4674</v>
+        <v>4615</v>
       </c>
       <c r="B1876" s="1" t="s">
-        <v>13</v>
+        <v>1039</v>
       </c>
       <c r="C1876" s="1" t="s">
-        <v>3995</v>
+        <v>4155</v>
+      </c>
+      <c r="D1876" s="2" t="s">
+        <v>4156</v>
+      </c>
+      <c r="E1876" s="5" t="s">
+        <v>4157</v>
       </c>
     </row>
     <row r="1877" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1877" s="1" t="n">
-        <v>2529</v>
+        <v>2355</v>
       </c>
       <c r="B1877" s="1" t="s">
-        <v>3996</v>
+        <v>103</v>
       </c>
       <c r="C1877" s="1" t="s">
-        <v>3997</v>
+        <v>4158</v>
+      </c>
+      <c r="D1877" s="2" t="s">
+        <v>4159</v>
+      </c>
+      <c r="E1877" s="5" t="s">
+        <v>4160</v>
       </c>
     </row>
     <row r="1878" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1878" s="1" t="n">
-        <v>4493</v>
+        <v>4316</v>
       </c>
       <c r="B1878" s="1" t="s">
-        <v>103</v>
+        <v>4161</v>
       </c>
       <c r="C1878" s="1" t="s">
-        <v>3998</v>
+        <v>4162</v>
+      </c>
+      <c r="D1878" s="2" t="s">
+        <v>4163</v>
+      </c>
+      <c r="E1878" s="5" t="s">
+        <v>4164</v>
       </c>
     </row>
     <row r="1879" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1879" s="1" t="n">
-        <v>3722</v>
+        <v>3349</v>
       </c>
       <c r="B1879" s="1" t="s">
-        <v>3999</v>
+        <v>4165</v>
       </c>
       <c r="C1879" s="1" t="s">
-        <v>4000</v>
+        <v>4166</v>
+      </c>
+      <c r="D1879" s="2" t="s">
+        <v>4167</v>
+      </c>
+      <c r="E1879" s="5" t="s">
+        <v>4168</v>
       </c>
     </row>
     <row r="1880" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1880" s="1" t="n">
-        <v>200350</v>
+        <v>3946</v>
       </c>
       <c r="B1880" s="1" t="s">
-        <v>4001</v>
+        <v>1554</v>
       </c>
       <c r="C1880" s="1" t="s">
-        <v>4002</v>
+        <v>4169</v>
+      </c>
+      <c r="D1880" s="2" t="s">
+        <v>4170</v>
+      </c>
+      <c r="E1880" s="5" t="s">
+        <v>4171</v>
       </c>
     </row>
     <row r="1881" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1881" s="1" t="n">
-        <v>2448</v>
+        <v>998</v>
       </c>
       <c r="B1881" s="1" t="s">
-        <v>4003</v>
+        <v>4172</v>
       </c>
       <c r="C1881" s="1" t="s">
-        <v>4004</v>
+        <v>4173</v>
+      </c>
+      <c r="D1881" s="2" t="s">
+        <v>4174</v>
+      </c>
+      <c r="E1881" s="5" t="s">
+        <v>4175</v>
       </c>
     </row>
     <row r="1882" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1882" s="1" t="n">
-        <v>4431</v>
+        <v>2444</v>
       </c>
       <c r="B1882" s="1" t="s">
-        <v>4005</v>
+        <v>4176</v>
       </c>
       <c r="C1882" s="1" t="s">
-        <v>4006</v>
+        <v>4177</v>
+      </c>
+      <c r="D1882" s="2" t="s">
+        <v>4178</v>
+      </c>
+      <c r="E1882" s="5" t="s">
+        <v>4179</v>
       </c>
     </row>
     <row r="1883" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1883" s="1" t="n">
-        <v>855165</v>
+        <v>201144</v>
       </c>
       <c r="B1883" s="1" t="s">
-        <v>3975</v>
+        <v>51</v>
       </c>
       <c r="C1883" s="1" t="s">
-        <v>4007</v>
+        <v>4180</v>
+      </c>
+      <c r="D1883" s="2" t="s">
+        <v>4181</v>
+      </c>
+      <c r="E1883" s="5" t="s">
+        <v>4182</v>
       </c>
     </row>
     <row r="1884" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1884" s="1" t="n">
-        <v>7786</v>
+        <v>4096</v>
       </c>
       <c r="B1884" s="1" t="s">
-        <v>4008</v>
+        <v>4183</v>
       </c>
       <c r="C1884" s="1" t="s">
-        <v>4009</v>
+        <v>4184</v>
+      </c>
+      <c r="D1884" s="2" t="s">
+        <v>4185</v>
+      </c>
+      <c r="E1884" s="5" t="s">
+        <v>4186</v>
       </c>
     </row>
     <row r="1885" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1885" s="1" t="n">
-        <v>4198</v>
+        <v>2740</v>
       </c>
       <c r="B1885" s="1" t="s">
-        <v>4010</v>
+        <v>4187</v>
       </c>
       <c r="C1885" s="1" t="s">
-        <v>4011</v>
+        <v>4188</v>
+      </c>
+      <c r="D1885" s="2" t="s">
+        <v>4189</v>
+      </c>
+      <c r="E1885" s="5" t="s">
+        <v>4190</v>
       </c>
     </row>
     <row r="1886" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1886" s="1" t="n">
-        <v>1166</v>
+        <v>2452</v>
       </c>
       <c r="B1886" s="1" t="s">
-        <v>606</v>
+        <v>4191</v>
       </c>
       <c r="C1886" s="1" t="s">
-        <v>4012</v>
+        <v>4192</v>
+      </c>
+      <c r="D1886" s="2" t="s">
+        <v>4193</v>
+      </c>
+      <c r="E1886" s="5" t="s">
+        <v>4194</v>
       </c>
     </row>
     <row r="1887" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1887" s="1" t="n">
-        <v>4615</v>
+        <v>4263</v>
       </c>
       <c r="B1887" s="1" t="s">
-        <v>1039</v>
+        <v>4195</v>
       </c>
       <c r="C1887" s="1" t="s">
-        <v>4013</v>
+        <v>4196</v>
+      </c>
+      <c r="D1887" s="2" t="s">
+        <v>4197</v>
+      </c>
+      <c r="E1887" s="5" t="s">
+        <v>4198</v>
       </c>
     </row>
     <row r="1888" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1888" s="1" t="n">
-        <v>2355</v>
+        <v>2445</v>
       </c>
       <c r="B1888" s="1" t="s">
-        <v>103</v>
+        <v>4199</v>
       </c>
       <c r="C1888" s="1" t="s">
-        <v>4014</v>
+        <v>4200</v>
+      </c>
+      <c r="D1888" s="2" t="s">
+        <v>4201</v>
+      </c>
+      <c r="E1888" s="5" t="s">
+        <v>4202</v>
       </c>
     </row>
     <row r="1889" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1889" s="1" t="n">
-        <v>4316</v>
+        <v>2774</v>
       </c>
       <c r="B1889" s="1" t="s">
-        <v>4015</v>
+        <v>4203</v>
       </c>
       <c r="C1889" s="1" t="s">
-        <v>4016</v>
+        <v>4204</v>
+      </c>
+      <c r="D1889" s="2" t="s">
+        <v>4205</v>
+      </c>
+      <c r="E1889" s="5" t="s">
+        <v>4206</v>
       </c>
     </row>
     <row r="1890" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1890" s="1" t="n">
-        <v>3349</v>
+        <v>2528</v>
       </c>
       <c r="B1890" s="1" t="s">
-        <v>4017</v>
+        <v>4207</v>
       </c>
       <c r="C1890" s="1" t="s">
-        <v>4018</v>
+        <v>4208</v>
+      </c>
+      <c r="D1890" s="2" t="s">
+        <v>4209</v>
+      </c>
+      <c r="E1890" s="5" t="s">
+        <v>4210</v>
       </c>
     </row>
     <row r="1891" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1891" s="1" t="n">
-        <v>3946</v>
+        <v>2382</v>
       </c>
       <c r="B1891" s="1" t="s">
-        <v>1554</v>
+        <v>4211</v>
       </c>
       <c r="C1891" s="1" t="s">
-        <v>4019</v>
+        <v>4212</v>
+      </c>
+      <c r="D1891" s="2" t="s">
+        <v>4213</v>
+      </c>
+      <c r="E1891" s="5" t="s">
+        <v>4214</v>
       </c>
     </row>
     <row r="1892" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1892" s="1" t="n">
-        <v>998</v>
+        <v>855160</v>
       </c>
       <c r="B1892" s="1" t="s">
-        <v>4020</v>
+        <v>4082</v>
       </c>
       <c r="C1892" s="1" t="s">
-        <v>4021</v>
+        <v>4215</v>
+      </c>
+      <c r="D1892" s="2" t="s">
+        <v>4216</v>
+      </c>
+      <c r="E1892" s="5" t="s">
+        <v>4217</v>
       </c>
     </row>
     <row r="1893" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1893" s="1" t="n">
-        <v>2444</v>
+        <v>2694</v>
       </c>
       <c r="B1893" s="1" t="s">
-        <v>4022</v>
+        <v>4218</v>
       </c>
       <c r="C1893" s="1" t="s">
-        <v>4023</v>
+        <v>4219</v>
+      </c>
+      <c r="D1893" s="2" t="s">
+        <v>4220</v>
+      </c>
+      <c r="E1893" s="2" t="s">
+        <v>4221</v>
       </c>
     </row>
     <row r="1894" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1894" s="1" t="n">
-        <v>201144</v>
+        <v>3619</v>
       </c>
       <c r="B1894" s="1" t="s">
-        <v>51</v>
+        <v>4222</v>
       </c>
       <c r="C1894" s="1" t="s">
-        <v>4024</v>
+        <v>4223</v>
+      </c>
+      <c r="D1894" s="2" t="s">
+        <v>4224</v>
+      </c>
+      <c r="E1894" s="5" t="s">
+        <v>4225</v>
       </c>
     </row>
     <row r="1895" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1895" s="1" t="n">
-        <v>4096</v>
+        <v>2763</v>
       </c>
       <c r="B1895" s="1" t="s">
-        <v>4025</v>
+        <v>4226</v>
       </c>
       <c r="C1895" s="1" t="s">
-        <v>4026</v>
+        <v>4227</v>
+      </c>
+      <c r="D1895" s="2" t="s">
+        <v>4228</v>
+      </c>
+      <c r="E1895" s="5" t="s">
+        <v>4229</v>
       </c>
     </row>
     <row r="1896" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1896" s="1" t="n">
-        <v>2740</v>
+        <v>99530</v>
       </c>
       <c r="B1896" s="1" t="s">
-        <v>4027</v>
+        <v>4230</v>
       </c>
       <c r="C1896" s="1" t="s">
-        <v>4028</v>
+        <v>4231</v>
+      </c>
+      <c r="D1896" s="2" t="s">
+        <v>4232</v>
+      </c>
+      <c r="E1896" s="2" t="s">
+        <v>4233</v>
       </c>
     </row>
     <row r="1897" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1897" s="1" t="n">
-        <v>2452</v>
+        <v>2757</v>
       </c>
       <c r="B1897" s="1" t="s">
-        <v>4029</v>
+        <v>4234</v>
       </c>
       <c r="C1897" s="1" t="s">
-        <v>4030</v>
+        <v>4235</v>
+      </c>
+      <c r="D1897" s="2" t="s">
+        <v>4236</v>
+      </c>
+      <c r="E1897" s="5" t="s">
+        <v>4237</v>
       </c>
     </row>
     <row r="1898" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1898" s="1" t="n">
-        <v>4263</v>
+        <v>2751</v>
       </c>
       <c r="B1898" s="1" t="s">
-        <v>4031</v>
+        <v>4238</v>
       </c>
       <c r="C1898" s="1" t="s">
-        <v>4032</v>
+        <v>4239</v>
+      </c>
+      <c r="D1898" s="2" t="s">
+        <v>4240</v>
+      </c>
+      <c r="E1898" s="5" t="s">
+        <v>4241</v>
       </c>
     </row>
     <row r="1899" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1899" s="1" t="n">
-        <v>2445</v>
+        <v>4233</v>
       </c>
       <c r="B1899" s="1" t="s">
-        <v>4033</v>
+        <v>4242</v>
       </c>
       <c r="C1899" s="1" t="s">
-        <v>4034</v>
+        <v>4243</v>
+      </c>
+      <c r="D1899" s="2" t="s">
+        <v>4244</v>
+      </c>
+      <c r="E1899" s="5" t="s">
+        <v>4245</v>
       </c>
     </row>
     <row r="1900" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1900" s="1" t="n">
-        <v>2774</v>
+        <v>1160</v>
       </c>
       <c r="B1900" s="1" t="s">
-        <v>4035</v>
+        <v>4246</v>
       </c>
       <c r="C1900" s="1" t="s">
-        <v>4036</v>
+        <v>4247</v>
+      </c>
+      <c r="D1900" s="2" t="s">
+        <v>4248</v>
+      </c>
+      <c r="E1900" s="5" t="s">
+        <v>4249</v>
       </c>
     </row>
     <row r="1901" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1901" s="1" t="n">
-        <v>2528</v>
+        <v>6010</v>
       </c>
       <c r="B1901" s="1" t="s">
-        <v>4037</v>
+        <v>4250</v>
       </c>
       <c r="C1901" s="1" t="s">
-        <v>4038</v>
+        <v>4251</v>
+      </c>
+      <c r="D1901" s="2" t="s">
+        <v>4252</v>
+      </c>
+      <c r="E1901" s="5" t="s">
+        <v>4253</v>
       </c>
     </row>
     <row r="1902" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1902" s="1" t="n">
-        <v>2382</v>
+        <v>111206</v>
       </c>
       <c r="B1902" s="1" t="s">
-        <v>4039</v>
+        <v>4254</v>
       </c>
       <c r="C1902" s="1" t="s">
-        <v>4040</v>
+        <v>4255</v>
+      </c>
+      <c r="D1902" s="2" t="s">
+        <v>4256</v>
+      </c>
+      <c r="E1902" s="2" t="s">
+        <v>4257</v>
       </c>
     </row>
     <row r="1903" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1903" s="1" t="n">
-        <v>855160</v>
+        <v>903</v>
       </c>
       <c r="B1903" s="1" t="s">
-        <v>3975</v>
+        <v>4258</v>
       </c>
       <c r="C1903" s="1" t="s">
-        <v>4041</v>
+        <v>4259</v>
+      </c>
+      <c r="D1903" s="2" t="s">
+        <v>4260</v>
+      </c>
+      <c r="E1903" s="5" t="s">
+        <v>4261</v>
       </c>
     </row>
     <row r="1904" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1904" s="1" t="n">
-        <v>2694</v>
+        <v>2267</v>
       </c>
       <c r="B1904" s="1" t="s">
-        <v>4042</v>
+        <v>4262</v>
       </c>
       <c r="C1904" s="1" t="s">
-        <v>4043</v>
+        <v>4263</v>
+      </c>
+      <c r="D1904" s="2" t="s">
+        <v>4264</v>
+      </c>
+      <c r="E1904" s="5" t="s">
+        <v>4265</v>
       </c>
     </row>
     <row r="1905" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1905" s="1" t="n">
-        <v>3619</v>
+        <v>2449</v>
       </c>
       <c r="B1905" s="1" t="s">
-        <v>4044</v>
+        <v>4266</v>
       </c>
       <c r="C1905" s="1" t="s">
-        <v>4045</v>
-      </c>
-    </row>
-    <row r="1906" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1906" s="1" t="n">
-        <v>2763</v>
-      </c>
-      <c r="B1906" s="1" t="s">
-        <v>4046</v>
-      </c>
-      <c r="C1906" s="1" t="s">
-        <v>4047</v>
-      </c>
-    </row>
-    <row r="1907" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1907" s="1" t="n">
-        <v>99530</v>
-      </c>
-      <c r="B1907" s="1" t="s">
-        <v>4048</v>
-      </c>
-      <c r="C1907" s="1" t="s">
-        <v>4049</v>
-      </c>
-    </row>
-    <row r="1908" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1908" s="1" t="n">
-        <v>2757</v>
-      </c>
-      <c r="B1908" s="1" t="s">
-        <v>4050</v>
-      </c>
-      <c r="C1908" s="1" t="s">
-        <v>4051</v>
-      </c>
-    </row>
-    <row r="1909" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1909" s="1" t="n">
-        <v>2751</v>
-      </c>
-      <c r="B1909" s="1" t="s">
-        <v>4052</v>
-      </c>
-      <c r="C1909" s="1" t="s">
-        <v>4053</v>
-      </c>
-    </row>
-    <row r="1910" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1910" s="1" t="n">
-        <v>4233</v>
-      </c>
-      <c r="B1910" s="1" t="s">
-        <v>4054</v>
-      </c>
-      <c r="C1910" s="1" t="s">
-        <v>4055</v>
-      </c>
-    </row>
-    <row r="1911" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1911" s="1" t="n">
-        <v>1160</v>
-      </c>
-      <c r="B1911" s="1" t="s">
-        <v>4056</v>
-      </c>
-      <c r="C1911" s="1" t="s">
-        <v>4057</v>
-      </c>
-    </row>
-    <row r="1912" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1912" s="1" t="n">
-        <v>6010</v>
-      </c>
-      <c r="B1912" s="1" t="s">
-        <v>4058</v>
-      </c>
-      <c r="C1912" s="1" t="s">
-        <v>4059</v>
-      </c>
-    </row>
-    <row r="1913" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1913" s="1" t="n">
-        <v>111206</v>
-      </c>
-      <c r="B1913" s="1" t="s">
-        <v>4060</v>
-      </c>
-      <c r="C1913" s="1" t="s">
-        <v>4061</v>
-      </c>
-    </row>
-    <row r="1914" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1914" s="1" t="n">
-        <v>903</v>
-      </c>
-      <c r="B1914" s="1" t="s">
-        <v>4062</v>
-      </c>
-      <c r="C1914" s="1" t="s">
-        <v>4063</v>
-      </c>
-    </row>
-    <row r="1915" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1915" s="1" t="n">
-        <v>2267</v>
-      </c>
-      <c r="B1915" s="1" t="s">
-        <v>4064</v>
-      </c>
-      <c r="C1915" s="1" t="s">
-        <v>4065</v>
-      </c>
-    </row>
-    <row r="1916" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1916" s="1" t="n">
-        <v>2449</v>
-      </c>
-      <c r="B1916" s="1" t="s">
-        <v>4066</v>
-      </c>
-      <c r="C1916" s="1" t="s">
-        <v>4067</v>
-      </c>
-    </row>
+        <v>4267</v>
+      </c>
+      <c r="D1905" s="2" t="s">
+        <v>4268</v>
+      </c>
+      <c r="E1905" s="5" t="s">
+        <v>4269</v>
+      </c>
+    </row>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>

--- a/csv/adresses_geocodees.xlsx
+++ b/csv/adresses_geocodees.xlsx
@@ -12839,7 +12839,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -12868,12 +12868,6 @@
       <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -12925,7 +12919,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -12943,10 +12937,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -13142,10 +13132,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1048576"/>
+  <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B7" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1083" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G29" activeCellId="0" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13598,6 +13588,7 @@
       <c r="E26" s="4" t="n">
         <v>2.3787452</v>
       </c>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
@@ -43733,10 +43724,10 @@
       <c r="C1799" s="1" t="s">
         <v>3875</v>
       </c>
-      <c r="D1799" s="2" t="s">
+      <c r="D1799" s="4" t="s">
         <v>3876</v>
       </c>
-      <c r="E1799" s="5" t="s">
+      <c r="E1799" s="4" t="s">
         <v>3877</v>
       </c>
     </row>
@@ -43750,10 +43741,10 @@
       <c r="C1800" s="1" t="s">
         <v>3875</v>
       </c>
-      <c r="D1800" s="2" t="s">
+      <c r="D1800" s="4" t="s">
         <v>3876</v>
       </c>
-      <c r="E1800" s="5" t="s">
+      <c r="E1800" s="4" t="s">
         <v>3877</v>
       </c>
     </row>
@@ -43767,10 +43758,10 @@
       <c r="C1801" s="1" t="s">
         <v>3878</v>
       </c>
-      <c r="D1801" s="2" t="s">
+      <c r="D1801" s="4" t="s">
         <v>3879</v>
       </c>
-      <c r="E1801" s="5" t="s">
+      <c r="E1801" s="4" t="s">
         <v>3880</v>
       </c>
     </row>
@@ -43784,10 +43775,10 @@
       <c r="C1802" s="1" t="s">
         <v>3882</v>
       </c>
-      <c r="D1802" s="2" t="s">
+      <c r="D1802" s="4" t="s">
         <v>3883</v>
       </c>
-      <c r="E1802" s="5" t="s">
+      <c r="E1802" s="4" t="s">
         <v>3884</v>
       </c>
     </row>
@@ -43801,10 +43792,10 @@
       <c r="C1803" s="1" t="s">
         <v>3886</v>
       </c>
-      <c r="D1803" s="2" t="s">
+      <c r="D1803" s="4" t="s">
         <v>3887</v>
       </c>
-      <c r="E1803" s="5" t="s">
+      <c r="E1803" s="4" t="s">
         <v>3888</v>
       </c>
     </row>
@@ -43818,10 +43809,10 @@
       <c r="C1804" s="1" t="s">
         <v>3890</v>
       </c>
-      <c r="D1804" s="2" t="s">
+      <c r="D1804" s="4" t="s">
         <v>3891</v>
       </c>
-      <c r="E1804" s="5" t="s">
+      <c r="E1804" s="4" t="s">
         <v>3892</v>
       </c>
     </row>
@@ -43835,10 +43826,10 @@
       <c r="C1805" s="1" t="s">
         <v>3893</v>
       </c>
-      <c r="D1805" s="2" t="s">
+      <c r="D1805" s="4" t="s">
         <v>3894</v>
       </c>
-      <c r="E1805" s="5" t="s">
+      <c r="E1805" s="4" t="s">
         <v>3895</v>
       </c>
     </row>
@@ -43852,10 +43843,10 @@
       <c r="C1806" s="1" t="s">
         <v>3896</v>
       </c>
-      <c r="D1806" s="2" t="s">
+      <c r="D1806" s="4" t="s">
         <v>3897</v>
       </c>
-      <c r="E1806" s="5" t="s">
+      <c r="E1806" s="4" t="s">
         <v>3898</v>
       </c>
     </row>
@@ -43869,10 +43860,10 @@
       <c r="C1807" s="1" t="s">
         <v>3900</v>
       </c>
-      <c r="D1807" s="2" t="s">
+      <c r="D1807" s="4" t="s">
         <v>3901</v>
       </c>
-      <c r="E1807" s="5" t="s">
+      <c r="E1807" s="4" t="s">
         <v>3902</v>
       </c>
     </row>
@@ -43886,10 +43877,10 @@
       <c r="C1808" s="1" t="s">
         <v>3904</v>
       </c>
-      <c r="D1808" s="2" t="s">
+      <c r="D1808" s="4" t="s">
         <v>3905</v>
       </c>
-      <c r="E1808" s="5" t="s">
+      <c r="E1808" s="4" t="s">
         <v>3906</v>
       </c>
     </row>
@@ -43903,10 +43894,10 @@
       <c r="C1809" s="1" t="s">
         <v>3907</v>
       </c>
-      <c r="D1809" s="2" t="s">
+      <c r="D1809" s="4" t="s">
         <v>3908</v>
       </c>
-      <c r="E1809" s="5" t="s">
+      <c r="E1809" s="4" t="s">
         <v>3909</v>
       </c>
     </row>
@@ -43920,10 +43911,10 @@
       <c r="C1810" s="1" t="s">
         <v>3911</v>
       </c>
-      <c r="D1810" s="2" t="s">
+      <c r="D1810" s="4" t="s">
         <v>3912</v>
       </c>
-      <c r="E1810" s="5" t="s">
+      <c r="E1810" s="4" t="s">
         <v>3913</v>
       </c>
     </row>
@@ -43937,10 +43928,10 @@
       <c r="C1811" s="1" t="s">
         <v>3915</v>
       </c>
-      <c r="D1811" s="2" t="s">
+      <c r="D1811" s="4" t="s">
         <v>3916</v>
       </c>
-      <c r="E1811" s="5" t="s">
+      <c r="E1811" s="4" t="s">
         <v>3917</v>
       </c>
     </row>
@@ -43954,10 +43945,10 @@
       <c r="C1812" s="1" t="s">
         <v>3919</v>
       </c>
-      <c r="D1812" s="2" t="s">
+      <c r="D1812" s="4" t="s">
         <v>3920</v>
       </c>
-      <c r="E1812" s="5" t="s">
+      <c r="E1812" s="4" t="s">
         <v>3921</v>
       </c>
     </row>
@@ -43971,10 +43962,10 @@
       <c r="C1813" s="1" t="s">
         <v>3922</v>
       </c>
-      <c r="D1813" s="2" t="s">
+      <c r="D1813" s="4" t="s">
         <v>3923</v>
       </c>
-      <c r="E1813" s="5" t="s">
+      <c r="E1813" s="4" t="s">
         <v>3924</v>
       </c>
     </row>
@@ -43988,10 +43979,10 @@
       <c r="C1814" s="1" t="s">
         <v>3926</v>
       </c>
-      <c r="D1814" s="2" t="s">
+      <c r="D1814" s="4" t="s">
         <v>3927</v>
       </c>
-      <c r="E1814" s="5" t="s">
+      <c r="E1814" s="4" t="s">
         <v>3928</v>
       </c>
     </row>
@@ -44005,10 +43996,10 @@
       <c r="C1815" s="1" t="s">
         <v>3930</v>
       </c>
-      <c r="D1815" s="2" t="s">
+      <c r="D1815" s="4" t="s">
         <v>3931</v>
       </c>
-      <c r="E1815" s="5" t="s">
+      <c r="E1815" s="4" t="s">
         <v>3932</v>
       </c>
     </row>
@@ -44022,10 +44013,10 @@
       <c r="C1816" s="1" t="s">
         <v>3934</v>
       </c>
-      <c r="D1816" s="2" t="s">
+      <c r="D1816" s="4" t="s">
         <v>3935</v>
       </c>
-      <c r="E1816" s="5" t="s">
+      <c r="E1816" s="4" t="s">
         <v>3936</v>
       </c>
     </row>
@@ -44039,10 +44030,10 @@
       <c r="C1817" s="1" t="s">
         <v>3938</v>
       </c>
-      <c r="D1817" s="2" t="s">
+      <c r="D1817" s="4" t="s">
         <v>3939</v>
       </c>
-      <c r="E1817" s="5" t="s">
+      <c r="E1817" s="4" t="s">
         <v>3940</v>
       </c>
     </row>
@@ -44056,10 +44047,10 @@
       <c r="C1818" s="1" t="s">
         <v>3941</v>
       </c>
-      <c r="D1818" s="2" t="s">
+      <c r="D1818" s="4" t="s">
         <v>3942</v>
       </c>
-      <c r="E1818" s="5" t="s">
+      <c r="E1818" s="4" t="s">
         <v>3943</v>
       </c>
     </row>
@@ -44073,10 +44064,10 @@
       <c r="C1819" s="1" t="s">
         <v>3945</v>
       </c>
-      <c r="D1819" s="2" t="s">
+      <c r="D1819" s="4" t="s">
         <v>3946</v>
       </c>
-      <c r="E1819" s="5" t="s">
+      <c r="E1819" s="4" t="s">
         <v>3947</v>
       </c>
     </row>
@@ -44090,10 +44081,10 @@
       <c r="C1820" s="1" t="s">
         <v>3948</v>
       </c>
-      <c r="D1820" s="2" t="s">
+      <c r="D1820" s="4" t="s">
         <v>3949</v>
       </c>
-      <c r="E1820" s="5" t="s">
+      <c r="E1820" s="4" t="s">
         <v>3950</v>
       </c>
     </row>
@@ -44107,10 +44098,10 @@
       <c r="C1821" s="1" t="s">
         <v>3951</v>
       </c>
-      <c r="D1821" s="2" t="s">
+      <c r="D1821" s="4" t="s">
         <v>3952</v>
       </c>
-      <c r="E1821" s="5" t="s">
+      <c r="E1821" s="4" t="s">
         <v>3953</v>
       </c>
     </row>
@@ -44124,10 +44115,10 @@
       <c r="C1822" s="1" t="s">
         <v>3954</v>
       </c>
-      <c r="D1822" s="2" t="s">
+      <c r="D1822" s="4" t="s">
         <v>3955</v>
       </c>
-      <c r="E1822" s="5" t="s">
+      <c r="E1822" s="4" t="s">
         <v>3956</v>
       </c>
     </row>
@@ -44141,10 +44132,10 @@
       <c r="C1823" s="1" t="s">
         <v>3958</v>
       </c>
-      <c r="D1823" s="2" t="s">
+      <c r="D1823" s="4" t="s">
         <v>3959</v>
       </c>
-      <c r="E1823" s="5" t="s">
+      <c r="E1823" s="4" t="s">
         <v>3960</v>
       </c>
     </row>
@@ -44158,10 +44149,10 @@
       <c r="C1824" s="1" t="s">
         <v>3958</v>
       </c>
-      <c r="D1824" s="2" t="s">
+      <c r="D1824" s="4" t="s">
         <v>3959</v>
       </c>
-      <c r="E1824" s="5" t="s">
+      <c r="E1824" s="4" t="s">
         <v>3960</v>
       </c>
     </row>
@@ -44175,10 +44166,10 @@
       <c r="C1825" s="1" t="s">
         <v>3961</v>
       </c>
-      <c r="D1825" s="2" t="s">
+      <c r="D1825" s="4" t="s">
         <v>3962</v>
       </c>
-      <c r="E1825" s="5" t="s">
+      <c r="E1825" s="4" t="s">
         <v>3963</v>
       </c>
     </row>
@@ -44192,10 +44183,10 @@
       <c r="C1826" s="1" t="s">
         <v>3965</v>
       </c>
-      <c r="D1826" s="2" t="s">
+      <c r="D1826" s="4" t="s">
         <v>3966</v>
       </c>
-      <c r="E1826" s="5" t="s">
+      <c r="E1826" s="4" t="s">
         <v>3967</v>
       </c>
     </row>
@@ -44209,10 +44200,10 @@
       <c r="C1827" s="1" t="s">
         <v>3969</v>
       </c>
-      <c r="D1827" s="2" t="s">
+      <c r="D1827" s="4" t="s">
         <v>3970</v>
       </c>
-      <c r="E1827" s="5" t="s">
+      <c r="E1827" s="4" t="s">
         <v>3971</v>
       </c>
     </row>
@@ -44226,10 +44217,10 @@
       <c r="C1828" s="1" t="s">
         <v>3973</v>
       </c>
-      <c r="D1828" s="2" t="s">
+      <c r="D1828" s="4" t="s">
         <v>3974</v>
       </c>
-      <c r="E1828" s="5" t="s">
+      <c r="E1828" s="4" t="s">
         <v>3975</v>
       </c>
     </row>
@@ -44243,10 +44234,10 @@
       <c r="C1829" s="1" t="s">
         <v>3977</v>
       </c>
-      <c r="D1829" s="2" t="s">
+      <c r="D1829" s="4" t="s">
         <v>3978</v>
       </c>
-      <c r="E1829" s="5" t="s">
+      <c r="E1829" s="4" t="s">
         <v>3979</v>
       </c>
     </row>
@@ -44260,10 +44251,10 @@
       <c r="C1830" s="1" t="s">
         <v>3980</v>
       </c>
-      <c r="D1830" s="2" t="s">
+      <c r="D1830" s="4" t="s">
         <v>3981</v>
       </c>
-      <c r="E1830" s="5" t="s">
+      <c r="E1830" s="4" t="s">
         <v>3982</v>
       </c>
     </row>
@@ -44277,10 +44268,10 @@
       <c r="C1831" s="1" t="s">
         <v>3983</v>
       </c>
-      <c r="D1831" s="2" t="s">
+      <c r="D1831" s="4" t="s">
         <v>3984</v>
       </c>
-      <c r="E1831" s="5" t="s">
+      <c r="E1831" s="4" t="s">
         <v>3985</v>
       </c>
     </row>
@@ -44294,10 +44285,10 @@
       <c r="C1832" s="1" t="s">
         <v>3986</v>
       </c>
-      <c r="D1832" s="2" t="s">
+      <c r="D1832" s="4" t="s">
         <v>3987</v>
       </c>
-      <c r="E1832" s="5" t="s">
+      <c r="E1832" s="4" t="s">
         <v>3988</v>
       </c>
     </row>
@@ -44311,10 +44302,10 @@
       <c r="C1833" s="1" t="s">
         <v>3990</v>
       </c>
-      <c r="D1833" s="2" t="s">
+      <c r="D1833" s="4" t="s">
         <v>3991</v>
       </c>
-      <c r="E1833" s="5" t="s">
+      <c r="E1833" s="4" t="s">
         <v>3992</v>
       </c>
     </row>
@@ -44328,10 +44319,10 @@
       <c r="C1834" s="1" t="s">
         <v>3994</v>
       </c>
-      <c r="D1834" s="2" t="s">
+      <c r="D1834" s="4" t="s">
         <v>3995</v>
       </c>
-      <c r="E1834" s="5" t="s">
+      <c r="E1834" s="4" t="s">
         <v>3996</v>
       </c>
     </row>
@@ -44345,10 +44336,10 @@
       <c r="C1835" s="1" t="s">
         <v>3998</v>
       </c>
-      <c r="D1835" s="2" t="s">
+      <c r="D1835" s="4" t="s">
         <v>3999</v>
       </c>
-      <c r="E1835" s="5" t="s">
+      <c r="E1835" s="4" t="s">
         <v>4000</v>
       </c>
     </row>
@@ -44362,10 +44353,10 @@
       <c r="C1836" s="1" t="s">
         <v>4002</v>
       </c>
-      <c r="D1836" s="2" t="s">
+      <c r="D1836" s="4" t="s">
         <v>4003</v>
       </c>
-      <c r="E1836" s="5" t="s">
+      <c r="E1836" s="4" t="s">
         <v>4004</v>
       </c>
     </row>
@@ -44379,10 +44370,10 @@
       <c r="C1837" s="1" t="s">
         <v>4005</v>
       </c>
-      <c r="D1837" s="2" t="s">
+      <c r="D1837" s="4" t="s">
         <v>4006</v>
       </c>
-      <c r="E1837" s="5" t="s">
+      <c r="E1837" s="4" t="s">
         <v>4007</v>
       </c>
     </row>
@@ -44396,10 +44387,10 @@
       <c r="C1838" s="1" t="s">
         <v>4008</v>
       </c>
-      <c r="D1838" s="2" t="s">
+      <c r="D1838" s="4" t="s">
         <v>4009</v>
       </c>
-      <c r="E1838" s="5" t="s">
+      <c r="E1838" s="4" t="s">
         <v>4010</v>
       </c>
     </row>
@@ -44413,10 +44404,10 @@
       <c r="C1839" s="1" t="s">
         <v>4012</v>
       </c>
-      <c r="D1839" s="2" t="s">
+      <c r="D1839" s="4" t="s">
         <v>4013</v>
       </c>
-      <c r="E1839" s="5" t="s">
+      <c r="E1839" s="4" t="s">
         <v>4014</v>
       </c>
     </row>
@@ -44430,10 +44421,10 @@
       <c r="C1840" s="1" t="s">
         <v>4016</v>
       </c>
-      <c r="D1840" s="2" t="s">
+      <c r="D1840" s="4" t="s">
         <v>4017</v>
       </c>
-      <c r="E1840" s="5" t="s">
+      <c r="E1840" s="4" t="s">
         <v>4018</v>
       </c>
     </row>
@@ -44447,10 +44438,10 @@
       <c r="C1841" s="1" t="s">
         <v>4020</v>
       </c>
-      <c r="D1841" s="2" t="s">
+      <c r="D1841" s="4" t="s">
         <v>4021</v>
       </c>
-      <c r="E1841" s="5" t="s">
+      <c r="E1841" s="4" t="s">
         <v>4022</v>
       </c>
     </row>
@@ -44464,10 +44455,10 @@
       <c r="C1842" s="1" t="s">
         <v>4024</v>
       </c>
-      <c r="D1842" s="2" t="s">
+      <c r="D1842" s="4" t="s">
         <v>4025</v>
       </c>
-      <c r="E1842" s="5" t="s">
+      <c r="E1842" s="4" t="s">
         <v>4026</v>
       </c>
     </row>
@@ -44481,10 +44472,10 @@
       <c r="C1843" s="1" t="s">
         <v>4028</v>
       </c>
-      <c r="D1843" s="2" t="s">
+      <c r="D1843" s="4" t="s">
         <v>4029</v>
       </c>
-      <c r="E1843" s="5" t="s">
+      <c r="E1843" s="4" t="s">
         <v>4030</v>
       </c>
     </row>
@@ -44498,10 +44489,10 @@
       <c r="C1844" s="1" t="s">
         <v>4032</v>
       </c>
-      <c r="D1844" s="2" t="s">
+      <c r="D1844" s="4" t="s">
         <v>4033</v>
       </c>
-      <c r="E1844" s="5" t="s">
+      <c r="E1844" s="4" t="s">
         <v>4034</v>
       </c>
     </row>
@@ -44515,10 +44506,10 @@
       <c r="C1845" s="1" t="s">
         <v>4036</v>
       </c>
-      <c r="D1845" s="5" t="s">
+      <c r="D1845" s="4" t="s">
         <v>4037</v>
       </c>
-      <c r="E1845" s="5" t="s">
+      <c r="E1845" s="4" t="s">
         <v>4038</v>
       </c>
     </row>
@@ -44532,10 +44523,10 @@
       <c r="C1846" s="1" t="s">
         <v>4040</v>
       </c>
-      <c r="D1846" s="2" t="s">
+      <c r="D1846" s="4" t="s">
         <v>4041</v>
       </c>
-      <c r="E1846" s="5" t="s">
+      <c r="E1846" s="4" t="s">
         <v>4042</v>
       </c>
     </row>
@@ -44549,10 +44540,10 @@
       <c r="C1847" s="1" t="s">
         <v>4044</v>
       </c>
-      <c r="D1847" s="2" t="s">
+      <c r="D1847" s="4" t="s">
         <v>4045</v>
       </c>
-      <c r="E1847" s="5" t="s">
+      <c r="E1847" s="4" t="s">
         <v>4046</v>
       </c>
     </row>
@@ -44566,10 +44557,10 @@
       <c r="C1848" s="1" t="s">
         <v>4047</v>
       </c>
-      <c r="D1848" s="2" t="s">
+      <c r="D1848" s="4" t="s">
         <v>4048</v>
       </c>
-      <c r="E1848" s="5" t="s">
+      <c r="E1848" s="4" t="s">
         <v>4049</v>
       </c>
     </row>
@@ -44583,10 +44574,10 @@
       <c r="C1849" s="1" t="s">
         <v>4051</v>
       </c>
-      <c r="D1849" s="2" t="s">
+      <c r="D1849" s="4" t="s">
         <v>4052</v>
       </c>
-      <c r="E1849" s="5" t="s">
+      <c r="E1849" s="4" t="s">
         <v>4053</v>
       </c>
     </row>
@@ -44600,10 +44591,10 @@
       <c r="C1850" s="1" t="s">
         <v>4055</v>
       </c>
-      <c r="D1850" s="2" t="s">
+      <c r="D1850" s="4" t="s">
         <v>4056</v>
       </c>
-      <c r="E1850" s="5" t="s">
+      <c r="E1850" s="4" t="s">
         <v>4057</v>
       </c>
     </row>
@@ -44617,10 +44608,10 @@
       <c r="C1851" s="1" t="s">
         <v>4059</v>
       </c>
-      <c r="D1851" s="2" t="s">
+      <c r="D1851" s="4" t="s">
         <v>4060</v>
       </c>
-      <c r="E1851" s="5" t="s">
+      <c r="E1851" s="4" t="s">
         <v>4061</v>
       </c>
     </row>
@@ -44634,10 +44625,10 @@
       <c r="C1852" s="1" t="s">
         <v>4063</v>
       </c>
-      <c r="D1852" s="2" t="s">
+      <c r="D1852" s="4" t="s">
         <v>4064</v>
       </c>
-      <c r="E1852" s="5" t="s">
+      <c r="E1852" s="4" t="s">
         <v>4065</v>
       </c>
     </row>
@@ -44651,10 +44642,10 @@
       <c r="C1853" s="1" t="s">
         <v>4067</v>
       </c>
-      <c r="D1853" s="2" t="s">
+      <c r="D1853" s="4" t="s">
         <v>4068</v>
       </c>
-      <c r="E1853" s="5" t="s">
+      <c r="E1853" s="4" t="s">
         <v>4069</v>
       </c>
     </row>
@@ -44668,10 +44659,10 @@
       <c r="C1854" s="1" t="s">
         <v>4071</v>
       </c>
-      <c r="D1854" s="2" t="s">
+      <c r="D1854" s="4" t="s">
         <v>4072</v>
       </c>
-      <c r="E1854" s="5" t="s">
+      <c r="E1854" s="4" t="s">
         <v>4073</v>
       </c>
     </row>
@@ -44685,10 +44676,10 @@
       <c r="C1855" s="1" t="s">
         <v>4075</v>
       </c>
-      <c r="D1855" s="2" t="s">
+      <c r="D1855" s="4" t="s">
         <v>4076</v>
       </c>
-      <c r="E1855" s="5" t="s">
+      <c r="E1855" s="4" t="s">
         <v>4077</v>
       </c>
     </row>
@@ -44702,10 +44693,10 @@
       <c r="C1856" s="1" t="s">
         <v>4079</v>
       </c>
-      <c r="D1856" s="2" t="s">
+      <c r="D1856" s="4" t="s">
         <v>4080</v>
       </c>
-      <c r="E1856" s="5" t="s">
+      <c r="E1856" s="4" t="s">
         <v>4081</v>
       </c>
     </row>
@@ -44719,10 +44710,10 @@
       <c r="C1857" s="1" t="s">
         <v>4083</v>
       </c>
-      <c r="D1857" s="2" t="s">
+      <c r="D1857" s="4" t="s">
         <v>4084</v>
       </c>
-      <c r="E1857" s="5" t="s">
+      <c r="E1857" s="4" t="s">
         <v>4085</v>
       </c>
     </row>
@@ -44736,10 +44727,10 @@
       <c r="C1858" s="1" t="s">
         <v>4087</v>
       </c>
-      <c r="D1858" s="2" t="s">
+      <c r="D1858" s="4" t="s">
         <v>4088</v>
       </c>
-      <c r="E1858" s="5" t="s">
+      <c r="E1858" s="4" t="s">
         <v>4089</v>
       </c>
     </row>
@@ -44753,10 +44744,10 @@
       <c r="C1859" s="1" t="s">
         <v>4091</v>
       </c>
-      <c r="D1859" s="2" t="s">
+      <c r="D1859" s="4" t="s">
         <v>4092</v>
       </c>
-      <c r="E1859" s="5" t="s">
+      <c r="E1859" s="4" t="s">
         <v>4093</v>
       </c>
     </row>
@@ -44770,10 +44761,10 @@
       <c r="C1860" s="1" t="s">
         <v>4095</v>
       </c>
-      <c r="D1860" s="2" t="s">
+      <c r="D1860" s="4" t="s">
         <v>4096</v>
       </c>
-      <c r="E1860" s="5" t="s">
+      <c r="E1860" s="4" t="s">
         <v>4097</v>
       </c>
     </row>
@@ -44787,10 +44778,10 @@
       <c r="C1861" s="1" t="s">
         <v>4099</v>
       </c>
-      <c r="D1861" s="2" t="s">
+      <c r="D1861" s="4" t="s">
         <v>4100</v>
       </c>
-      <c r="E1861" s="5" t="s">
+      <c r="E1861" s="4" t="s">
         <v>4101</v>
       </c>
     </row>
@@ -44804,10 +44795,10 @@
       <c r="C1862" s="1" t="s">
         <v>4103</v>
       </c>
-      <c r="D1862" s="2" t="s">
+      <c r="D1862" s="4" t="s">
         <v>4104</v>
       </c>
-      <c r="E1862" s="5" t="s">
+      <c r="E1862" s="4" t="s">
         <v>4105</v>
       </c>
     </row>
@@ -44821,10 +44812,10 @@
       <c r="C1863" s="1" t="s">
         <v>4107</v>
       </c>
-      <c r="D1863" s="2" t="s">
+      <c r="D1863" s="4" t="s">
         <v>4108</v>
       </c>
-      <c r="E1863" s="5" t="s">
+      <c r="E1863" s="4" t="s">
         <v>4109</v>
       </c>
     </row>
@@ -44838,10 +44829,10 @@
       <c r="C1864" s="1" t="s">
         <v>4111</v>
       </c>
-      <c r="D1864" s="2" t="s">
+      <c r="D1864" s="4" t="s">
         <v>4112</v>
       </c>
-      <c r="E1864" s="5" t="s">
+      <c r="E1864" s="4" t="s">
         <v>4113</v>
       </c>
     </row>
@@ -44855,10 +44846,10 @@
       <c r="C1865" s="1" t="s">
         <v>4114</v>
       </c>
-      <c r="D1865" s="2" t="s">
+      <c r="D1865" s="4" t="s">
         <v>4115</v>
       </c>
-      <c r="E1865" s="5" t="s">
+      <c r="E1865" s="4" t="s">
         <v>4116</v>
       </c>
     </row>
@@ -44872,10 +44863,10 @@
       <c r="C1866" s="1" t="s">
         <v>4118</v>
       </c>
-      <c r="D1866" s="2" t="s">
+      <c r="D1866" s="4" t="s">
         <v>4119</v>
       </c>
-      <c r="E1866" s="5" t="s">
+      <c r="E1866" s="4" t="s">
         <v>4120</v>
       </c>
     </row>
@@ -44889,10 +44880,10 @@
       <c r="C1867" s="1" t="s">
         <v>4122</v>
       </c>
-      <c r="D1867" s="2" t="s">
+      <c r="D1867" s="4" t="s">
         <v>4123</v>
       </c>
-      <c r="E1867" s="5" t="s">
+      <c r="E1867" s="4" t="s">
         <v>4124</v>
       </c>
     </row>
@@ -44906,10 +44897,10 @@
       <c r="C1868" s="1" t="s">
         <v>4125</v>
       </c>
-      <c r="D1868" s="2" t="s">
+      <c r="D1868" s="4" t="s">
         <v>4126</v>
       </c>
-      <c r="E1868" s="5" t="s">
+      <c r="E1868" s="4" t="s">
         <v>4127</v>
       </c>
     </row>
@@ -44923,10 +44914,10 @@
       <c r="C1869" s="1" t="s">
         <v>4129</v>
       </c>
-      <c r="D1869" s="2" t="s">
+      <c r="D1869" s="4" t="s">
         <v>4130</v>
       </c>
-      <c r="E1869" s="5" t="s">
+      <c r="E1869" s="4" t="s">
         <v>4131</v>
       </c>
     </row>
@@ -44940,10 +44931,10 @@
       <c r="C1870" s="1" t="s">
         <v>4133</v>
       </c>
-      <c r="D1870" s="2" t="s">
+      <c r="D1870" s="4" t="s">
         <v>4134</v>
       </c>
-      <c r="E1870" s="5" t="s">
+      <c r="E1870" s="4" t="s">
         <v>4135</v>
       </c>
     </row>
@@ -44957,10 +44948,10 @@
       <c r="C1871" s="1" t="s">
         <v>4137</v>
       </c>
-      <c r="D1871" s="2" t="s">
+      <c r="D1871" s="4" t="s">
         <v>4138</v>
       </c>
-      <c r="E1871" s="5" t="s">
+      <c r="E1871" s="4" t="s">
         <v>4139</v>
       </c>
     </row>
@@ -44974,10 +44965,10 @@
       <c r="C1872" s="1" t="s">
         <v>4141</v>
       </c>
-      <c r="D1872" s="2" t="s">
+      <c r="D1872" s="4" t="s">
         <v>4142</v>
       </c>
-      <c r="E1872" s="5" t="s">
+      <c r="E1872" s="4" t="s">
         <v>4143</v>
       </c>
     </row>
@@ -44991,10 +44982,10 @@
       <c r="C1873" s="1" t="s">
         <v>4144</v>
       </c>
-      <c r="D1873" s="2" t="s">
+      <c r="D1873" s="4" t="s">
         <v>4145</v>
       </c>
-      <c r="E1873" s="5" t="s">
+      <c r="E1873" s="4" t="s">
         <v>4146</v>
       </c>
     </row>
@@ -45008,10 +44999,10 @@
       <c r="C1874" s="1" t="s">
         <v>4148</v>
       </c>
-      <c r="D1874" s="2" t="s">
+      <c r="D1874" s="4" t="s">
         <v>4149</v>
       </c>
-      <c r="E1874" s="5" t="s">
+      <c r="E1874" s="4" t="s">
         <v>4150</v>
       </c>
     </row>
@@ -45025,10 +45016,10 @@
       <c r="C1875" s="1" t="s">
         <v>4152</v>
       </c>
-      <c r="D1875" s="2" t="s">
+      <c r="D1875" s="4" t="s">
         <v>4153</v>
       </c>
-      <c r="E1875" s="5" t="s">
+      <c r="E1875" s="4" t="s">
         <v>4154</v>
       </c>
     </row>
@@ -45042,10 +45033,10 @@
       <c r="C1876" s="1" t="s">
         <v>4155</v>
       </c>
-      <c r="D1876" s="2" t="s">
+      <c r="D1876" s="4" t="s">
         <v>4156</v>
       </c>
-      <c r="E1876" s="5" t="s">
+      <c r="E1876" s="4" t="s">
         <v>4157</v>
       </c>
     </row>
@@ -45059,10 +45050,10 @@
       <c r="C1877" s="1" t="s">
         <v>4158</v>
       </c>
-      <c r="D1877" s="2" t="s">
+      <c r="D1877" s="4" t="s">
         <v>4159</v>
       </c>
-      <c r="E1877" s="5" t="s">
+      <c r="E1877" s="4" t="s">
         <v>4160</v>
       </c>
     </row>
@@ -45076,10 +45067,10 @@
       <c r="C1878" s="1" t="s">
         <v>4162</v>
       </c>
-      <c r="D1878" s="2" t="s">
+      <c r="D1878" s="4" t="s">
         <v>4163</v>
       </c>
-      <c r="E1878" s="5" t="s">
+      <c r="E1878" s="4" t="s">
         <v>4164</v>
       </c>
     </row>
@@ -45093,10 +45084,10 @@
       <c r="C1879" s="1" t="s">
         <v>4166</v>
       </c>
-      <c r="D1879" s="2" t="s">
+      <c r="D1879" s="4" t="s">
         <v>4167</v>
       </c>
-      <c r="E1879" s="5" t="s">
+      <c r="E1879" s="4" t="s">
         <v>4168</v>
       </c>
     </row>
@@ -45110,10 +45101,10 @@
       <c r="C1880" s="1" t="s">
         <v>4169</v>
       </c>
-      <c r="D1880" s="2" t="s">
+      <c r="D1880" s="4" t="s">
         <v>4170</v>
       </c>
-      <c r="E1880" s="5" t="s">
+      <c r="E1880" s="4" t="s">
         <v>4171</v>
       </c>
     </row>
@@ -45127,10 +45118,10 @@
       <c r="C1881" s="1" t="s">
         <v>4173</v>
       </c>
-      <c r="D1881" s="2" t="s">
+      <c r="D1881" s="4" t="s">
         <v>4174</v>
       </c>
-      <c r="E1881" s="5" t="s">
+      <c r="E1881" s="4" t="s">
         <v>4175</v>
       </c>
     </row>
@@ -45144,10 +45135,10 @@
       <c r="C1882" s="1" t="s">
         <v>4177</v>
       </c>
-      <c r="D1882" s="2" t="s">
+      <c r="D1882" s="4" t="s">
         <v>4178</v>
       </c>
-      <c r="E1882" s="5" t="s">
+      <c r="E1882" s="4" t="s">
         <v>4179</v>
       </c>
     </row>
@@ -45161,10 +45152,10 @@
       <c r="C1883" s="1" t="s">
         <v>4180</v>
       </c>
-      <c r="D1883" s="2" t="s">
+      <c r="D1883" s="4" t="s">
         <v>4181</v>
       </c>
-      <c r="E1883" s="5" t="s">
+      <c r="E1883" s="4" t="s">
         <v>4182</v>
       </c>
     </row>
@@ -45178,10 +45169,10 @@
       <c r="C1884" s="1" t="s">
         <v>4184</v>
       </c>
-      <c r="D1884" s="2" t="s">
+      <c r="D1884" s="4" t="s">
         <v>4185</v>
       </c>
-      <c r="E1884" s="5" t="s">
+      <c r="E1884" s="4" t="s">
         <v>4186</v>
       </c>
     </row>
@@ -45195,10 +45186,10 @@
       <c r="C1885" s="1" t="s">
         <v>4188</v>
       </c>
-      <c r="D1885" s="2" t="s">
+      <c r="D1885" s="4" t="s">
         <v>4189</v>
       </c>
-      <c r="E1885" s="5" t="s">
+      <c r="E1885" s="4" t="s">
         <v>4190</v>
       </c>
     </row>
@@ -45212,10 +45203,10 @@
       <c r="C1886" s="1" t="s">
         <v>4192</v>
       </c>
-      <c r="D1886" s="2" t="s">
+      <c r="D1886" s="4" t="s">
         <v>4193</v>
       </c>
-      <c r="E1886" s="5" t="s">
+      <c r="E1886" s="4" t="s">
         <v>4194</v>
       </c>
     </row>
@@ -45229,10 +45220,10 @@
       <c r="C1887" s="1" t="s">
         <v>4196</v>
       </c>
-      <c r="D1887" s="2" t="s">
+      <c r="D1887" s="4" t="s">
         <v>4197</v>
       </c>
-      <c r="E1887" s="5" t="s">
+      <c r="E1887" s="4" t="s">
         <v>4198</v>
       </c>
     </row>
@@ -45246,10 +45237,10 @@
       <c r="C1888" s="1" t="s">
         <v>4200</v>
       </c>
-      <c r="D1888" s="2" t="s">
+      <c r="D1888" s="4" t="s">
         <v>4201</v>
       </c>
-      <c r="E1888" s="5" t="s">
+      <c r="E1888" s="4" t="s">
         <v>4202</v>
       </c>
     </row>
@@ -45263,10 +45254,10 @@
       <c r="C1889" s="1" t="s">
         <v>4204</v>
       </c>
-      <c r="D1889" s="2" t="s">
+      <c r="D1889" s="4" t="s">
         <v>4205</v>
       </c>
-      <c r="E1889" s="5" t="s">
+      <c r="E1889" s="4" t="s">
         <v>4206</v>
       </c>
     </row>
@@ -45280,10 +45271,10 @@
       <c r="C1890" s="1" t="s">
         <v>4208</v>
       </c>
-      <c r="D1890" s="2" t="s">
+      <c r="D1890" s="4" t="s">
         <v>4209</v>
       </c>
-      <c r="E1890" s="5" t="s">
+      <c r="E1890" s="4" t="s">
         <v>4210</v>
       </c>
     </row>
@@ -45297,10 +45288,10 @@
       <c r="C1891" s="1" t="s">
         <v>4212</v>
       </c>
-      <c r="D1891" s="2" t="s">
+      <c r="D1891" s="4" t="s">
         <v>4213</v>
       </c>
-      <c r="E1891" s="5" t="s">
+      <c r="E1891" s="4" t="s">
         <v>4214</v>
       </c>
     </row>
@@ -45314,10 +45305,10 @@
       <c r="C1892" s="1" t="s">
         <v>4215</v>
       </c>
-      <c r="D1892" s="2" t="s">
+      <c r="D1892" s="4" t="s">
         <v>4216</v>
       </c>
-      <c r="E1892" s="5" t="s">
+      <c r="E1892" s="4" t="s">
         <v>4217</v>
       </c>
     </row>
@@ -45331,10 +45322,10 @@
       <c r="C1893" s="1" t="s">
         <v>4219</v>
       </c>
-      <c r="D1893" s="2" t="s">
+      <c r="D1893" s="4" t="s">
         <v>4220</v>
       </c>
-      <c r="E1893" s="2" t="s">
+      <c r="E1893" s="4" t="s">
         <v>4221</v>
       </c>
     </row>
@@ -45348,10 +45339,10 @@
       <c r="C1894" s="1" t="s">
         <v>4223</v>
       </c>
-      <c r="D1894" s="2" t="s">
+      <c r="D1894" s="4" t="s">
         <v>4224</v>
       </c>
-      <c r="E1894" s="5" t="s">
+      <c r="E1894" s="4" t="s">
         <v>4225</v>
       </c>
     </row>
@@ -45365,10 +45356,10 @@
       <c r="C1895" s="1" t="s">
         <v>4227</v>
       </c>
-      <c r="D1895" s="2" t="s">
+      <c r="D1895" s="4" t="s">
         <v>4228</v>
       </c>
-      <c r="E1895" s="5" t="s">
+      <c r="E1895" s="4" t="s">
         <v>4229</v>
       </c>
     </row>
@@ -45382,10 +45373,10 @@
       <c r="C1896" s="1" t="s">
         <v>4231</v>
       </c>
-      <c r="D1896" s="2" t="s">
+      <c r="D1896" s="4" t="s">
         <v>4232</v>
       </c>
-      <c r="E1896" s="2" t="s">
+      <c r="E1896" s="4" t="s">
         <v>4233</v>
       </c>
     </row>
@@ -45399,10 +45390,10 @@
       <c r="C1897" s="1" t="s">
         <v>4235</v>
       </c>
-      <c r="D1897" s="2" t="s">
+      <c r="D1897" s="4" t="s">
         <v>4236</v>
       </c>
-      <c r="E1897" s="5" t="s">
+      <c r="E1897" s="4" t="s">
         <v>4237</v>
       </c>
     </row>
@@ -45416,10 +45407,10 @@
       <c r="C1898" s="1" t="s">
         <v>4239</v>
       </c>
-      <c r="D1898" s="2" t="s">
+      <c r="D1898" s="4" t="s">
         <v>4240</v>
       </c>
-      <c r="E1898" s="5" t="s">
+      <c r="E1898" s="4" t="s">
         <v>4241</v>
       </c>
     </row>
@@ -45433,10 +45424,10 @@
       <c r="C1899" s="1" t="s">
         <v>4243</v>
       </c>
-      <c r="D1899" s="2" t="s">
+      <c r="D1899" s="4" t="s">
         <v>4244</v>
       </c>
-      <c r="E1899" s="5" t="s">
+      <c r="E1899" s="4" t="s">
         <v>4245</v>
       </c>
     </row>
@@ -45450,10 +45441,10 @@
       <c r="C1900" s="1" t="s">
         <v>4247</v>
       </c>
-      <c r="D1900" s="2" t="s">
+      <c r="D1900" s="4" t="s">
         <v>4248</v>
       </c>
-      <c r="E1900" s="5" t="s">
+      <c r="E1900" s="4" t="s">
         <v>4249</v>
       </c>
     </row>
@@ -45467,10 +45458,10 @@
       <c r="C1901" s="1" t="s">
         <v>4251</v>
       </c>
-      <c r="D1901" s="2" t="s">
+      <c r="D1901" s="4" t="s">
         <v>4252</v>
       </c>
-      <c r="E1901" s="5" t="s">
+      <c r="E1901" s="4" t="s">
         <v>4253</v>
       </c>
     </row>
@@ -45484,10 +45475,10 @@
       <c r="C1902" s="1" t="s">
         <v>4255</v>
       </c>
-      <c r="D1902" s="2" t="s">
+      <c r="D1902" s="4" t="s">
         <v>4256</v>
       </c>
-      <c r="E1902" s="2" t="s">
+      <c r="E1902" s="4" t="s">
         <v>4257</v>
       </c>
     </row>
@@ -45501,10 +45492,10 @@
       <c r="C1903" s="1" t="s">
         <v>4259</v>
       </c>
-      <c r="D1903" s="2" t="s">
+      <c r="D1903" s="4" t="s">
         <v>4260</v>
       </c>
-      <c r="E1903" s="5" t="s">
+      <c r="E1903" s="4" t="s">
         <v>4261</v>
       </c>
     </row>
@@ -45518,10 +45509,10 @@
       <c r="C1904" s="1" t="s">
         <v>4263</v>
       </c>
-      <c r="D1904" s="2" t="s">
+      <c r="D1904" s="4" t="s">
         <v>4264</v>
       </c>
-      <c r="E1904" s="5" t="s">
+      <c r="E1904" s="4" t="s">
         <v>4265</v>
       </c>
     </row>
@@ -45535,10 +45526,10 @@
       <c r="C1905" s="1" t="s">
         <v>4267</v>
       </c>
-      <c r="D1905" s="2" t="s">
+      <c r="D1905" s="4" t="s">
         <v>4268</v>
       </c>
-      <c r="E1905" s="5" t="s">
+      <c r="E1905" s="4" t="s">
         <v>4269</v>
       </c>
     </row>
